--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_2022_0213\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CD3D3-3AA0-4FDF-BAA6-172604BA2A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2011B38C-0E7F-4201-8541-5745D26587F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -477,6 +477,126 @@
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承:新月神链</t>
+  </si>
+  <si>
+    <t>传承:勇者的无畏</t>
+  </si>
+  <si>
+    <t>传承:勇者的意志</t>
+  </si>
+  <si>
+    <t>传承:守护者的神杖</t>
+  </si>
+  <si>
+    <t>传承:圣灵的魔法书</t>
+  </si>
+  <si>
+    <t>传承:疾风者的疯狂</t>
+  </si>
+  <si>
+    <t>传承:圣域的记忆</t>
+  </si>
+  <si>
+    <t>传承:米希尔之力</t>
+  </si>
+  <si>
+    <t>传承:恒心使徒的魔链</t>
+  </si>
+  <si>
+    <t>传承:碧蓝之歌</t>
+  </si>
+  <si>
+    <t>传承:有坚不摧之力</t>
+  </si>
+  <si>
+    <t>传承:炽热燃烧权杖</t>
+  </si>
+  <si>
+    <t>传承:毁灭之书</t>
+  </si>
+  <si>
+    <t>传承:光之怒</t>
+  </si>
+  <si>
+    <t>传承:神灵启示者</t>
+  </si>
+  <si>
+    <t>传承:降魔护卫者</t>
+  </si>
+  <si>
+    <t>传承:末日的启示者</t>
+  </si>
+  <si>
+    <t>传承:寒冰使者的佩剑</t>
+  </si>
+  <si>
+    <t>传承:黎明的护卫者</t>
+  </si>
+  <si>
+    <t>传承:冰灵惩戒之杖</t>
+  </si>
+  <si>
+    <t>传承:王者的愤怒</t>
+  </si>
+  <si>
+    <t>传承:正义的呼唤</t>
+  </si>
+  <si>
+    <t>传承:暴灵的守护</t>
+  </si>
+  <si>
+    <t>传承:神官的黄昏</t>
+  </si>
+  <si>
+    <t>传承:女王项链</t>
+  </si>
+  <si>
+    <t>传承:黑暗毁灭者</t>
+  </si>
+  <si>
+    <t>传承:末日的决战</t>
+  </si>
+  <si>
+    <t>传承:堕落的使者</t>
+  </si>
+  <si>
+    <t>传承:上层精灵的魔法</t>
+  </si>
+  <si>
+    <t>传承:尽头之声</t>
+  </si>
+  <si>
+    <t>传承:天籁长袍</t>
+  </si>
+  <si>
+    <t>传承:不败的意志</t>
+  </si>
+  <si>
+    <t>传承:力量的召唤</t>
+  </si>
+  <si>
+    <t>传承:圣焰之剑</t>
+  </si>
+  <si>
+    <t>传承:远古王者之刃</t>
+  </si>
+  <si>
+    <t>传承:天堂的权杖</t>
+  </si>
+  <si>
+    <t>传承:时光能量魔法</t>
+  </si>
+  <si>
+    <t>传承:噩梦裁决者</t>
+  </si>
+  <si>
+    <t>传承:祝福者外衣</t>
+  </si>
+  <si>
+    <t>传承:怒之烈焰</t>
   </si>
 </sst>
 </file>
@@ -753,7 +873,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1149,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -6620,7 +6752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6650,13 +6782,19 @@
     <xf numFmtId="0" fontId="22" fillId="48" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8872,11 +9010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8884,7 +9022,7 @@
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="13"/>
+    <col min="8" max="8" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8945,10 +9083,10 @@
       <c r="E6" s="6">
         <v>14010004</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8962,10 +9100,10 @@
       <c r="E7" s="6">
         <v>14010008</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8979,10 +9117,10 @@
       <c r="E8" s="6">
         <v>14010012</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8996,10 +9134,10 @@
       <c r="E9" s="6">
         <v>14020004</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9013,10 +9151,10 @@
       <c r="E10" s="6">
         <v>14020008</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9030,10 +9168,10 @@
       <c r="E11" s="6">
         <v>14020012</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9185,10 @@
       <c r="E12" s="6">
         <v>14030004</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9064,10 +9202,10 @@
       <c r="E13" s="6">
         <v>14030008</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9081,10 +9219,10 @@
       <c r="E14" s="6">
         <v>14030012</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9098,10 +9236,10 @@
       <c r="E15" s="6">
         <v>14040004</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9115,10 +9253,10 @@
       <c r="E16" s="6">
         <v>14040008</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9132,10 +9270,10 @@
       <c r="E17" s="6">
         <v>14040012</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9149,10 +9287,10 @@
       <c r="E18" s="9">
         <v>14050004</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>3</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9166,10 +9304,10 @@
       <c r="E19" s="9">
         <v>14050008</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9183,10 +9321,10 @@
       <c r="E20" s="9">
         <v>14050012</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <v>3</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9200,10 +9338,10 @@
       <c r="E21" s="6">
         <v>14060004</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="6">
         <v>5</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9217,10 +9355,10 @@
       <c r="E22" s="6">
         <v>14070004</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9234,10 +9372,10 @@
       <c r="E23" s="6">
         <v>14080003</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="6">
         <v>5</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9251,10 +9389,10 @@
       <c r="E24" s="6">
         <v>14090003</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="6">
         <v>5</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9268,10 +9406,10 @@
       <c r="E25" s="6">
         <v>14100004</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="6">
         <v>10</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9285,10 +9423,10 @@
       <c r="E26" s="6">
         <v>14100008</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="6">
         <v>10</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9302,10 +9440,10 @@
       <c r="E27" s="9">
         <v>14100104</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="6">
         <v>10</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9319,10 +9457,10 @@
       <c r="E28" s="9">
         <v>14100108</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9336,10 +9474,10 @@
       <c r="E29" s="6">
         <v>14110004</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="6">
         <v>5</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9353,10 +9491,10 @@
       <c r="E30" s="6">
         <v>14110008</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>5</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9364,1397 +9502,2557 @@
       <c r="C31" s="6">
         <v>110026</v>
       </c>
-      <c r="D31" s="8">
-        <v>0</v>
+      <c r="D31" s="6">
+        <v>110027</v>
       </c>
       <c r="E31" s="6">
         <v>14110012</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="6">
         <v>5</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7">
+      <c r="C32" s="6">
+        <v>110027</v>
+      </c>
+      <c r="D32" s="6">
+        <v>110028</v>
+      </c>
+      <c r="E32" s="13">
+        <v>14060005</v>
+      </c>
+      <c r="F32" s="6">
+        <v>20</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="6">
+        <v>110028</v>
+      </c>
+      <c r="D33" s="6">
+        <v>110029</v>
+      </c>
+      <c r="E33" s="15">
+        <v>14100011</v>
+      </c>
+      <c r="F33" s="6">
+        <v>20</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="6">
+        <v>110029</v>
+      </c>
+      <c r="D34" s="6">
+        <v>110030</v>
+      </c>
+      <c r="E34" s="15">
+        <v>14100012</v>
+      </c>
+      <c r="F34" s="6">
+        <v>20</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="6">
+        <v>110030</v>
+      </c>
+      <c r="D35" s="6">
+        <v>110031</v>
+      </c>
+      <c r="E35" s="13">
+        <v>14100111</v>
+      </c>
+      <c r="F35" s="6">
+        <v>20</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="6">
+        <v>110031</v>
+      </c>
+      <c r="D36" s="6">
+        <v>110032</v>
+      </c>
+      <c r="E36" s="13">
+        <v>14100112</v>
+      </c>
+      <c r="F36" s="6">
+        <v>20</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="6">
+        <v>110032</v>
+      </c>
+      <c r="D37" s="6">
+        <v>110033</v>
+      </c>
+      <c r="E37" s="13">
+        <v>14110021</v>
+      </c>
+      <c r="F37" s="6">
+        <v>20</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="6">
+        <v>110033</v>
+      </c>
+      <c r="D38" s="6">
+        <v>110034</v>
+      </c>
+      <c r="E38" s="13">
+        <v>14110022</v>
+      </c>
+      <c r="F38" s="6">
+        <v>20</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="6">
+        <v>110034</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>14110023</v>
+      </c>
+      <c r="F39" s="6">
+        <v>20</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="7">
         <f>C6+10000</f>
         <v>120001</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" ref="C32:D57" si="0">D6+10000</f>
+      <c r="D40" s="7">
+        <f t="shared" ref="C40:D65" si="0">D6+10000</f>
         <v>120002</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E40" s="7">
         <v>15201002</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F40" s="6">
         <v>3</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7">
-        <f t="shared" si="0"/>
-        <v>120002</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>120003</v>
-      </c>
-      <c r="E33" s="7">
-        <v>15201004</v>
-      </c>
-      <c r="F33" s="11">
-        <v>3</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="7">
-        <f t="shared" si="0"/>
-        <v>120003</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>120004</v>
-      </c>
-      <c r="E34" s="7">
-        <v>15201006</v>
-      </c>
-      <c r="F34" s="11">
-        <v>3</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="7">
-        <f t="shared" si="0"/>
-        <v>120004</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="0"/>
-        <v>120005</v>
-      </c>
-      <c r="E35" s="7">
-        <v>15202002</v>
-      </c>
-      <c r="F35" s="11">
-        <v>3</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7">
-        <f t="shared" si="0"/>
-        <v>120005</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" si="0"/>
-        <v>120006</v>
-      </c>
-      <c r="E36" s="7">
-        <v>15202004</v>
-      </c>
-      <c r="F36" s="11">
-        <v>3</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="7">
-        <f t="shared" si="0"/>
-        <v>120006</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>120007</v>
-      </c>
-      <c r="E37" s="7">
-        <v>15202006</v>
-      </c>
-      <c r="F37" s="11">
-        <v>3</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="7">
-        <f t="shared" si="0"/>
-        <v>120007</v>
-      </c>
-      <c r="D38" s="7">
-        <f t="shared" si="0"/>
-        <v>120008</v>
-      </c>
-      <c r="E38" s="7">
-        <v>15203002</v>
-      </c>
-      <c r="F38" s="11">
-        <v>3</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="7">
-        <f t="shared" si="0"/>
-        <v>120008</v>
-      </c>
-      <c r="D39" s="7">
-        <f t="shared" si="0"/>
-        <v>120009</v>
-      </c>
-      <c r="E39" s="7">
-        <v>15203004</v>
-      </c>
-      <c r="F39" s="11">
-        <v>3</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="7">
-        <f t="shared" si="0"/>
-        <v>120009</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" si="0"/>
-        <v>120010</v>
-      </c>
-      <c r="E40" s="7">
-        <v>15203006</v>
-      </c>
-      <c r="F40" s="11">
-        <v>3</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>120010</v>
+        <v>120002</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="0"/>
-        <v>120011</v>
+        <v>120003</v>
       </c>
       <c r="E41" s="7">
-        <v>15204002</v>
-      </c>
-      <c r="F41" s="11">
+        <v>15201004</v>
+      </c>
+      <c r="F41" s="6">
         <v>3</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>41</v>
+      <c r="H41" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>120011</v>
+        <v>120003</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="0"/>
-        <v>120012</v>
+        <v>120004</v>
       </c>
       <c r="E42" s="7">
-        <v>15204004</v>
-      </c>
-      <c r="F42" s="11">
+        <v>15201006</v>
+      </c>
+      <c r="F42" s="6">
         <v>3</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>42</v>
+      <c r="H42" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>120012</v>
+        <v>120004</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="0"/>
-        <v>120013</v>
+        <v>120005</v>
       </c>
       <c r="E43" s="7">
-        <v>15204006</v>
-      </c>
-      <c r="F43" s="11">
+        <v>15202002</v>
+      </c>
+      <c r="F43" s="6">
         <v>3</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>43</v>
+      <c r="H43" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>120013</v>
+        <v>120005</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="0"/>
-        <v>120014</v>
+        <v>120006</v>
       </c>
       <c r="E44" s="7">
-        <v>15205002</v>
-      </c>
-      <c r="F44" s="11">
+        <v>15202004</v>
+      </c>
+      <c r="F44" s="6">
         <v>3</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>44</v>
+      <c r="H44" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>120014</v>
+        <v>120006</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="0"/>
-        <v>120015</v>
+        <v>120007</v>
       </c>
       <c r="E45" s="7">
-        <v>15205004</v>
-      </c>
-      <c r="F45" s="11">
+        <v>15202006</v>
+      </c>
+      <c r="F45" s="6">
         <v>3</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>45</v>
+      <c r="H45" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>120015</v>
+        <v>120007</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="0"/>
-        <v>120016</v>
+        <v>120008</v>
       </c>
       <c r="E46" s="7">
-        <v>15205006</v>
-      </c>
-      <c r="F46" s="11">
+        <v>15203002</v>
+      </c>
+      <c r="F46" s="6">
         <v>3</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>46</v>
+      <c r="H46" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>120016</v>
+        <v>120008</v>
       </c>
       <c r="D47" s="7">
         <f t="shared" si="0"/>
-        <v>120017</v>
+        <v>120009</v>
       </c>
       <c r="E47" s="7">
-        <v>15206002</v>
-      </c>
-      <c r="F47" s="11">
-        <v>5</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>47</v>
+        <v>15203004</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>120017</v>
+        <v>120009</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="0"/>
-        <v>120018</v>
+        <v>120010</v>
       </c>
       <c r="E48" s="7">
-        <v>15207002</v>
-      </c>
-      <c r="F48" s="11">
-        <v>5</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>48</v>
+        <v>15203006</v>
+      </c>
+      <c r="F48" s="6">
+        <v>3</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>120018</v>
+        <v>120010</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="0"/>
-        <v>120019</v>
+        <v>120011</v>
       </c>
       <c r="E49" s="7">
-        <v>15208002</v>
-      </c>
-      <c r="F49" s="11">
-        <v>5</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>49</v>
+        <v>15204002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>120019</v>
+        <v>120011</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="0"/>
-        <v>120020</v>
+        <v>120012</v>
       </c>
       <c r="E50" s="7">
-        <v>15209002</v>
-      </c>
-      <c r="F50" s="11">
-        <v>5</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>50</v>
+        <v>15204004</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>120020</v>
+        <v>120012</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="0"/>
-        <v>120021</v>
+        <v>120013</v>
       </c>
       <c r="E51" s="7">
-        <v>15210002</v>
-      </c>
-      <c r="F51" s="11">
-        <v>10</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>51</v>
+        <v>15204006</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>120021</v>
+        <v>120013</v>
       </c>
       <c r="D52" s="7">
         <f t="shared" si="0"/>
-        <v>120022</v>
+        <v>120014</v>
       </c>
       <c r="E52" s="7">
-        <v>15210004</v>
-      </c>
-      <c r="F52" s="11">
-        <v>10</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>52</v>
+        <v>15205002</v>
+      </c>
+      <c r="F52" s="6">
+        <v>3</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>120022</v>
+        <v>120014</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" si="0"/>
-        <v>120023</v>
-      </c>
-      <c r="E53" s="10">
-        <v>15210102</v>
-      </c>
-      <c r="F53" s="11">
-        <v>10</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>53</v>
+        <v>120015</v>
+      </c>
+      <c r="E53" s="7">
+        <v>15205004</v>
+      </c>
+      <c r="F53" s="6">
+        <v>3</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>120023</v>
+        <v>120015</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="0"/>
-        <v>120024</v>
-      </c>
-      <c r="E54" s="10">
-        <v>15210104</v>
-      </c>
-      <c r="F54" s="11">
-        <v>10</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>54</v>
+        <v>120016</v>
+      </c>
+      <c r="E54" s="7">
+        <v>15205006</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>120024</v>
+        <v>120016</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="0"/>
-        <v>120025</v>
+        <v>120017</v>
       </c>
       <c r="E55" s="7">
-        <v>15211002</v>
-      </c>
-      <c r="F55" s="11">
+        <v>15206002</v>
+      </c>
+      <c r="F55" s="6">
         <v>5</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>55</v>
+      <c r="H55" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>120025</v>
+        <v>120017</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="0"/>
-        <v>120026</v>
+        <v>120018</v>
       </c>
       <c r="E56" s="7">
-        <v>15211004</v>
-      </c>
-      <c r="F56" s="11">
+        <v>15207002</v>
+      </c>
+      <c r="F56" s="6">
         <v>5</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>56</v>
+      <c r="H56" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>120026</v>
+        <v>120018</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>120019</v>
       </c>
       <c r="E57" s="7">
-        <v>15211006</v>
-      </c>
-      <c r="F57" s="11">
+        <v>15208002</v>
+      </c>
+      <c r="F57" s="6">
         <v>5</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>57</v>
+      <c r="H57" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
-        <v>130001</v>
+        <f t="shared" si="0"/>
+        <v>120019</v>
       </c>
       <c r="D58" s="7">
-        <v>130002</v>
+        <f t="shared" si="0"/>
+        <v>120020</v>
       </c>
       <c r="E58" s="7">
-        <v>15301002</v>
-      </c>
-      <c r="F58" s="11">
-        <v>3</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>58</v>
+        <v>15209002</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
-        <v>130002</v>
+        <f t="shared" si="0"/>
+        <v>120020</v>
       </c>
       <c r="D59" s="7">
-        <v>130003</v>
+        <f t="shared" si="0"/>
+        <v>120021</v>
       </c>
       <c r="E59" s="7">
-        <v>15301004</v>
-      </c>
-      <c r="F59" s="11">
-        <v>3</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>59</v>
+        <v>15210002</v>
+      </c>
+      <c r="F59" s="6">
+        <v>10</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
-        <v>130003</v>
+        <f t="shared" si="0"/>
+        <v>120021</v>
       </c>
       <c r="D60" s="7">
-        <v>130004</v>
+        <f t="shared" si="0"/>
+        <v>120022</v>
       </c>
       <c r="E60" s="7">
-        <v>15301006</v>
-      </c>
-      <c r="F60" s="11">
-        <v>3</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>60</v>
+        <v>15210004</v>
+      </c>
+      <c r="F60" s="6">
+        <v>10</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
-        <v>130004</v>
+        <f t="shared" si="0"/>
+        <v>120022</v>
       </c>
       <c r="D61" s="7">
-        <v>130005</v>
-      </c>
-      <c r="E61" s="7">
-        <v>15302002</v>
-      </c>
-      <c r="F61" s="11">
-        <v>3</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>120023</v>
+      </c>
+      <c r="E61" s="10">
+        <v>15210102</v>
+      </c>
+      <c r="F61" s="6">
+        <v>10</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
-        <v>130005</v>
+        <f t="shared" si="0"/>
+        <v>120023</v>
       </c>
       <c r="D62" s="7">
-        <v>130006</v>
-      </c>
-      <c r="E62" s="7">
-        <v>15302004</v>
-      </c>
-      <c r="F62" s="11">
-        <v>3</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>120024</v>
+      </c>
+      <c r="E62" s="10">
+        <v>15210104</v>
+      </c>
+      <c r="F62" s="6">
+        <v>10</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
-        <v>130006</v>
+        <f t="shared" si="0"/>
+        <v>120024</v>
       </c>
       <c r="D63" s="7">
-        <v>130007</v>
+        <f t="shared" si="0"/>
+        <v>120025</v>
       </c>
       <c r="E63" s="7">
-        <v>15302006</v>
-      </c>
-      <c r="F63" s="11">
-        <v>3</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>63</v>
+        <v>15211002</v>
+      </c>
+      <c r="F63" s="6">
+        <v>5</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
-        <v>130007</v>
+        <f t="shared" si="0"/>
+        <v>120025</v>
       </c>
       <c r="D64" s="7">
-        <v>130008</v>
+        <f t="shared" si="0"/>
+        <v>120026</v>
       </c>
       <c r="E64" s="7">
-        <v>15303002</v>
-      </c>
-      <c r="F64" s="11">
-        <v>3</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>64</v>
+        <v>15211004</v>
+      </c>
+      <c r="F64" s="6">
+        <v>5</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
-        <v>130008</v>
+        <f t="shared" si="0"/>
+        <v>120026</v>
       </c>
       <c r="D65" s="7">
-        <v>130009</v>
+        <f t="shared" ref="D65" si="1">D31+10000</f>
+        <v>120027</v>
       </c>
       <c r="E65" s="7">
-        <v>15303004</v>
-      </c>
-      <c r="F65" s="11">
-        <v>3</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>65</v>
+        <v>15211006</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
-        <v>130009</v>
+        <f t="shared" ref="C66:D66" si="2">C32+10000</f>
+        <v>120027</v>
       </c>
       <c r="D66" s="7">
-        <v>130010</v>
-      </c>
-      <c r="E66" s="7">
-        <v>15303006</v>
-      </c>
-      <c r="F66" s="11">
-        <v>3</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>120028</v>
+      </c>
+      <c r="E66" s="14">
+        <v>15206003</v>
+      </c>
+      <c r="F66" s="6">
+        <v>20</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
-        <v>130010</v>
+        <f t="shared" ref="C67:D67" si="3">C33+10000</f>
+        <v>120028</v>
       </c>
       <c r="D67" s="7">
-        <v>130011</v>
-      </c>
-      <c r="E67" s="7">
-        <v>15304002</v>
-      </c>
-      <c r="F67" s="11">
-        <v>3</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>120029</v>
+      </c>
+      <c r="E67" s="14">
+        <v>15210011</v>
+      </c>
+      <c r="F67" s="6">
+        <v>20</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
-        <v>130011</v>
+        <f t="shared" ref="C68:D68" si="4">C34+10000</f>
+        <v>120029</v>
       </c>
       <c r="D68" s="7">
-        <v>130012</v>
-      </c>
-      <c r="E68" s="7">
-        <v>15304004</v>
-      </c>
-      <c r="F68" s="11">
-        <v>3</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>120030</v>
+      </c>
+      <c r="E68" s="14">
+        <v>15210012</v>
+      </c>
+      <c r="F68" s="6">
+        <v>20</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
-        <v>130012</v>
+        <f t="shared" ref="C69:D69" si="5">C35+10000</f>
+        <v>120030</v>
       </c>
       <c r="D69" s="7">
-        <v>130013</v>
-      </c>
-      <c r="E69" s="7">
-        <v>15304006</v>
-      </c>
-      <c r="F69" s="11">
-        <v>3</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>69</v>
+        <f t="shared" si="5"/>
+        <v>120031</v>
+      </c>
+      <c r="E69" s="14">
+        <v>15210111</v>
+      </c>
+      <c r="F69" s="6">
+        <v>20</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
-        <v>130013</v>
+        <f t="shared" ref="C70:D70" si="6">C36+10000</f>
+        <v>120031</v>
       </c>
       <c r="D70" s="7">
-        <v>130014</v>
-      </c>
-      <c r="E70" s="7">
-        <v>15305002</v>
-      </c>
-      <c r="F70" s="11">
-        <v>3</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>120032</v>
+      </c>
+      <c r="E70" s="14">
+        <v>15210112</v>
+      </c>
+      <c r="F70" s="6">
+        <v>20</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
-        <v>130014</v>
+        <f t="shared" ref="C71:D71" si="7">C37+10000</f>
+        <v>120032</v>
       </c>
       <c r="D71" s="7">
-        <v>130015</v>
-      </c>
-      <c r="E71" s="7">
-        <v>15305004</v>
-      </c>
-      <c r="F71" s="11">
-        <v>3</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>120033</v>
+      </c>
+      <c r="E71" s="14">
+        <v>15211011</v>
+      </c>
+      <c r="F71" s="6">
+        <v>20</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
-        <v>130015</v>
+        <f t="shared" ref="C72:D72" si="8">C38+10000</f>
+        <v>120033</v>
       </c>
       <c r="D72" s="7">
-        <v>130016</v>
-      </c>
-      <c r="E72" s="7">
-        <v>15305006</v>
-      </c>
-      <c r="F72" s="11">
-        <v>3</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>120034</v>
+      </c>
+      <c r="E72" s="14">
+        <v>15211012</v>
+      </c>
+      <c r="F72" s="6">
+        <v>20</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
-        <v>130016</v>
+        <f t="shared" ref="C73" si="9">C39+10000</f>
+        <v>120034</v>
       </c>
       <c r="D73" s="7">
-        <v>130017</v>
-      </c>
-      <c r="E73" s="7">
-        <v>15306002</v>
-      </c>
-      <c r="F73" s="11">
-        <v>5</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>15211013</v>
+      </c>
+      <c r="F73" s="6">
+        <v>20</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="7">
-        <v>130017</v>
+        <v>130001</v>
       </c>
       <c r="D74" s="7">
-        <v>130018</v>
+        <v>130002</v>
       </c>
       <c r="E74" s="7">
-        <v>15307002</v>
-      </c>
-      <c r="F74" s="11">
-        <v>5</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>74</v>
+        <v>15301002</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="7">
-        <v>130018</v>
+        <v>130002</v>
       </c>
       <c r="D75" s="7">
-        <v>130019</v>
+        <v>130003</v>
       </c>
       <c r="E75" s="7">
-        <v>15308002</v>
-      </c>
-      <c r="F75" s="11">
-        <v>5</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>75</v>
+        <v>15301004</v>
+      </c>
+      <c r="F75" s="6">
+        <v>3</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="7">
-        <v>130019</v>
+        <v>130003</v>
       </c>
       <c r="D76" s="7">
-        <v>130020</v>
+        <v>130004</v>
       </c>
       <c r="E76" s="7">
-        <v>15309002</v>
-      </c>
-      <c r="F76" s="11">
-        <v>5</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>76</v>
+        <v>15301006</v>
+      </c>
+      <c r="F76" s="6">
+        <v>3</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="7">
-        <v>130020</v>
+        <v>130004</v>
       </c>
       <c r="D77" s="7">
-        <v>130021</v>
+        <v>130005</v>
       </c>
       <c r="E77" s="7">
-        <v>15310002</v>
-      </c>
-      <c r="F77" s="11">
-        <v>10</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>77</v>
+        <v>15302002</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="7">
-        <v>130021</v>
+        <v>130005</v>
       </c>
       <c r="D78" s="7">
-        <v>130022</v>
+        <v>130006</v>
       </c>
       <c r="E78" s="7">
-        <v>15310004</v>
-      </c>
-      <c r="F78" s="11">
-        <v>10</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>78</v>
+        <v>15302004</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="7">
-        <v>130022</v>
+        <v>130006</v>
       </c>
       <c r="D79" s="7">
-        <v>130023</v>
-      </c>
-      <c r="E79" s="10">
-        <v>15310102</v>
-      </c>
-      <c r="F79" s="11">
-        <v>10</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>79</v>
+        <v>130007</v>
+      </c>
+      <c r="E79" s="7">
+        <v>15302006</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="7">
-        <v>130023</v>
+        <v>130007</v>
       </c>
       <c r="D80" s="7">
-        <v>130024</v>
-      </c>
-      <c r="E80" s="10">
-        <v>15310104</v>
-      </c>
-      <c r="F80" s="11">
-        <v>10</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>80</v>
+        <v>130008</v>
+      </c>
+      <c r="E80" s="7">
+        <v>15303002</v>
+      </c>
+      <c r="F80" s="6">
+        <v>3</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="7">
-        <v>130024</v>
+        <v>130008</v>
       </c>
       <c r="D81" s="7">
-        <v>130025</v>
+        <v>130009</v>
       </c>
       <c r="E81" s="7">
-        <v>15311002</v>
-      </c>
-      <c r="F81" s="11">
-        <v>5</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>81</v>
+        <v>15303004</v>
+      </c>
+      <c r="F81" s="6">
+        <v>3</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="7">
-        <v>130025</v>
+        <v>130009</v>
       </c>
       <c r="D82" s="7">
-        <v>130026</v>
+        <v>130010</v>
       </c>
       <c r="E82" s="7">
-        <v>15311004</v>
-      </c>
-      <c r="F82" s="11">
-        <v>5</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>82</v>
+        <v>15303006</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="7">
-        <v>130026</v>
+        <v>130010</v>
       </c>
       <c r="D83" s="7">
-        <v>0</v>
+        <v>130011</v>
       </c>
       <c r="E83" s="7">
-        <v>15311006</v>
-      </c>
-      <c r="F83" s="11">
-        <v>5</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>83</v>
+        <v>15304002</v>
+      </c>
+      <c r="F83" s="6">
+        <v>3</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="7">
-        <v>140001</v>
+        <v>130011</v>
       </c>
       <c r="D84" s="7">
-        <v>140002</v>
+        <v>130012</v>
       </c>
       <c r="E84" s="7">
-        <v>15401002</v>
-      </c>
-      <c r="F84" s="11">
+        <v>15304004</v>
+      </c>
+      <c r="F84" s="6">
         <v>3</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>84</v>
+      <c r="H84" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="7">
-        <v>140002</v>
+        <v>130012</v>
       </c>
       <c r="D85" s="7">
-        <v>140003</v>
+        <v>130013</v>
       </c>
       <c r="E85" s="7">
-        <v>15401004</v>
-      </c>
-      <c r="F85" s="11">
+        <v>15304006</v>
+      </c>
+      <c r="F85" s="6">
         <v>3</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>85</v>
+      <c r="H85" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="7">
-        <v>140003</v>
+        <v>130013</v>
       </c>
       <c r="D86" s="7">
-        <v>140004</v>
+        <v>130014</v>
       </c>
       <c r="E86" s="7">
-        <v>15401006</v>
-      </c>
-      <c r="F86" s="11">
+        <v>15305002</v>
+      </c>
+      <c r="F86" s="6">
         <v>3</v>
       </c>
-      <c r="H86" s="13" t="s">
-        <v>86</v>
+      <c r="H86" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="7">
-        <v>140004</v>
+        <v>130014</v>
       </c>
       <c r="D87" s="7">
-        <v>140005</v>
+        <v>130015</v>
       </c>
       <c r="E87" s="7">
-        <v>15402002</v>
-      </c>
-      <c r="F87" s="11">
+        <v>15305004</v>
+      </c>
+      <c r="F87" s="6">
         <v>3</v>
       </c>
-      <c r="H87" s="13" t="s">
-        <v>87</v>
+      <c r="H87" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="7">
-        <v>140005</v>
+        <v>130015</v>
       </c>
       <c r="D88" s="7">
-        <v>140006</v>
+        <v>130016</v>
       </c>
       <c r="E88" s="7">
-        <v>15402004</v>
-      </c>
-      <c r="F88" s="11">
+        <v>15305006</v>
+      </c>
+      <c r="F88" s="6">
         <v>3</v>
       </c>
-      <c r="H88" s="13" t="s">
-        <v>88</v>
+      <c r="H88" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="7">
-        <v>140006</v>
+        <v>130016</v>
       </c>
       <c r="D89" s="7">
-        <v>140007</v>
+        <v>130017</v>
       </c>
       <c r="E89" s="7">
-        <v>15402006</v>
-      </c>
-      <c r="F89" s="11">
-        <v>3</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>89</v>
+        <v>15306002</v>
+      </c>
+      <c r="F89" s="6">
+        <v>5</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="7">
-        <v>140007</v>
+        <v>130017</v>
       </c>
       <c r="D90" s="7">
-        <v>140008</v>
+        <v>130018</v>
       </c>
       <c r="E90" s="7">
-        <v>15403002</v>
-      </c>
-      <c r="F90" s="11">
-        <v>3</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>90</v>
+        <v>15307002</v>
+      </c>
+      <c r="F90" s="6">
+        <v>5</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="7">
-        <v>140008</v>
+        <v>130018</v>
       </c>
       <c r="D91" s="7">
-        <v>140009</v>
+        <v>130019</v>
       </c>
       <c r="E91" s="7">
-        <v>15403004</v>
-      </c>
-      <c r="F91" s="11">
-        <v>3</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>91</v>
+        <v>15308002</v>
+      </c>
+      <c r="F91" s="6">
+        <v>5</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="7">
-        <v>140009</v>
+        <v>130019</v>
       </c>
       <c r="D92" s="7">
-        <v>140010</v>
+        <v>130020</v>
       </c>
       <c r="E92" s="7">
-        <v>15403006</v>
-      </c>
-      <c r="F92" s="11">
-        <v>3</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>92</v>
+        <v>15309002</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="7">
-        <v>140010</v>
+        <v>130020</v>
       </c>
       <c r="D93" s="7">
-        <v>140011</v>
+        <v>130021</v>
       </c>
       <c r="E93" s="7">
-        <v>15404002</v>
-      </c>
-      <c r="F93" s="11">
-        <v>3</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>93</v>
+        <v>15310002</v>
+      </c>
+      <c r="F93" s="6">
+        <v>10</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="7">
-        <v>140011</v>
+        <v>130021</v>
       </c>
       <c r="D94" s="7">
-        <v>140012</v>
+        <v>130022</v>
       </c>
       <c r="E94" s="7">
-        <v>15404004</v>
-      </c>
-      <c r="F94" s="11">
-        <v>3</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>94</v>
+        <v>15310004</v>
+      </c>
+      <c r="F94" s="6">
+        <v>10</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="7">
-        <v>140012</v>
+        <v>130022</v>
       </c>
       <c r="D95" s="7">
-        <v>140013</v>
-      </c>
-      <c r="E95" s="7">
-        <v>15404006</v>
-      </c>
-      <c r="F95" s="11">
-        <v>3</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>95</v>
+        <v>130023</v>
+      </c>
+      <c r="E95" s="10">
+        <v>15310102</v>
+      </c>
+      <c r="F95" s="6">
+        <v>10</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="7">
-        <v>140013</v>
+        <v>130023</v>
       </c>
       <c r="D96" s="7">
-        <v>140014</v>
-      </c>
-      <c r="E96" s="7">
-        <v>15405002</v>
-      </c>
-      <c r="F96" s="11">
-        <v>3</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>96</v>
+        <v>130024</v>
+      </c>
+      <c r="E96" s="10">
+        <v>15310104</v>
+      </c>
+      <c r="F96" s="6">
+        <v>10</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="7">
-        <v>140014</v>
+        <v>130024</v>
       </c>
       <c r="D97" s="7">
-        <v>140015</v>
+        <v>130025</v>
       </c>
       <c r="E97" s="7">
-        <v>15405004</v>
-      </c>
-      <c r="F97" s="11">
-        <v>3</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>97</v>
+        <v>15311002</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="7">
-        <v>140015</v>
+        <v>130025</v>
       </c>
       <c r="D98" s="7">
-        <v>140016</v>
+        <v>130026</v>
       </c>
       <c r="E98" s="7">
-        <v>15405006</v>
-      </c>
-      <c r="F98" s="11">
-        <v>3</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>98</v>
+        <v>15311004</v>
+      </c>
+      <c r="F98" s="6">
+        <v>5</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="7">
-        <v>140016</v>
+        <v>130026</v>
       </c>
       <c r="D99" s="7">
-        <v>140017</v>
+        <v>130027</v>
       </c>
       <c r="E99" s="7">
-        <v>15406002</v>
-      </c>
-      <c r="F99" s="11">
+        <v>15311006</v>
+      </c>
+      <c r="F99" s="6">
         <v>5</v>
       </c>
-      <c r="H99" s="13" t="s">
-        <v>99</v>
+      <c r="H99" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="7">
-        <v>140017</v>
+        <v>130027</v>
       </c>
       <c r="D100" s="7">
-        <v>140018</v>
-      </c>
-      <c r="E100" s="7">
-        <v>15407002</v>
-      </c>
-      <c r="F100" s="11">
-        <v>5</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>100</v>
+        <v>130028</v>
+      </c>
+      <c r="E100" s="14">
+        <v>15306003</v>
+      </c>
+      <c r="F100" s="6">
+        <v>20</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="7">
-        <v>140018</v>
+        <v>130028</v>
       </c>
       <c r="D101" s="7">
-        <v>140019</v>
-      </c>
-      <c r="E101" s="7">
-        <v>15408002</v>
-      </c>
-      <c r="F101" s="11">
-        <v>5</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>101</v>
+        <v>130029</v>
+      </c>
+      <c r="E101" s="14">
+        <v>15310011</v>
+      </c>
+      <c r="F101" s="6">
+        <v>20</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="7">
-        <v>140019</v>
+        <v>130029</v>
       </c>
       <c r="D102" s="7">
-        <v>140020</v>
-      </c>
-      <c r="E102" s="7">
-        <v>15409002</v>
-      </c>
-      <c r="F102" s="11">
-        <v>5</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>102</v>
+        <v>130030</v>
+      </c>
+      <c r="E102" s="14">
+        <v>15310012</v>
+      </c>
+      <c r="F102" s="6">
+        <v>20</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="7">
-        <v>140020</v>
+        <v>130030</v>
       </c>
       <c r="D103" s="7">
-        <v>140021</v>
-      </c>
-      <c r="E103" s="7">
-        <v>15410002</v>
-      </c>
-      <c r="F103" s="11">
-        <v>10</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>103</v>
+        <v>130031</v>
+      </c>
+      <c r="E103" s="14">
+        <v>15310111</v>
+      </c>
+      <c r="F103" s="6">
+        <v>20</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="7">
-        <v>140021</v>
+        <v>130031</v>
       </c>
       <c r="D104" s="7">
-        <v>140022</v>
-      </c>
-      <c r="E104" s="7">
-        <v>15410004</v>
-      </c>
-      <c r="F104" s="11">
-        <v>10</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>104</v>
+        <v>130032</v>
+      </c>
+      <c r="E104" s="14">
+        <v>15310112</v>
+      </c>
+      <c r="F104" s="6">
+        <v>20</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="7">
-        <v>140022</v>
+        <v>130032</v>
       </c>
       <c r="D105" s="7">
-        <v>140023</v>
-      </c>
-      <c r="E105" s="10">
-        <v>15410102</v>
-      </c>
-      <c r="F105" s="11">
-        <v>10</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>105</v>
+        <v>130033</v>
+      </c>
+      <c r="E105" s="14">
+        <v>15311011</v>
+      </c>
+      <c r="F105" s="6">
+        <v>20</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="7">
-        <v>140023</v>
+        <v>130033</v>
       </c>
       <c r="D106" s="7">
-        <v>140024</v>
-      </c>
-      <c r="E106" s="10">
-        <v>15410104</v>
-      </c>
-      <c r="F106" s="11">
-        <v>10</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>106</v>
+        <v>130034</v>
+      </c>
+      <c r="E106" s="14">
+        <v>15311012</v>
+      </c>
+      <c r="F106" s="6">
+        <v>20</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="7">
-        <v>140024</v>
+        <v>130034</v>
       </c>
       <c r="D107" s="7">
-        <v>140025</v>
-      </c>
-      <c r="E107" s="7">
-        <v>15411002</v>
-      </c>
-      <c r="F107" s="11">
-        <v>5</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>15311013</v>
+      </c>
+      <c r="F107" s="6">
+        <v>20</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="7">
-        <v>140025</v>
+        <v>140001</v>
       </c>
       <c r="D108" s="7">
-        <v>140026</v>
+        <v>140002</v>
       </c>
       <c r="E108" s="7">
-        <v>15411004</v>
-      </c>
-      <c r="F108" s="11">
-        <v>5</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>108</v>
+        <v>15401002</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="7">
+        <v>140002</v>
+      </c>
+      <c r="D109" s="7">
+        <v>140003</v>
+      </c>
+      <c r="E109" s="7">
+        <v>15401004</v>
+      </c>
+      <c r="F109" s="6">
+        <v>3</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="7">
+        <v>140003</v>
+      </c>
+      <c r="D110" s="7">
+        <v>140004</v>
+      </c>
+      <c r="E110" s="7">
+        <v>15401006</v>
+      </c>
+      <c r="F110" s="6">
+        <v>3</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="7">
+        <v>140004</v>
+      </c>
+      <c r="D111" s="7">
+        <v>140005</v>
+      </c>
+      <c r="E111" s="7">
+        <v>15402002</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="7">
+        <v>140005</v>
+      </c>
+      <c r="D112" s="7">
+        <v>140006</v>
+      </c>
+      <c r="E112" s="7">
+        <v>15402004</v>
+      </c>
+      <c r="F112" s="6">
+        <v>3</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="7">
+        <v>140006</v>
+      </c>
+      <c r="D113" s="7">
+        <v>140007</v>
+      </c>
+      <c r="E113" s="7">
+        <v>15402006</v>
+      </c>
+      <c r="F113" s="6">
+        <v>3</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="7">
+        <v>140007</v>
+      </c>
+      <c r="D114" s="7">
+        <v>140008</v>
+      </c>
+      <c r="E114" s="7">
+        <v>15403002</v>
+      </c>
+      <c r="F114" s="6">
+        <v>3</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="7">
+        <v>140008</v>
+      </c>
+      <c r="D115" s="7">
+        <v>140009</v>
+      </c>
+      <c r="E115" s="7">
+        <v>15403004</v>
+      </c>
+      <c r="F115" s="6">
+        <v>3</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="7">
+        <v>140009</v>
+      </c>
+      <c r="D116" s="7">
+        <v>140010</v>
+      </c>
+      <c r="E116" s="7">
+        <v>15403006</v>
+      </c>
+      <c r="F116" s="6">
+        <v>3</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="7">
+        <v>140010</v>
+      </c>
+      <c r="D117" s="7">
+        <v>140011</v>
+      </c>
+      <c r="E117" s="7">
+        <v>15404002</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="7">
+        <v>140011</v>
+      </c>
+      <c r="D118" s="7">
+        <v>140012</v>
+      </c>
+      <c r="E118" s="7">
+        <v>15404004</v>
+      </c>
+      <c r="F118" s="6">
+        <v>3</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="7">
+        <v>140012</v>
+      </c>
+      <c r="D119" s="7">
+        <v>140013</v>
+      </c>
+      <c r="E119" s="7">
+        <v>15404006</v>
+      </c>
+      <c r="F119" s="6">
+        <v>3</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="7">
+        <v>140013</v>
+      </c>
+      <c r="D120" s="7">
+        <v>140014</v>
+      </c>
+      <c r="E120" s="7">
+        <v>15405002</v>
+      </c>
+      <c r="F120" s="6">
+        <v>3</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="7">
+        <v>140014</v>
+      </c>
+      <c r="D121" s="7">
+        <v>140015</v>
+      </c>
+      <c r="E121" s="7">
+        <v>15405004</v>
+      </c>
+      <c r="F121" s="6">
+        <v>3</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="7">
+        <v>140015</v>
+      </c>
+      <c r="D122" s="7">
+        <v>140016</v>
+      </c>
+      <c r="E122" s="7">
+        <v>15405006</v>
+      </c>
+      <c r="F122" s="6">
+        <v>3</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="7">
+        <v>140016</v>
+      </c>
+      <c r="D123" s="7">
+        <v>140017</v>
+      </c>
+      <c r="E123" s="7">
+        <v>15406002</v>
+      </c>
+      <c r="F123" s="6">
+        <v>5</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="7">
+        <v>140017</v>
+      </c>
+      <c r="D124" s="7">
+        <v>140018</v>
+      </c>
+      <c r="E124" s="7">
+        <v>15407002</v>
+      </c>
+      <c r="F124" s="6">
+        <v>5</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="7">
+        <v>140018</v>
+      </c>
+      <c r="D125" s="7">
+        <v>140019</v>
+      </c>
+      <c r="E125" s="7">
+        <v>15408002</v>
+      </c>
+      <c r="F125" s="6">
+        <v>5</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="7">
+        <v>140019</v>
+      </c>
+      <c r="D126" s="7">
+        <v>140020</v>
+      </c>
+      <c r="E126" s="7">
+        <v>15409002</v>
+      </c>
+      <c r="F126" s="6">
+        <v>5</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="7">
+        <v>140020</v>
+      </c>
+      <c r="D127" s="7">
+        <v>140021</v>
+      </c>
+      <c r="E127" s="7">
+        <v>15410002</v>
+      </c>
+      <c r="F127" s="6">
+        <v>10</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="7">
+        <v>140021</v>
+      </c>
+      <c r="D128" s="7">
+        <v>140022</v>
+      </c>
+      <c r="E128" s="7">
+        <v>15410004</v>
+      </c>
+      <c r="F128" s="6">
+        <v>10</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="7">
+        <v>140022</v>
+      </c>
+      <c r="D129" s="7">
+        <v>140023</v>
+      </c>
+      <c r="E129" s="10">
+        <v>15410102</v>
+      </c>
+      <c r="F129" s="6">
+        <v>10</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="7">
+        <v>140023</v>
+      </c>
+      <c r="D130" s="7">
+        <v>140024</v>
+      </c>
+      <c r="E130" s="10">
+        <v>15410104</v>
+      </c>
+      <c r="F130" s="6">
+        <v>10</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="7">
+        <v>140024</v>
+      </c>
+      <c r="D131" s="7">
+        <v>140025</v>
+      </c>
+      <c r="E131" s="7">
+        <v>15411002</v>
+      </c>
+      <c r="F131" s="6">
+        <v>5</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="7">
+        <v>140025</v>
+      </c>
+      <c r="D132" s="7">
         <v>140026</v>
       </c>
-      <c r="D109" s="12">
+      <c r="E132" s="7">
+        <v>15411004</v>
+      </c>
+      <c r="F132" s="6">
+        <v>5</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="7">
+        <v>140026</v>
+      </c>
+      <c r="D133" s="7">
+        <v>140027</v>
+      </c>
+      <c r="E133" s="7">
+        <v>15411006</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="7">
+        <v>140027</v>
+      </c>
+      <c r="D134" s="7">
+        <v>140028</v>
+      </c>
+      <c r="E134" s="14">
+        <v>15406003</v>
+      </c>
+      <c r="F134" s="6">
+        <v>20</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="7">
+        <v>140028</v>
+      </c>
+      <c r="D135" s="7">
+        <v>140029</v>
+      </c>
+      <c r="E135" s="14">
+        <v>15410011</v>
+      </c>
+      <c r="F135" s="6">
+        <v>20</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="7">
+        <v>140029</v>
+      </c>
+      <c r="D136" s="7">
+        <v>140030</v>
+      </c>
+      <c r="E136" s="14">
+        <v>15410012</v>
+      </c>
+      <c r="F136" s="6">
+        <v>20</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="7">
+        <v>140030</v>
+      </c>
+      <c r="D137" s="7">
+        <v>140031</v>
+      </c>
+      <c r="E137" s="14">
+        <v>15410111</v>
+      </c>
+      <c r="F137" s="6">
+        <v>20</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="7">
+        <v>140031</v>
+      </c>
+      <c r="D138" s="7">
+        <v>140032</v>
+      </c>
+      <c r="E138" s="14">
+        <v>15410112</v>
+      </c>
+      <c r="F138" s="6">
+        <v>20</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="7">
+        <v>140032</v>
+      </c>
+      <c r="D139" s="7">
+        <v>140033</v>
+      </c>
+      <c r="E139" s="14">
+        <v>15411011</v>
+      </c>
+      <c r="F139" s="6">
+        <v>20</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="7">
+        <v>140033</v>
+      </c>
+      <c r="D140" s="7">
+        <v>140034</v>
+      </c>
+      <c r="E140" s="14">
+        <v>15411012</v>
+      </c>
+      <c r="F140" s="6">
+        <v>20</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="7">
+        <v>140034</v>
+      </c>
+      <c r="D141" s="11">
         <v>0</v>
       </c>
-      <c r="E109" s="7">
-        <v>15411006</v>
-      </c>
-      <c r="F109" s="11">
+      <c r="E141" s="14">
+        <v>15411013</v>
+      </c>
+      <c r="F141" s="6">
+        <v>20</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="7">
+        <v>150001</v>
+      </c>
+      <c r="D142" s="7">
+        <v>150002</v>
+      </c>
+      <c r="E142" s="7">
+        <v>15501002</v>
+      </c>
+      <c r="F142" s="6">
+        <v>3</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="7">
+        <v>150002</v>
+      </c>
+      <c r="D143" s="7">
+        <v>150003</v>
+      </c>
+      <c r="E143" s="7">
+        <v>15501004</v>
+      </c>
+      <c r="F143" s="6">
+        <v>3</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="7">
+        <v>150003</v>
+      </c>
+      <c r="D144" s="7">
+        <v>150004</v>
+      </c>
+      <c r="E144" s="7">
+        <v>15501006</v>
+      </c>
+      <c r="F144" s="6">
+        <v>3</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="7">
+        <v>150004</v>
+      </c>
+      <c r="D145" s="7">
+        <v>150005</v>
+      </c>
+      <c r="E145" s="7">
+        <v>15502002</v>
+      </c>
+      <c r="F145" s="6">
+        <v>3</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="7">
+        <v>150005</v>
+      </c>
+      <c r="D146" s="7">
+        <v>150006</v>
+      </c>
+      <c r="E146" s="7">
+        <v>15502004</v>
+      </c>
+      <c r="F146" s="6">
+        <v>3</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="7">
+        <v>150006</v>
+      </c>
+      <c r="D147" s="7">
+        <v>150007</v>
+      </c>
+      <c r="E147" s="7">
+        <v>15502006</v>
+      </c>
+      <c r="F147" s="6">
+        <v>3</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="7">
+        <v>150007</v>
+      </c>
+      <c r="D148" s="7">
+        <v>150008</v>
+      </c>
+      <c r="E148" s="7">
+        <v>15503002</v>
+      </c>
+      <c r="F148" s="6">
+        <v>3</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="7">
+        <v>150008</v>
+      </c>
+      <c r="D149" s="7">
+        <v>150009</v>
+      </c>
+      <c r="E149" s="7">
+        <v>15503004</v>
+      </c>
+      <c r="F149" s="6">
+        <v>3</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="7">
+        <v>150009</v>
+      </c>
+      <c r="D150" s="7">
+        <v>150010</v>
+      </c>
+      <c r="E150" s="7">
+        <v>15503006</v>
+      </c>
+      <c r="F150" s="6">
+        <v>3</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="7">
+        <v>150010</v>
+      </c>
+      <c r="D151" s="7">
+        <v>150011</v>
+      </c>
+      <c r="E151" s="7">
+        <v>15504002</v>
+      </c>
+      <c r="F151" s="6">
+        <v>3</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="7">
+        <v>150011</v>
+      </c>
+      <c r="D152" s="7">
+        <v>150012</v>
+      </c>
+      <c r="E152" s="7">
+        <v>15504004</v>
+      </c>
+      <c r="F152" s="6">
+        <v>3</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="7">
+        <v>150012</v>
+      </c>
+      <c r="D153" s="7">
+        <v>150013</v>
+      </c>
+      <c r="E153" s="7">
+        <v>15504006</v>
+      </c>
+      <c r="F153" s="6">
+        <v>3</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C154" s="7">
+        <v>150013</v>
+      </c>
+      <c r="D154" s="7">
+        <v>150014</v>
+      </c>
+      <c r="E154" s="7">
+        <v>15505002</v>
+      </c>
+      <c r="F154" s="6">
+        <v>3</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" s="7">
+        <v>150014</v>
+      </c>
+      <c r="D155" s="7">
+        <v>150015</v>
+      </c>
+      <c r="E155" s="7">
+        <v>15505004</v>
+      </c>
+      <c r="F155" s="6">
+        <v>3</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="7">
+        <v>150015</v>
+      </c>
+      <c r="D156" s="7">
+        <v>150016</v>
+      </c>
+      <c r="E156" s="7">
+        <v>15505006</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="7">
+        <v>150016</v>
+      </c>
+      <c r="D157" s="7">
+        <v>150017</v>
+      </c>
+      <c r="E157" s="7">
+        <v>15506002</v>
+      </c>
+      <c r="F157" s="6">
         <v>5</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="H157" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="7">
+        <v>150017</v>
+      </c>
+      <c r="D158" s="7">
+        <v>150018</v>
+      </c>
+      <c r="E158" s="7">
+        <v>15507002</v>
+      </c>
+      <c r="F158" s="6">
+        <v>5</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="7">
+        <v>150018</v>
+      </c>
+      <c r="D159" s="7">
+        <v>150019</v>
+      </c>
+      <c r="E159" s="7">
+        <v>15508002</v>
+      </c>
+      <c r="F159" s="6">
+        <v>5</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="7">
+        <v>150019</v>
+      </c>
+      <c r="D160" s="7">
+        <v>150020</v>
+      </c>
+      <c r="E160" s="7">
+        <v>15509002</v>
+      </c>
+      <c r="F160" s="6">
+        <v>5</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="7">
+        <v>150020</v>
+      </c>
+      <c r="D161" s="7">
+        <v>150021</v>
+      </c>
+      <c r="E161" s="7">
+        <v>15510002</v>
+      </c>
+      <c r="F161" s="6">
+        <v>10</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="7">
+        <v>150021</v>
+      </c>
+      <c r="D162" s="7">
+        <v>150022</v>
+      </c>
+      <c r="E162" s="7">
+        <v>15510004</v>
+      </c>
+      <c r="F162" s="6">
+        <v>10</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="7">
+        <v>150022</v>
+      </c>
+      <c r="D163" s="7">
+        <v>150023</v>
+      </c>
+      <c r="E163" s="10">
+        <v>15510102</v>
+      </c>
+      <c r="F163" s="6">
+        <v>10</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="7">
+        <v>150023</v>
+      </c>
+      <c r="D164" s="7">
+        <v>150024</v>
+      </c>
+      <c r="E164" s="10">
+        <v>15510104</v>
+      </c>
+      <c r="F164" s="6">
+        <v>10</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="7">
+        <v>150024</v>
+      </c>
+      <c r="D165" s="7">
+        <v>150025</v>
+      </c>
+      <c r="E165" s="7">
+        <v>15511002</v>
+      </c>
+      <c r="F165" s="6">
+        <v>5</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="7">
+        <v>150025</v>
+      </c>
+      <c r="D166" s="7">
+        <v>150026</v>
+      </c>
+      <c r="E166" s="7">
+        <v>15511004</v>
+      </c>
+      <c r="F166" s="6">
+        <v>5</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="7">
+        <v>150026</v>
+      </c>
+      <c r="D167" s="7">
+        <v>150027</v>
+      </c>
+      <c r="E167" s="7">
+        <v>15511006</v>
+      </c>
+      <c r="F167" s="6">
+        <v>5</v>
+      </c>
+      <c r="H167" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="7">
+        <v>150027</v>
+      </c>
+      <c r="D168" s="7">
+        <v>150028</v>
+      </c>
+      <c r="E168" s="14">
+        <v>15506003</v>
+      </c>
+      <c r="F168" s="6">
+        <v>20</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="7">
+        <v>150028</v>
+      </c>
+      <c r="D169" s="7">
+        <v>150029</v>
+      </c>
+      <c r="E169" s="14">
+        <v>15510011</v>
+      </c>
+      <c r="F169" s="6">
+        <v>20</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="7">
+        <v>150029</v>
+      </c>
+      <c r="D170" s="7">
+        <v>150030</v>
+      </c>
+      <c r="E170" s="14">
+        <v>15510012</v>
+      </c>
+      <c r="F170" s="6">
+        <v>20</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="7">
+        <v>150030</v>
+      </c>
+      <c r="D171" s="7">
+        <v>150031</v>
+      </c>
+      <c r="E171" s="14">
+        <v>15510121</v>
+      </c>
+      <c r="F171" s="6">
+        <v>20</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="7">
+        <v>150031</v>
+      </c>
+      <c r="D172" s="7">
+        <v>150032</v>
+      </c>
+      <c r="E172" s="14">
+        <v>15510122</v>
+      </c>
+      <c r="F172" s="6">
+        <v>20</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="7">
+        <v>150032</v>
+      </c>
+      <c r="D173" s="7">
+        <v>150033</v>
+      </c>
+      <c r="E173" s="14">
+        <v>15511011</v>
+      </c>
+      <c r="F173" s="6">
+        <v>20</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="7">
+        <v>150033</v>
+      </c>
+      <c r="D174" s="7">
+        <v>150034</v>
+      </c>
+      <c r="E174" s="14">
+        <v>15511012</v>
+      </c>
+      <c r="F174" s="6">
+        <v>20</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="7">
+        <v>150034</v>
+      </c>
+      <c r="D175" s="11">
+        <v>0</v>
+      </c>
+      <c r="E175" s="14">
+        <v>15511013</v>
+      </c>
+      <c r="F175" s="6">
+        <v>20</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -1,35 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2011B38C-0E7F-4201-8541-5745D26587F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB8B2D-ECA0-4171-BD80-5A53B317A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{EC2CAD3D-2ED9-43C2-959C-8D0BD6F0A10B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.收集(获得激活)
+2.珍藏(收集消耗激活)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -597,13 +625,54 @@
   </si>
   <si>
     <t>传承:怒之烈焰</t>
+  </si>
+  <si>
+    <t>收集类型</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chap</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>AddPropreListStr</t>
+  </si>
+  <si>
+    <t>110301,200</t>
+  </si>
+  <si>
+    <t>100802,0.01</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002,0.01</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcitveNum</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活数量</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +940,28 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="51">
@@ -1162,7 +1253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1349,6 +1440,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1848">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6752,7 +6867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6795,6 +6910,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="50" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="1554" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="17" xfId="1554" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9009,29 +9145,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D169" sqref="D169"/>
+      <selection pane="topRight" activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="12"/>
+    <col min="3" max="10" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9044,8 +9180,20 @@
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9058,8 +9206,20 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -9072,8 +9232,20 @@
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>110001</v>
       </c>
@@ -9086,11 +9258,21 @@
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="L6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
         <v>110002</v>
       </c>
@@ -9103,11 +9285,21 @@
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>110003</v>
       </c>
@@ -9120,11 +9312,21 @@
       <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="L8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>110004</v>
       </c>
@@ -9137,11 +9339,21 @@
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="L9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>110005</v>
       </c>
@@ -9154,11 +9366,21 @@
       <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="L10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>110006</v>
       </c>
@@ -9171,11 +9393,21 @@
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="L11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>110007</v>
       </c>
@@ -9188,11 +9420,21 @@
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="L12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>110008</v>
       </c>
@@ -9205,11 +9447,21 @@
       <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
         <v>110009</v>
       </c>
@@ -9222,11 +9474,21 @@
       <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="L14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
         <v>110010</v>
       </c>
@@ -9239,11 +9501,21 @@
       <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="L15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>110011</v>
       </c>
@@ -9256,11 +9528,21 @@
       <c r="F16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="L16" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
         <v>110012</v>
       </c>
@@ -9273,11 +9555,21 @@
       <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="L17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <v>110013</v>
       </c>
@@ -9290,11 +9582,21 @@
       <c r="F18" s="6">
         <v>3</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="L18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <v>110014</v>
       </c>
@@ -9307,11 +9609,21 @@
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="L19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <v>110015</v>
       </c>
@@ -9324,11 +9636,21 @@
       <c r="F20" s="6">
         <v>3</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="L20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <v>110016</v>
       </c>
@@ -9341,11 +9663,21 @@
       <c r="F21" s="6">
         <v>5</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="L21" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <v>110017</v>
       </c>
@@ -9358,11 +9690,21 @@
       <c r="F22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="L22" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <v>110018</v>
       </c>
@@ -9375,11 +9717,21 @@
       <c r="F23" s="6">
         <v>5</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="L23" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>110019</v>
       </c>
@@ -9392,11 +9744,21 @@
       <c r="F24" s="6">
         <v>5</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="L24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>110020</v>
       </c>
@@ -9409,11 +9771,21 @@
       <c r="F25" s="6">
         <v>10</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="L25" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>110021</v>
       </c>
@@ -9426,11 +9798,21 @@
       <c r="F26" s="6">
         <v>10</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="L26" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>110022</v>
       </c>
@@ -9443,11 +9825,21 @@
       <c r="F27" s="6">
         <v>10</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="L27" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>110023</v>
       </c>
@@ -9460,11 +9852,21 @@
       <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="L28" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>110024</v>
       </c>
@@ -9477,11 +9879,21 @@
       <c r="F29" s="6">
         <v>5</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="L29" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
         <v>110025</v>
       </c>
@@ -9494,11 +9906,21 @@
       <c r="F30" s="6">
         <v>5</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="L30" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
         <v>110026</v>
       </c>
@@ -9511,11 +9933,21 @@
       <c r="F31" s="6">
         <v>5</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="L31" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6">
         <v>110027</v>
       </c>
@@ -9528,11 +9960,21 @@
       <c r="F32" s="6">
         <v>20</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="L32" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="6">
         <v>110028</v>
       </c>
@@ -9545,11 +9987,21 @@
       <c r="F33" s="6">
         <v>20</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="L33" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="6">
         <v>110029</v>
       </c>
@@ -9562,11 +10014,21 @@
       <c r="F34" s="6">
         <v>20</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="L34" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="6">
         <v>110030</v>
       </c>
@@ -9579,11 +10041,21 @@
       <c r="F35" s="6">
         <v>20</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="L35" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="6">
         <v>110031</v>
       </c>
@@ -9596,11 +10068,21 @@
       <c r="F36" s="6">
         <v>20</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="L36" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="6">
         <v>110032</v>
       </c>
@@ -9613,11 +10095,21 @@
       <c r="F37" s="6">
         <v>20</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="L37" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="6">
         <v>110033</v>
       </c>
@@ -9630,11 +10122,21 @@
       <c r="F38" s="6">
         <v>20</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="L38" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6">
         <v>110034</v>
       </c>
@@ -9647,11 +10149,21 @@
       <c r="F39" s="6">
         <v>20</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="L39" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
         <f>C6+10000</f>
         <v>120001</v>
@@ -9666,11 +10178,21 @@
       <c r="F40" s="6">
         <v>3</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="G40" s="6">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="L40" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7">
         <f t="shared" si="0"/>
         <v>120002</v>
@@ -9685,11 +10207,21 @@
       <c r="F41" s="6">
         <v>3</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="6">
+        <v>2</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="L41" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7">
         <f t="shared" si="0"/>
         <v>120003</v>
@@ -9704,11 +10236,21 @@
       <c r="F42" s="6">
         <v>3</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="G42" s="6">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="L42" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7">
         <f t="shared" si="0"/>
         <v>120004</v>
@@ -9723,11 +10265,21 @@
       <c r="F43" s="6">
         <v>3</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="L43" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7">
         <f t="shared" si="0"/>
         <v>120005</v>
@@ -9742,11 +10294,21 @@
       <c r="F44" s="6">
         <v>3</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="G44" s="6">
+        <v>2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="L44" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7">
         <f t="shared" si="0"/>
         <v>120006</v>
@@ -9761,11 +10323,21 @@
       <c r="F45" s="6">
         <v>3</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="L45" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7">
         <f t="shared" si="0"/>
         <v>120007</v>
@@ -9780,11 +10352,21 @@
       <c r="F46" s="6">
         <v>3</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="G46" s="6">
+        <v>2</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="L46" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <f t="shared" si="0"/>
         <v>120008</v>
@@ -9799,11 +10381,21 @@
       <c r="F47" s="6">
         <v>3</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="L47" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7">
         <f t="shared" si="0"/>
         <v>120009</v>
@@ -9818,11 +10410,21 @@
       <c r="F48" s="6">
         <v>3</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="G48" s="6">
+        <v>2</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="L48" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="7">
         <f t="shared" si="0"/>
         <v>120010</v>
@@ -9837,11 +10439,21 @@
       <c r="F49" s="6">
         <v>3</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="G49" s="6">
+        <v>2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="L49" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7">
         <f t="shared" si="0"/>
         <v>120011</v>
@@ -9856,11 +10468,21 @@
       <c r="F50" s="6">
         <v>3</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="L50" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="7">
         <f t="shared" si="0"/>
         <v>120012</v>
@@ -9875,11 +10497,21 @@
       <c r="F51" s="6">
         <v>3</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="L51" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="7">
         <f t="shared" si="0"/>
         <v>120013</v>
@@ -9894,11 +10526,21 @@
       <c r="F52" s="6">
         <v>3</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="G52" s="6">
+        <v>2</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="L52" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="7">
         <f t="shared" si="0"/>
         <v>120014</v>
@@ -9913,11 +10555,21 @@
       <c r="F53" s="6">
         <v>3</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="G53" s="6">
+        <v>2</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="L53" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="7">
         <f t="shared" si="0"/>
         <v>120015</v>
@@ -9932,11 +10584,21 @@
       <c r="F54" s="6">
         <v>3</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="L54" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="7">
         <f t="shared" si="0"/>
         <v>120016</v>
@@ -9951,11 +10613,21 @@
       <c r="F55" s="6">
         <v>5</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="G55" s="6">
+        <v>2</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="L55" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
         <f t="shared" si="0"/>
         <v>120017</v>
@@ -9970,11 +10642,21 @@
       <c r="F56" s="6">
         <v>5</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="G56" s="6">
+        <v>2</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="L56" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7">
         <f t="shared" si="0"/>
         <v>120018</v>
@@ -9989,11 +10671,21 @@
       <c r="F57" s="6">
         <v>5</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="6">
+        <v>2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="L57" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
         <f t="shared" si="0"/>
         <v>120019</v>
@@ -10008,11 +10700,21 @@
       <c r="F58" s="6">
         <v>5</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="6">
+        <v>2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="L58" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="7">
         <f t="shared" si="0"/>
         <v>120020</v>
@@ -10027,11 +10729,21 @@
       <c r="F59" s="6">
         <v>10</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="G59" s="6">
+        <v>2</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="L59" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="7">
         <f t="shared" si="0"/>
         <v>120021</v>
@@ -10046,11 +10758,21 @@
       <c r="F60" s="6">
         <v>10</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="G60" s="6">
+        <v>2</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="L60" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
         <f t="shared" si="0"/>
         <v>120022</v>
@@ -10065,11 +10787,21 @@
       <c r="F61" s="6">
         <v>10</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="6">
+        <v>2</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="L61" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="7">
         <f t="shared" si="0"/>
         <v>120023</v>
@@ -10084,11 +10816,21 @@
       <c r="F62" s="6">
         <v>10</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="6">
+        <v>2</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="L62" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="7">
         <f t="shared" si="0"/>
         <v>120024</v>
@@ -10103,11 +10845,21 @@
       <c r="F63" s="6">
         <v>5</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="G63" s="6">
+        <v>2</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="L63" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
         <f t="shared" si="0"/>
         <v>120025</v>
@@ -10122,11 +10874,21 @@
       <c r="F64" s="6">
         <v>5</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="G64" s="6">
+        <v>2</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="L64" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
         <f t="shared" si="0"/>
         <v>120026</v>
@@ -10141,11 +10903,21 @@
       <c r="F65" s="6">
         <v>5</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="G65" s="6">
+        <v>2</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="L65" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="7">
         <f t="shared" ref="C66:D66" si="2">C32+10000</f>
         <v>120027</v>
@@ -10160,11 +10932,21 @@
       <c r="F66" s="6">
         <v>20</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="6">
+        <v>2</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="L66" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="7">
         <f t="shared" ref="C67:D67" si="3">C33+10000</f>
         <v>120028</v>
@@ -10179,11 +10961,21 @@
       <c r="F67" s="6">
         <v>20</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="G67" s="6">
+        <v>2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="L67" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="7">
         <f t="shared" ref="C68:D68" si="4">C34+10000</f>
         <v>120029</v>
@@ -10198,11 +10990,21 @@
       <c r="F68" s="6">
         <v>20</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="G68" s="6">
+        <v>2</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="L68" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7">
         <f t="shared" ref="C69:D69" si="5">C35+10000</f>
         <v>120030</v>
@@ -10217,11 +11019,21 @@
       <c r="F69" s="6">
         <v>20</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="G69" s="6">
+        <v>2</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="L69" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="7">
         <f t="shared" ref="C70:D70" si="6">C36+10000</f>
         <v>120031</v>
@@ -10236,11 +11048,21 @@
       <c r="F70" s="6">
         <v>20</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="G70" s="6">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="L70" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="7">
         <f t="shared" ref="C71:D71" si="7">C37+10000</f>
         <v>120032</v>
@@ -10255,11 +11077,21 @@
       <c r="F71" s="6">
         <v>20</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="G71" s="6">
+        <v>2</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="L71" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
         <f t="shared" ref="C72:D72" si="8">C38+10000</f>
         <v>120033</v>
@@ -10274,11 +11106,21 @@
       <c r="F72" s="6">
         <v>20</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="G72" s="6">
+        <v>2</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="L72" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="7">
         <f t="shared" ref="C73" si="9">C39+10000</f>
         <v>120034</v>
@@ -10292,11 +11134,21 @@
       <c r="F73" s="6">
         <v>20</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="G73" s="6">
+        <v>2</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="L73" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="7">
         <v>130001</v>
       </c>
@@ -10309,11 +11161,21 @@
       <c r="F74" s="6">
         <v>3</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="6">
+        <v>3</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="L74" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="7">
         <v>130002</v>
       </c>
@@ -10326,11 +11188,21 @@
       <c r="F75" s="6">
         <v>3</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="G75" s="6">
+        <v>3</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="L75" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="7">
         <v>130003</v>
       </c>
@@ -10343,11 +11215,21 @@
       <c r="F76" s="6">
         <v>3</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="G76" s="6">
+        <v>3</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="L76" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="7">
         <v>130004</v>
       </c>
@@ -10360,11 +11242,21 @@
       <c r="F77" s="6">
         <v>3</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="G77" s="6">
+        <v>3</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="L77" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="7">
         <v>130005</v>
       </c>
@@ -10377,11 +11269,21 @@
       <c r="F78" s="6">
         <v>3</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="6">
+        <v>3</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="L78" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="7">
         <v>130006</v>
       </c>
@@ -10394,11 +11296,21 @@
       <c r="F79" s="6">
         <v>3</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="G79" s="6">
+        <v>3</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="L79" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="7">
         <v>130007</v>
       </c>
@@ -10411,11 +11323,21 @@
       <c r="F80" s="6">
         <v>3</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="G80" s="6">
+        <v>3</v>
+      </c>
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="L80" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="7">
         <v>130008</v>
       </c>
@@ -10428,11 +11350,21 @@
       <c r="F81" s="6">
         <v>3</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="G81" s="6">
+        <v>3</v>
+      </c>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="L81" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="7">
         <v>130009</v>
       </c>
@@ -10445,11 +11377,21 @@
       <c r="F82" s="6">
         <v>3</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="6">
+        <v>3</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="L82" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="7">
         <v>130010</v>
       </c>
@@ -10462,11 +11404,21 @@
       <c r="F83" s="6">
         <v>3</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="G83" s="6">
+        <v>3</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="L83" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="7">
         <v>130011</v>
       </c>
@@ -10479,11 +11431,21 @@
       <c r="F84" s="6">
         <v>3</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="G84" s="6">
+        <v>3</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="L84" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="7">
         <v>130012</v>
       </c>
@@ -10496,11 +11458,21 @@
       <c r="F85" s="6">
         <v>3</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="G85" s="6">
+        <v>3</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="L85" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="7">
         <v>130013</v>
       </c>
@@ -10513,11 +11485,21 @@
       <c r="F86" s="6">
         <v>3</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="G86" s="6">
+        <v>3</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="L86" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="7">
         <v>130014</v>
       </c>
@@ -10530,11 +11512,21 @@
       <c r="F87" s="6">
         <v>3</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="6">
+        <v>3</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6"/>
+      <c r="L87" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="7">
         <v>130015</v>
       </c>
@@ -10547,11 +11539,21 @@
       <c r="F88" s="6">
         <v>3</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="6">
+        <v>3</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="L88" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="7">
         <v>130016</v>
       </c>
@@ -10564,11 +11566,21 @@
       <c r="F89" s="6">
         <v>5</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="G89" s="6">
+        <v>3</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="L89" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="7">
         <v>130017</v>
       </c>
@@ -10581,11 +11593,21 @@
       <c r="F90" s="6">
         <v>5</v>
       </c>
-      <c r="H90" s="12" t="s">
+      <c r="G90" s="6">
+        <v>3</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="L90" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="7">
         <v>130018</v>
       </c>
@@ -10598,11 +11620,21 @@
       <c r="F91" s="6">
         <v>5</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="G91" s="6">
+        <v>3</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="L91" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="7">
         <v>130019</v>
       </c>
@@ -10615,11 +11647,21 @@
       <c r="F92" s="6">
         <v>5</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="G92" s="6">
+        <v>3</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="L92" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="7">
         <v>130020</v>
       </c>
@@ -10632,11 +11674,21 @@
       <c r="F93" s="6">
         <v>10</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="G93" s="6">
+        <v>3</v>
+      </c>
+      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="L93" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="7">
         <v>130021</v>
       </c>
@@ -10649,11 +11701,21 @@
       <c r="F94" s="6">
         <v>10</v>
       </c>
-      <c r="H94" s="12" t="s">
+      <c r="G94" s="6">
+        <v>3</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="L94" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="7">
         <v>130022</v>
       </c>
@@ -10666,11 +11728,21 @@
       <c r="F95" s="6">
         <v>10</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="G95" s="6">
+        <v>3</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="L95" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="7">
         <v>130023</v>
       </c>
@@ -10683,11 +11755,21 @@
       <c r="F96" s="6">
         <v>10</v>
       </c>
-      <c r="H96" s="12" t="s">
+      <c r="G96" s="6">
+        <v>3</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="L96" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="7">
         <v>130024</v>
       </c>
@@ -10700,11 +11782,21 @@
       <c r="F97" s="6">
         <v>5</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="G97" s="6">
+        <v>3</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6"/>
+      <c r="L97" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="7">
         <v>130025</v>
       </c>
@@ -10717,11 +11809,21 @@
       <c r="F98" s="6">
         <v>5</v>
       </c>
-      <c r="H98" s="12" t="s">
+      <c r="G98" s="6">
+        <v>3</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="L98" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="7">
         <v>130026</v>
       </c>
@@ -10734,11 +11836,21 @@
       <c r="F99" s="6">
         <v>5</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="G99" s="6">
+        <v>3</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="L99" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="7">
         <v>130027</v>
       </c>
@@ -10751,11 +11863,21 @@
       <c r="F100" s="6">
         <v>20</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="G100" s="6">
+        <v>3</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="L100" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="7">
         <v>130028</v>
       </c>
@@ -10768,11 +11890,21 @@
       <c r="F101" s="6">
         <v>20</v>
       </c>
-      <c r="H101" s="14" t="s">
+      <c r="G101" s="6">
+        <v>3</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6"/>
+      <c r="L101" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="7">
         <v>130029</v>
       </c>
@@ -10785,11 +11917,21 @@
       <c r="F102" s="6">
         <v>20</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="G102" s="6">
+        <v>3</v>
+      </c>
+      <c r="H102" s="6">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="L102" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="7">
         <v>130030</v>
       </c>
@@ -10802,11 +11944,21 @@
       <c r="F103" s="6">
         <v>20</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="G103" s="6">
+        <v>3</v>
+      </c>
+      <c r="H103" s="6">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="L103" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="7">
         <v>130031</v>
       </c>
@@ -10819,11 +11971,21 @@
       <c r="F104" s="6">
         <v>20</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="G104" s="6">
+        <v>3</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6"/>
+      <c r="L104" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="7">
         <v>130032</v>
       </c>
@@ -10836,11 +11998,21 @@
       <c r="F105" s="6">
         <v>20</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="G105" s="6">
+        <v>3</v>
+      </c>
+      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6"/>
+      <c r="L105" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="7">
         <v>130033</v>
       </c>
@@ -10853,11 +12025,21 @@
       <c r="F106" s="6">
         <v>20</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="G106" s="6">
+        <v>3</v>
+      </c>
+      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6"/>
+      <c r="L106" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="7">
         <v>130034</v>
       </c>
@@ -10870,11 +12052,21 @@
       <c r="F107" s="6">
         <v>20</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="G107" s="6">
+        <v>3</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6"/>
+      <c r="L107" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="7">
         <v>140001</v>
       </c>
@@ -10887,11 +12079,21 @@
       <c r="F108" s="6">
         <v>3</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="G108" s="6">
+        <v>4</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6"/>
+      <c r="L108" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="7">
         <v>140002</v>
       </c>
@@ -10904,11 +12106,21 @@
       <c r="F109" s="6">
         <v>3</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="G109" s="6">
+        <v>4</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6"/>
+      <c r="L109" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="7">
         <v>140003</v>
       </c>
@@ -10921,11 +12133,21 @@
       <c r="F110" s="6">
         <v>3</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="G110" s="6">
+        <v>4</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6"/>
+      <c r="L110" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="7">
         <v>140004</v>
       </c>
@@ -10938,11 +12160,21 @@
       <c r="F111" s="6">
         <v>3</v>
       </c>
-      <c r="H111" s="12" t="s">
+      <c r="G111" s="6">
+        <v>4</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6"/>
+      <c r="L111" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="7">
         <v>140005</v>
       </c>
@@ -10955,11 +12187,21 @@
       <c r="F112" s="6">
         <v>3</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="G112" s="6">
+        <v>4</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="L112" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="7">
         <v>140006</v>
       </c>
@@ -10972,11 +12214,21 @@
       <c r="F113" s="6">
         <v>3</v>
       </c>
-      <c r="H113" s="12" t="s">
+      <c r="G113" s="6">
+        <v>4</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6"/>
+      <c r="L113" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="7">
         <v>140007</v>
       </c>
@@ -10989,11 +12241,21 @@
       <c r="F114" s="6">
         <v>3</v>
       </c>
-      <c r="H114" s="12" t="s">
+      <c r="G114" s="6">
+        <v>4</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6"/>
+      <c r="L114" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="7">
         <v>140008</v>
       </c>
@@ -11006,11 +12268,21 @@
       <c r="F115" s="6">
         <v>3</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="G115" s="6">
+        <v>4</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="L115" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="7">
         <v>140009</v>
       </c>
@@ -11023,11 +12295,21 @@
       <c r="F116" s="6">
         <v>3</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="G116" s="6">
+        <v>4</v>
+      </c>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6"/>
+      <c r="L116" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="7">
         <v>140010</v>
       </c>
@@ -11040,11 +12322,21 @@
       <c r="F117" s="6">
         <v>3</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="G117" s="6">
+        <v>4</v>
+      </c>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6"/>
+      <c r="L117" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="7">
         <v>140011</v>
       </c>
@@ -11057,11 +12349,21 @@
       <c r="F118" s="6">
         <v>3</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="G118" s="6">
+        <v>4</v>
+      </c>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6"/>
+      <c r="L118" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="7">
         <v>140012</v>
       </c>
@@ -11074,11 +12376,21 @@
       <c r="F119" s="6">
         <v>3</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="G119" s="6">
+        <v>4</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6"/>
+      <c r="L119" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="7">
         <v>140013</v>
       </c>
@@ -11091,11 +12403,21 @@
       <c r="F120" s="6">
         <v>3</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="G120" s="6">
+        <v>4</v>
+      </c>
+      <c r="H120" s="6">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6"/>
+      <c r="L120" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="7">
         <v>140014</v>
       </c>
@@ -11108,11 +12430,21 @@
       <c r="F121" s="6">
         <v>3</v>
       </c>
-      <c r="H121" s="12" t="s">
+      <c r="G121" s="6">
+        <v>4</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="L121" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="7">
         <v>140015</v>
       </c>
@@ -11125,11 +12457,21 @@
       <c r="F122" s="6">
         <v>3</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="G122" s="6">
+        <v>4</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J122" s="6"/>
+      <c r="L122" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="7">
         <v>140016</v>
       </c>
@@ -11142,11 +12484,21 @@
       <c r="F123" s="6">
         <v>5</v>
       </c>
-      <c r="H123" s="12" t="s">
+      <c r="G123" s="6">
+        <v>4</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6"/>
+      <c r="L123" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="7">
         <v>140017</v>
       </c>
@@ -11159,11 +12511,21 @@
       <c r="F124" s="6">
         <v>5</v>
       </c>
-      <c r="H124" s="12" t="s">
+      <c r="G124" s="6">
+        <v>4</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6"/>
+      <c r="L124" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="7">
         <v>140018</v>
       </c>
@@ -11176,11 +12538,21 @@
       <c r="F125" s="6">
         <v>5</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="G125" s="6">
+        <v>4</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="L125" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="7">
         <v>140019</v>
       </c>
@@ -11193,11 +12565,21 @@
       <c r="F126" s="6">
         <v>5</v>
       </c>
-      <c r="H126" s="12" t="s">
+      <c r="G126" s="6">
+        <v>4</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6"/>
+      <c r="L126" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="7">
         <v>140020</v>
       </c>
@@ -11210,11 +12592,21 @@
       <c r="F127" s="6">
         <v>10</v>
       </c>
-      <c r="H127" s="12" t="s">
+      <c r="G127" s="6">
+        <v>4</v>
+      </c>
+      <c r="H127" s="6">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="L127" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="7">
         <v>140021</v>
       </c>
@@ -11227,11 +12619,21 @@
       <c r="F128" s="6">
         <v>10</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="G128" s="6">
+        <v>4</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6"/>
+      <c r="L128" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="7">
         <v>140022</v>
       </c>
@@ -11244,11 +12646,21 @@
       <c r="F129" s="6">
         <v>10</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="G129" s="6">
+        <v>4</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="6"/>
+      <c r="L129" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="7">
         <v>140023</v>
       </c>
@@ -11261,11 +12673,21 @@
       <c r="F130" s="6">
         <v>10</v>
       </c>
-      <c r="H130" s="12" t="s">
+      <c r="G130" s="6">
+        <v>4</v>
+      </c>
+      <c r="H130" s="6">
+        <v>1</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="L130" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="7">
         <v>140024</v>
       </c>
@@ -11278,11 +12700,21 @@
       <c r="F131" s="6">
         <v>5</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="G131" s="6">
+        <v>4</v>
+      </c>
+      <c r="H131" s="6">
+        <v>1</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
+      <c r="J131" s="6"/>
+      <c r="L131" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="7">
         <v>140025</v>
       </c>
@@ -11295,11 +12727,21 @@
       <c r="F132" s="6">
         <v>5</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="G132" s="6">
+        <v>4</v>
+      </c>
+      <c r="H132" s="6">
+        <v>1</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="L132" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="7">
         <v>140026</v>
       </c>
@@ -11312,11 +12754,21 @@
       <c r="F133" s="6">
         <v>5</v>
       </c>
-      <c r="H133" s="12" t="s">
+      <c r="G133" s="6">
+        <v>4</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6"/>
+      <c r="L133" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="7">
         <v>140027</v>
       </c>
@@ -11329,11 +12781,21 @@
       <c r="F134" s="6">
         <v>20</v>
       </c>
-      <c r="H134" s="14" t="s">
+      <c r="G134" s="6">
+        <v>4</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6"/>
+      <c r="L134" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="7">
         <v>140028</v>
       </c>
@@ -11346,11 +12808,21 @@
       <c r="F135" s="6">
         <v>20</v>
       </c>
-      <c r="H135" s="14" t="s">
+      <c r="G135" s="6">
+        <v>4</v>
+      </c>
+      <c r="H135" s="6">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6"/>
+      <c r="L135" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="7">
         <v>140029</v>
       </c>
@@ -11363,11 +12835,21 @@
       <c r="F136" s="6">
         <v>20</v>
       </c>
-      <c r="H136" s="14" t="s">
+      <c r="G136" s="6">
+        <v>4</v>
+      </c>
+      <c r="H136" s="6">
+        <v>1</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6"/>
+      <c r="L136" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="7">
         <v>140030</v>
       </c>
@@ -11380,11 +12862,21 @@
       <c r="F137" s="6">
         <v>20</v>
       </c>
-      <c r="H137" s="14" t="s">
+      <c r="G137" s="6">
+        <v>4</v>
+      </c>
+      <c r="H137" s="6">
+        <v>1</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6"/>
+      <c r="L137" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="7">
         <v>140031</v>
       </c>
@@ -11397,11 +12889,21 @@
       <c r="F138" s="6">
         <v>20</v>
       </c>
-      <c r="H138" s="14" t="s">
+      <c r="G138" s="6">
+        <v>4</v>
+      </c>
+      <c r="H138" s="6">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="6"/>
+      <c r="L138" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="7">
         <v>140032</v>
       </c>
@@ -11414,11 +12916,21 @@
       <c r="F139" s="6">
         <v>20</v>
       </c>
-      <c r="H139" s="14" t="s">
+      <c r="G139" s="6">
+        <v>4</v>
+      </c>
+      <c r="H139" s="6">
+        <v>1</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6"/>
+      <c r="L139" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="7">
         <v>140033</v>
       </c>
@@ -11431,11 +12943,21 @@
       <c r="F140" s="6">
         <v>20</v>
       </c>
-      <c r="H140" s="14" t="s">
+      <c r="G140" s="6">
+        <v>4</v>
+      </c>
+      <c r="H140" s="6">
+        <v>1</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6"/>
+      <c r="L140" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="7">
         <v>140034</v>
       </c>
@@ -11448,11 +12970,21 @@
       <c r="F141" s="6">
         <v>20</v>
       </c>
-      <c r="H141" s="14" t="s">
+      <c r="G141" s="6">
+        <v>4</v>
+      </c>
+      <c r="H141" s="6">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="L141" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="7">
         <v>150001</v>
       </c>
@@ -11465,11 +12997,21 @@
       <c r="F142" s="6">
         <v>3</v>
       </c>
-      <c r="H142" s="12" t="s">
+      <c r="G142" s="6">
+        <v>5</v>
+      </c>
+      <c r="H142" s="6">
+        <v>1</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="L142" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="7">
         <v>150002</v>
       </c>
@@ -11482,11 +13024,21 @@
       <c r="F143" s="6">
         <v>3</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="G143" s="6">
+        <v>5</v>
+      </c>
+      <c r="H143" s="6">
+        <v>1</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="L143" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="7">
         <v>150003</v>
       </c>
@@ -11499,11 +13051,21 @@
       <c r="F144" s="6">
         <v>3</v>
       </c>
-      <c r="H144" s="12" t="s">
+      <c r="G144" s="6">
+        <v>5</v>
+      </c>
+      <c r="H144" s="6">
+        <v>1</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6"/>
+      <c r="L144" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="7">
         <v>150004</v>
       </c>
@@ -11516,11 +13078,21 @@
       <c r="F145" s="6">
         <v>3</v>
       </c>
-      <c r="H145" s="12" t="s">
+      <c r="G145" s="6">
+        <v>5</v>
+      </c>
+      <c r="H145" s="6">
+        <v>1</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6"/>
+      <c r="L145" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="7">
         <v>150005</v>
       </c>
@@ -11533,11 +13105,21 @@
       <c r="F146" s="6">
         <v>3</v>
       </c>
-      <c r="H146" s="12" t="s">
+      <c r="G146" s="6">
+        <v>5</v>
+      </c>
+      <c r="H146" s="6">
+        <v>1</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6"/>
+      <c r="L146" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="7">
         <v>150006</v>
       </c>
@@ -11550,11 +13132,21 @@
       <c r="F147" s="6">
         <v>3</v>
       </c>
-      <c r="H147" s="12" t="s">
+      <c r="G147" s="6">
+        <v>5</v>
+      </c>
+      <c r="H147" s="6">
+        <v>1</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="L147" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="7">
         <v>150007</v>
       </c>
@@ -11567,11 +13159,21 @@
       <c r="F148" s="6">
         <v>3</v>
       </c>
-      <c r="H148" s="12" t="s">
+      <c r="G148" s="6">
+        <v>5</v>
+      </c>
+      <c r="H148" s="6">
+        <v>1</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6"/>
+      <c r="L148" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="7">
         <v>150008</v>
       </c>
@@ -11584,11 +13186,21 @@
       <c r="F149" s="6">
         <v>3</v>
       </c>
-      <c r="H149" s="12" t="s">
+      <c r="G149" s="6">
+        <v>5</v>
+      </c>
+      <c r="H149" s="6">
+        <v>1</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6"/>
+      <c r="L149" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="7">
         <v>150009</v>
       </c>
@@ -11601,11 +13213,21 @@
       <c r="F150" s="6">
         <v>3</v>
       </c>
-      <c r="H150" s="12" t="s">
+      <c r="G150" s="6">
+        <v>5</v>
+      </c>
+      <c r="H150" s="6">
+        <v>1</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6"/>
+      <c r="L150" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="7">
         <v>150010</v>
       </c>
@@ -11618,11 +13240,21 @@
       <c r="F151" s="6">
         <v>3</v>
       </c>
-      <c r="H151" s="12" t="s">
+      <c r="G151" s="6">
+        <v>5</v>
+      </c>
+      <c r="H151" s="6">
+        <v>1</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6"/>
+      <c r="L151" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="7">
         <v>150011</v>
       </c>
@@ -11635,11 +13267,21 @@
       <c r="F152" s="6">
         <v>3</v>
       </c>
-      <c r="H152" s="12" t="s">
+      <c r="G152" s="6">
+        <v>5</v>
+      </c>
+      <c r="H152" s="6">
+        <v>1</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6"/>
+      <c r="L152" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="7">
         <v>150012</v>
       </c>
@@ -11652,11 +13294,21 @@
       <c r="F153" s="6">
         <v>3</v>
       </c>
-      <c r="H153" s="12" t="s">
+      <c r="G153" s="6">
+        <v>5</v>
+      </c>
+      <c r="H153" s="6">
+        <v>1</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6"/>
+      <c r="L153" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="7">
         <v>150013</v>
       </c>
@@ -11669,11 +13321,21 @@
       <c r="F154" s="6">
         <v>3</v>
       </c>
-      <c r="H154" s="12" t="s">
+      <c r="G154" s="6">
+        <v>5</v>
+      </c>
+      <c r="H154" s="6">
+        <v>1</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6"/>
+      <c r="L154" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="7">
         <v>150014</v>
       </c>
@@ -11686,11 +13348,21 @@
       <c r="F155" s="6">
         <v>3</v>
       </c>
-      <c r="H155" s="12" t="s">
+      <c r="G155" s="6">
+        <v>5</v>
+      </c>
+      <c r="H155" s="6">
+        <v>1</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6"/>
+      <c r="L155" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="7">
         <v>150015</v>
       </c>
@@ -11703,11 +13375,21 @@
       <c r="F156" s="6">
         <v>3</v>
       </c>
-      <c r="H156" s="12" t="s">
+      <c r="G156" s="6">
+        <v>5</v>
+      </c>
+      <c r="H156" s="6">
+        <v>1</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6"/>
+      <c r="L156" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="7">
         <v>150016</v>
       </c>
@@ -11720,11 +13402,21 @@
       <c r="F157" s="6">
         <v>5</v>
       </c>
-      <c r="H157" s="12" t="s">
+      <c r="G157" s="6">
+        <v>5</v>
+      </c>
+      <c r="H157" s="6">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6"/>
+      <c r="L157" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="7">
         <v>150017</v>
       </c>
@@ -11737,11 +13429,21 @@
       <c r="F158" s="6">
         <v>5</v>
       </c>
-      <c r="H158" s="12" t="s">
+      <c r="G158" s="6">
+        <v>5</v>
+      </c>
+      <c r="H158" s="6">
+        <v>1</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="L158" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="7">
         <v>150018</v>
       </c>
@@ -11754,11 +13456,21 @@
       <c r="F159" s="6">
         <v>5</v>
       </c>
-      <c r="H159" s="12" t="s">
+      <c r="G159" s="6">
+        <v>5</v>
+      </c>
+      <c r="H159" s="6">
+        <v>1</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6"/>
+      <c r="L159" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="7">
         <v>150019</v>
       </c>
@@ -11771,11 +13483,21 @@
       <c r="F160" s="6">
         <v>5</v>
       </c>
-      <c r="H160" s="12" t="s">
+      <c r="G160" s="6">
+        <v>5</v>
+      </c>
+      <c r="H160" s="6">
+        <v>1</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6"/>
+      <c r="L160" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="7">
         <v>150020</v>
       </c>
@@ -11788,11 +13510,21 @@
       <c r="F161" s="6">
         <v>10</v>
       </c>
-      <c r="H161" s="12" t="s">
+      <c r="G161" s="6">
+        <v>5</v>
+      </c>
+      <c r="H161" s="6">
+        <v>1</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6"/>
+      <c r="L161" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="7">
         <v>150021</v>
       </c>
@@ -11805,11 +13537,21 @@
       <c r="F162" s="6">
         <v>10</v>
       </c>
-      <c r="H162" s="12" t="s">
+      <c r="G162" s="6">
+        <v>5</v>
+      </c>
+      <c r="H162" s="6">
+        <v>1</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6"/>
+      <c r="L162" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="7">
         <v>150022</v>
       </c>
@@ -11822,11 +13564,21 @@
       <c r="F163" s="6">
         <v>10</v>
       </c>
-      <c r="H163" s="12" t="s">
+      <c r="G163" s="6">
+        <v>5</v>
+      </c>
+      <c r="H163" s="6">
+        <v>1</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6"/>
+      <c r="L163" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="7">
         <v>150023</v>
       </c>
@@ -11839,11 +13591,21 @@
       <c r="F164" s="6">
         <v>10</v>
       </c>
-      <c r="H164" s="12" t="s">
+      <c r="G164" s="6">
+        <v>5</v>
+      </c>
+      <c r="H164" s="6">
+        <v>1</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6"/>
+      <c r="L164" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="7">
         <v>150024</v>
       </c>
@@ -11856,11 +13618,21 @@
       <c r="F165" s="6">
         <v>5</v>
       </c>
-      <c r="H165" s="12" t="s">
+      <c r="G165" s="6">
+        <v>5</v>
+      </c>
+      <c r="H165" s="6">
+        <v>1</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6"/>
+      <c r="L165" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="7">
         <v>150025</v>
       </c>
@@ -11873,11 +13645,21 @@
       <c r="F166" s="6">
         <v>5</v>
       </c>
-      <c r="H166" s="12" t="s">
+      <c r="G166" s="6">
+        <v>5</v>
+      </c>
+      <c r="H166" s="6">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6"/>
+      <c r="L166" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="7">
         <v>150026</v>
       </c>
@@ -11890,11 +13672,21 @@
       <c r="F167" s="6">
         <v>5</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="G167" s="6">
+        <v>5</v>
+      </c>
+      <c r="H167" s="6">
+        <v>1</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6"/>
+      <c r="L167" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="7">
         <v>150027</v>
       </c>
@@ -11907,11 +13699,21 @@
       <c r="F168" s="6">
         <v>20</v>
       </c>
-      <c r="H168" s="14" t="s">
+      <c r="G168" s="6">
+        <v>5</v>
+      </c>
+      <c r="H168" s="6">
+        <v>1</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6"/>
+      <c r="L168" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="7">
         <v>150028</v>
       </c>
@@ -11924,11 +13726,21 @@
       <c r="F169" s="6">
         <v>20</v>
       </c>
-      <c r="H169" s="14" t="s">
+      <c r="G169" s="6">
+        <v>5</v>
+      </c>
+      <c r="H169" s="6">
+        <v>1</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6"/>
+      <c r="L169" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="7">
         <v>150029</v>
       </c>
@@ -11941,11 +13753,21 @@
       <c r="F170" s="6">
         <v>20</v>
       </c>
-      <c r="H170" s="14" t="s">
+      <c r="G170" s="6">
+        <v>5</v>
+      </c>
+      <c r="H170" s="6">
+        <v>1</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6"/>
+      <c r="L170" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="7">
         <v>150030</v>
       </c>
@@ -11958,11 +13780,21 @@
       <c r="F171" s="6">
         <v>20</v>
       </c>
-      <c r="H171" s="14" t="s">
+      <c r="G171" s="6">
+        <v>5</v>
+      </c>
+      <c r="H171" s="6">
+        <v>1</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6"/>
+      <c r="L171" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="7">
         <v>150031</v>
       </c>
@@ -11975,11 +13807,21 @@
       <c r="F172" s="6">
         <v>20</v>
       </c>
-      <c r="H172" s="14" t="s">
+      <c r="G172" s="6">
+        <v>5</v>
+      </c>
+      <c r="H172" s="6">
+        <v>1</v>
+      </c>
+      <c r="I172" s="6">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6"/>
+      <c r="L172" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="7">
         <v>150032</v>
       </c>
@@ -11992,11 +13834,21 @@
       <c r="F173" s="6">
         <v>20</v>
       </c>
-      <c r="H173" s="14" t="s">
+      <c r="G173" s="6">
+        <v>5</v>
+      </c>
+      <c r="H173" s="6">
+        <v>1</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6"/>
+      <c r="L173" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="174" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="7">
         <v>150033</v>
       </c>
@@ -12009,11 +13861,21 @@
       <c r="F174" s="6">
         <v>20</v>
       </c>
-      <c r="H174" s="14" t="s">
+      <c r="G174" s="6">
+        <v>5</v>
+      </c>
+      <c r="H174" s="6">
+        <v>1</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6"/>
+      <c r="L174" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="7">
         <v>150034</v>
       </c>
@@ -12026,36 +13888,1324 @@
       <c r="F175" s="6">
         <v>20</v>
       </c>
-      <c r="H175" s="14" t="s">
+      <c r="G175" s="6">
+        <v>5</v>
+      </c>
+      <c r="H175" s="6">
+        <v>1</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6"/>
+      <c r="L175" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="22">
+        <v>210001</v>
+      </c>
+      <c r="D176" s="22">
+        <v>210002</v>
+      </c>
+      <c r="E176" s="6">
+        <v>14010004</v>
+      </c>
+      <c r="F176" s="22">
+        <v>0</v>
+      </c>
+      <c r="G176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H176" s="6">
+        <v>2</v>
+      </c>
+      <c r="I176" s="6">
+        <v>3</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="22">
+        <v>210002</v>
+      </c>
+      <c r="D177" s="22">
+        <v>210003</v>
+      </c>
+      <c r="E177" s="6">
+        <v>14010008</v>
+      </c>
+      <c r="F177" s="22">
+        <v>0</v>
+      </c>
+      <c r="G177" s="6">
+        <v>1</v>
+      </c>
+      <c r="H177" s="6">
+        <v>2</v>
+      </c>
+      <c r="I177" s="6">
+        <v>3</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="22">
+        <v>210003</v>
+      </c>
+      <c r="D178" s="22">
+        <v>210004</v>
+      </c>
+      <c r="E178" s="6">
+        <v>14010012</v>
+      </c>
+      <c r="F178" s="22">
+        <v>0</v>
+      </c>
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="6">
+        <v>2</v>
+      </c>
+      <c r="I178" s="6">
+        <v>3</v>
+      </c>
+      <c r="J178" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="22">
+        <v>210004</v>
+      </c>
+      <c r="D179" s="22">
+        <v>210005</v>
+      </c>
+      <c r="E179" s="6">
+        <v>14020004</v>
+      </c>
+      <c r="F179" s="22">
+        <v>0</v>
+      </c>
+      <c r="G179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H179" s="6">
+        <v>2</v>
+      </c>
+      <c r="I179" s="6">
+        <v>3</v>
+      </c>
+      <c r="J179" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="22">
+        <v>210005</v>
+      </c>
+      <c r="D180" s="22">
+        <v>210006</v>
+      </c>
+      <c r="E180" s="6">
+        <v>14020008</v>
+      </c>
+      <c r="F180" s="22">
+        <v>0</v>
+      </c>
+      <c r="G180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H180" s="6">
+        <v>2</v>
+      </c>
+      <c r="I180" s="6">
+        <v>3</v>
+      </c>
+      <c r="J180" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="22">
+        <v>210006</v>
+      </c>
+      <c r="D181" s="22">
+        <v>210007</v>
+      </c>
+      <c r="E181" s="6">
+        <v>14020012</v>
+      </c>
+      <c r="F181" s="22">
+        <v>0</v>
+      </c>
+      <c r="G181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H181" s="6">
+        <v>2</v>
+      </c>
+      <c r="I181" s="6">
+        <v>3</v>
+      </c>
+      <c r="J181" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="22">
+        <v>210007</v>
+      </c>
+      <c r="D182" s="22">
+        <v>210008</v>
+      </c>
+      <c r="E182" s="6">
+        <v>14030004</v>
+      </c>
+      <c r="F182" s="22">
+        <v>0</v>
+      </c>
+      <c r="G182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H182" s="6">
+        <v>2</v>
+      </c>
+      <c r="I182" s="6">
+        <v>3</v>
+      </c>
+      <c r="J182" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="22">
+        <v>210008</v>
+      </c>
+      <c r="D183" s="22">
+        <v>210009</v>
+      </c>
+      <c r="E183" s="6">
+        <v>14030008</v>
+      </c>
+      <c r="F183" s="22">
+        <v>0</v>
+      </c>
+      <c r="G183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H183" s="6">
+        <v>2</v>
+      </c>
+      <c r="I183" s="6">
+        <v>3</v>
+      </c>
+      <c r="J183" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="22">
+        <v>210009</v>
+      </c>
+      <c r="D184" s="22">
+        <v>210010</v>
+      </c>
+      <c r="E184" s="6">
+        <v>14030012</v>
+      </c>
+      <c r="F184" s="22">
+        <v>0</v>
+      </c>
+      <c r="G184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H184" s="6">
+        <v>2</v>
+      </c>
+      <c r="I184" s="6">
+        <v>3</v>
+      </c>
+      <c r="J184" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="22">
+        <v>210010</v>
+      </c>
+      <c r="D185" s="22">
+        <v>0</v>
+      </c>
+      <c r="E185" s="6">
+        <v>14040004</v>
+      </c>
+      <c r="F185" s="22">
+        <v>0</v>
+      </c>
+      <c r="G185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H185" s="6">
+        <v>2</v>
+      </c>
+      <c r="I185" s="6">
+        <v>3</v>
+      </c>
+      <c r="J185" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="22">
+        <v>220001</v>
+      </c>
+      <c r="D186" s="22">
+        <v>220002</v>
+      </c>
+      <c r="E186" s="6">
+        <v>14010004</v>
+      </c>
+      <c r="F186" s="22">
+        <v>0</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2</v>
+      </c>
+      <c r="H186" s="6">
+        <v>2</v>
+      </c>
+      <c r="I186" s="6">
+        <v>3</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="22">
+        <v>220002</v>
+      </c>
+      <c r="D187" s="22">
+        <v>220003</v>
+      </c>
+      <c r="E187" s="6">
+        <v>14010008</v>
+      </c>
+      <c r="F187" s="22">
+        <v>0</v>
+      </c>
+      <c r="G187" s="6">
+        <v>2</v>
+      </c>
+      <c r="H187" s="6">
+        <v>2</v>
+      </c>
+      <c r="I187" s="6">
+        <v>3</v>
+      </c>
+      <c r="J187" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="22">
+        <v>220003</v>
+      </c>
+      <c r="D188" s="22">
+        <v>220004</v>
+      </c>
+      <c r="E188" s="6">
+        <v>14010012</v>
+      </c>
+      <c r="F188" s="22">
+        <v>0</v>
+      </c>
+      <c r="G188" s="6">
+        <v>2</v>
+      </c>
+      <c r="H188" s="6">
+        <v>2</v>
+      </c>
+      <c r="I188" s="6">
+        <v>3</v>
+      </c>
+      <c r="J188" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="22">
+        <v>220004</v>
+      </c>
+      <c r="D189" s="22">
+        <v>220005</v>
+      </c>
+      <c r="E189" s="6">
+        <v>14020004</v>
+      </c>
+      <c r="F189" s="22">
+        <v>0</v>
+      </c>
+      <c r="G189" s="6">
+        <v>2</v>
+      </c>
+      <c r="H189" s="6">
+        <v>2</v>
+      </c>
+      <c r="I189" s="6">
+        <v>3</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="22">
+        <v>220005</v>
+      </c>
+      <c r="D190" s="22">
+        <v>220006</v>
+      </c>
+      <c r="E190" s="6">
+        <v>14020008</v>
+      </c>
+      <c r="F190" s="22">
+        <v>0</v>
+      </c>
+      <c r="G190" s="6">
+        <v>2</v>
+      </c>
+      <c r="H190" s="6">
+        <v>2</v>
+      </c>
+      <c r="I190" s="6">
+        <v>3</v>
+      </c>
+      <c r="J190" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="22">
+        <v>220006</v>
+      </c>
+      <c r="D191" s="22">
+        <v>220007</v>
+      </c>
+      <c r="E191" s="6">
+        <v>14020012</v>
+      </c>
+      <c r="F191" s="22">
+        <v>0</v>
+      </c>
+      <c r="G191" s="6">
+        <v>2</v>
+      </c>
+      <c r="H191" s="6">
+        <v>2</v>
+      </c>
+      <c r="I191" s="6">
+        <v>3</v>
+      </c>
+      <c r="J191" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="22">
+        <v>220007</v>
+      </c>
+      <c r="D192" s="22">
+        <v>220008</v>
+      </c>
+      <c r="E192" s="6">
+        <v>14030004</v>
+      </c>
+      <c r="F192" s="22">
+        <v>0</v>
+      </c>
+      <c r="G192" s="6">
+        <v>2</v>
+      </c>
+      <c r="H192" s="6">
+        <v>2</v>
+      </c>
+      <c r="I192" s="6">
+        <v>3</v>
+      </c>
+      <c r="J192" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="22">
+        <v>220008</v>
+      </c>
+      <c r="D193" s="22">
+        <v>220009</v>
+      </c>
+      <c r="E193" s="6">
+        <v>14030008</v>
+      </c>
+      <c r="F193" s="22">
+        <v>0</v>
+      </c>
+      <c r="G193" s="6">
+        <v>2</v>
+      </c>
+      <c r="H193" s="6">
+        <v>2</v>
+      </c>
+      <c r="I193" s="6">
+        <v>3</v>
+      </c>
+      <c r="J193" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="22">
+        <v>220009</v>
+      </c>
+      <c r="D194" s="22">
+        <v>220010</v>
+      </c>
+      <c r="E194" s="6">
+        <v>14030012</v>
+      </c>
+      <c r="F194" s="22">
+        <v>0</v>
+      </c>
+      <c r="G194" s="6">
+        <v>2</v>
+      </c>
+      <c r="H194" s="6">
+        <v>2</v>
+      </c>
+      <c r="I194" s="6">
+        <v>3</v>
+      </c>
+      <c r="J194" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="22">
+        <v>220010</v>
+      </c>
+      <c r="D195" s="22">
+        <v>0</v>
+      </c>
+      <c r="E195" s="6">
+        <v>14040004</v>
+      </c>
+      <c r="F195" s="22">
+        <v>0</v>
+      </c>
+      <c r="G195" s="6">
+        <v>2</v>
+      </c>
+      <c r="H195" s="6">
+        <v>2</v>
+      </c>
+      <c r="I195" s="6">
+        <v>3</v>
+      </c>
+      <c r="J195" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="22">
+        <v>230001</v>
+      </c>
+      <c r="D196" s="22">
+        <v>230002</v>
+      </c>
+      <c r="E196" s="6">
+        <v>14010004</v>
+      </c>
+      <c r="F196" s="22">
+        <v>0</v>
+      </c>
+      <c r="G196" s="6">
+        <v>3</v>
+      </c>
+      <c r="H196" s="6">
+        <v>2</v>
+      </c>
+      <c r="I196" s="6">
+        <v>3</v>
+      </c>
+      <c r="J196" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="22">
+        <v>230002</v>
+      </c>
+      <c r="D197" s="22">
+        <v>230003</v>
+      </c>
+      <c r="E197" s="6">
+        <v>14010008</v>
+      </c>
+      <c r="F197" s="22">
+        <v>0</v>
+      </c>
+      <c r="G197" s="6">
+        <v>3</v>
+      </c>
+      <c r="H197" s="6">
+        <v>2</v>
+      </c>
+      <c r="I197" s="6">
+        <v>3</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="22">
+        <v>230003</v>
+      </c>
+      <c r="D198" s="22">
+        <v>230004</v>
+      </c>
+      <c r="E198" s="6">
+        <v>14010012</v>
+      </c>
+      <c r="F198" s="22">
+        <v>0</v>
+      </c>
+      <c r="G198" s="6">
+        <v>3</v>
+      </c>
+      <c r="H198" s="6">
+        <v>2</v>
+      </c>
+      <c r="I198" s="6">
+        <v>3</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="22">
+        <v>230004</v>
+      </c>
+      <c r="D199" s="22">
+        <v>230005</v>
+      </c>
+      <c r="E199" s="6">
+        <v>14020004</v>
+      </c>
+      <c r="F199" s="22">
+        <v>0</v>
+      </c>
+      <c r="G199" s="6">
+        <v>3</v>
+      </c>
+      <c r="H199" s="6">
+        <v>2</v>
+      </c>
+      <c r="I199" s="6">
+        <v>3</v>
+      </c>
+      <c r="J199" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="22">
+        <v>230005</v>
+      </c>
+      <c r="D200" s="22">
+        <v>230006</v>
+      </c>
+      <c r="E200" s="6">
+        <v>14020008</v>
+      </c>
+      <c r="F200" s="22">
+        <v>0</v>
+      </c>
+      <c r="G200" s="6">
+        <v>3</v>
+      </c>
+      <c r="H200" s="6">
+        <v>2</v>
+      </c>
+      <c r="I200" s="6">
+        <v>3</v>
+      </c>
+      <c r="J200" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="22">
+        <v>230006</v>
+      </c>
+      <c r="D201" s="22">
+        <v>230007</v>
+      </c>
+      <c r="E201" s="6">
+        <v>14020012</v>
+      </c>
+      <c r="F201" s="22">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6">
+        <v>3</v>
+      </c>
+      <c r="H201" s="6">
+        <v>2</v>
+      </c>
+      <c r="I201" s="6">
+        <v>3</v>
+      </c>
+      <c r="J201" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="22">
+        <v>230007</v>
+      </c>
+      <c r="D202" s="22">
+        <v>230008</v>
+      </c>
+      <c r="E202" s="6">
+        <v>14030004</v>
+      </c>
+      <c r="F202" s="22">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6">
+        <v>3</v>
+      </c>
+      <c r="H202" s="6">
+        <v>2</v>
+      </c>
+      <c r="I202" s="6">
+        <v>3</v>
+      </c>
+      <c r="J202" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="22">
+        <v>230008</v>
+      </c>
+      <c r="D203" s="22">
+        <v>230009</v>
+      </c>
+      <c r="E203" s="6">
+        <v>14030008</v>
+      </c>
+      <c r="F203" s="22">
+        <v>0</v>
+      </c>
+      <c r="G203" s="6">
+        <v>3</v>
+      </c>
+      <c r="H203" s="6">
+        <v>2</v>
+      </c>
+      <c r="I203" s="6">
+        <v>3</v>
+      </c>
+      <c r="J203" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="204" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="22">
+        <v>230009</v>
+      </c>
+      <c r="D204" s="22">
+        <v>230010</v>
+      </c>
+      <c r="E204" s="6">
+        <v>14030012</v>
+      </c>
+      <c r="F204" s="22">
+        <v>0</v>
+      </c>
+      <c r="G204" s="6">
+        <v>3</v>
+      </c>
+      <c r="H204" s="6">
+        <v>2</v>
+      </c>
+      <c r="I204" s="6">
+        <v>3</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="22">
+        <v>230010</v>
+      </c>
+      <c r="D205" s="22">
+        <v>0</v>
+      </c>
+      <c r="E205" s="6">
+        <v>14040004</v>
+      </c>
+      <c r="F205" s="22">
+        <v>0</v>
+      </c>
+      <c r="G205" s="6">
+        <v>3</v>
+      </c>
+      <c r="H205" s="6">
+        <v>2</v>
+      </c>
+      <c r="I205" s="6">
+        <v>3</v>
+      </c>
+      <c r="J205" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="206" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="22">
+        <v>240001</v>
+      </c>
+      <c r="D206" s="22">
+        <v>240002</v>
+      </c>
+      <c r="E206" s="6">
+        <v>14010004</v>
+      </c>
+      <c r="F206" s="22">
+        <v>0</v>
+      </c>
+      <c r="G206" s="6">
+        <v>4</v>
+      </c>
+      <c r="H206" s="6">
+        <v>2</v>
+      </c>
+      <c r="I206" s="6">
+        <v>3</v>
+      </c>
+      <c r="J206" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="22">
+        <v>240002</v>
+      </c>
+      <c r="D207" s="22">
+        <v>240003</v>
+      </c>
+      <c r="E207" s="6">
+        <v>14010008</v>
+      </c>
+      <c r="F207" s="22">
+        <v>0</v>
+      </c>
+      <c r="G207" s="6">
+        <v>4</v>
+      </c>
+      <c r="H207" s="6">
+        <v>2</v>
+      </c>
+      <c r="I207" s="6">
+        <v>3</v>
+      </c>
+      <c r="J207" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="208" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="22">
+        <v>240003</v>
+      </c>
+      <c r="D208" s="22">
+        <v>240004</v>
+      </c>
+      <c r="E208" s="6">
+        <v>14010012</v>
+      </c>
+      <c r="F208" s="22">
+        <v>0</v>
+      </c>
+      <c r="G208" s="6">
+        <v>4</v>
+      </c>
+      <c r="H208" s="6">
+        <v>2</v>
+      </c>
+      <c r="I208" s="6">
+        <v>3</v>
+      </c>
+      <c r="J208" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="22">
+        <v>240004</v>
+      </c>
+      <c r="D209" s="22">
+        <v>240005</v>
+      </c>
+      <c r="E209" s="6">
+        <v>14020004</v>
+      </c>
+      <c r="F209" s="22">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6">
+        <v>4</v>
+      </c>
+      <c r="H209" s="6">
+        <v>2</v>
+      </c>
+      <c r="I209" s="6">
+        <v>3</v>
+      </c>
+      <c r="J209" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="22">
+        <v>240005</v>
+      </c>
+      <c r="D210" s="22">
+        <v>240006</v>
+      </c>
+      <c r="E210" s="6">
+        <v>14020008</v>
+      </c>
+      <c r="F210" s="22">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6">
+        <v>4</v>
+      </c>
+      <c r="H210" s="6">
+        <v>2</v>
+      </c>
+      <c r="I210" s="6">
+        <v>3</v>
+      </c>
+      <c r="J210" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="22">
+        <v>240006</v>
+      </c>
+      <c r="D211" s="22">
+        <v>240007</v>
+      </c>
+      <c r="E211" s="6">
+        <v>14020012</v>
+      </c>
+      <c r="F211" s="22">
+        <v>0</v>
+      </c>
+      <c r="G211" s="6">
+        <v>4</v>
+      </c>
+      <c r="H211" s="6">
+        <v>2</v>
+      </c>
+      <c r="I211" s="6">
+        <v>3</v>
+      </c>
+      <c r="J211" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="22">
+        <v>240007</v>
+      </c>
+      <c r="D212" s="22">
+        <v>240008</v>
+      </c>
+      <c r="E212" s="6">
+        <v>14030004</v>
+      </c>
+      <c r="F212" s="22">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6">
+        <v>4</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2</v>
+      </c>
+      <c r="I212" s="6">
+        <v>3</v>
+      </c>
+      <c r="J212" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="22">
+        <v>240008</v>
+      </c>
+      <c r="D213" s="22">
+        <v>240009</v>
+      </c>
+      <c r="E213" s="6">
+        <v>14030008</v>
+      </c>
+      <c r="F213" s="22">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6">
+        <v>4</v>
+      </c>
+      <c r="H213" s="6">
+        <v>2</v>
+      </c>
+      <c r="I213" s="6">
+        <v>3</v>
+      </c>
+      <c r="J213" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="22">
+        <v>240009</v>
+      </c>
+      <c r="D214" s="22">
+        <v>240010</v>
+      </c>
+      <c r="E214" s="6">
+        <v>14030012</v>
+      </c>
+      <c r="F214" s="22">
+        <v>0</v>
+      </c>
+      <c r="G214" s="6">
+        <v>4</v>
+      </c>
+      <c r="H214" s="6">
+        <v>2</v>
+      </c>
+      <c r="I214" s="6">
+        <v>3</v>
+      </c>
+      <c r="J214" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="22">
+        <v>240010</v>
+      </c>
+      <c r="D215" s="22">
+        <v>0</v>
+      </c>
+      <c r="E215" s="6">
+        <v>14040004</v>
+      </c>
+      <c r="F215" s="22">
+        <v>0</v>
+      </c>
+      <c r="G215" s="6">
+        <v>4</v>
+      </c>
+      <c r="H215" s="6">
+        <v>2</v>
+      </c>
+      <c r="I215" s="6">
+        <v>3</v>
+      </c>
+      <c r="J215" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="216" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="22">
+        <v>250001</v>
+      </c>
+      <c r="D216" s="22">
+        <v>250002</v>
+      </c>
+      <c r="E216" s="6">
+        <v>14010004</v>
+      </c>
+      <c r="F216" s="22">
+        <v>0</v>
+      </c>
+      <c r="G216" s="6">
+        <v>5</v>
+      </c>
+      <c r="H216" s="6">
+        <v>2</v>
+      </c>
+      <c r="I216" s="6">
+        <v>3</v>
+      </c>
+      <c r="J216" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="22">
+        <v>250002</v>
+      </c>
+      <c r="D217" s="22">
+        <v>250003</v>
+      </c>
+      <c r="E217" s="6">
+        <v>14010008</v>
+      </c>
+      <c r="F217" s="22">
+        <v>0</v>
+      </c>
+      <c r="G217" s="6">
+        <v>5</v>
+      </c>
+      <c r="H217" s="6">
+        <v>2</v>
+      </c>
+      <c r="I217" s="6">
+        <v>3</v>
+      </c>
+      <c r="J217" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="218" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="22">
+        <v>250003</v>
+      </c>
+      <c r="D218" s="22">
+        <v>250004</v>
+      </c>
+      <c r="E218" s="6">
+        <v>14010012</v>
+      </c>
+      <c r="F218" s="22">
+        <v>0</v>
+      </c>
+      <c r="G218" s="6">
+        <v>5</v>
+      </c>
+      <c r="H218" s="6">
+        <v>2</v>
+      </c>
+      <c r="I218" s="6">
+        <v>3</v>
+      </c>
+      <c r="J218" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="22">
+        <v>250004</v>
+      </c>
+      <c r="D219" s="22">
+        <v>250005</v>
+      </c>
+      <c r="E219" s="6">
+        <v>14020004</v>
+      </c>
+      <c r="F219" s="22">
+        <v>0</v>
+      </c>
+      <c r="G219" s="6">
+        <v>5</v>
+      </c>
+      <c r="H219" s="6">
+        <v>2</v>
+      </c>
+      <c r="I219" s="6">
+        <v>3</v>
+      </c>
+      <c r="J219" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="22">
+        <v>250005</v>
+      </c>
+      <c r="D220" s="22">
+        <v>250006</v>
+      </c>
+      <c r="E220" s="6">
+        <v>14020008</v>
+      </c>
+      <c r="F220" s="22">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6">
+        <v>5</v>
+      </c>
+      <c r="H220" s="6">
+        <v>2</v>
+      </c>
+      <c r="I220" s="6">
+        <v>3</v>
+      </c>
+      <c r="J220" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="22">
+        <v>250006</v>
+      </c>
+      <c r="D221" s="22">
+        <v>250007</v>
+      </c>
+      <c r="E221" s="6">
+        <v>14020012</v>
+      </c>
+      <c r="F221" s="22">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6">
+        <v>5</v>
+      </c>
+      <c r="H221" s="6">
+        <v>2</v>
+      </c>
+      <c r="I221" s="6">
+        <v>3</v>
+      </c>
+      <c r="J221" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="22">
+        <v>250007</v>
+      </c>
+      <c r="D222" s="22">
+        <v>250008</v>
+      </c>
+      <c r="E222" s="6">
+        <v>14030004</v>
+      </c>
+      <c r="F222" s="22">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6">
+        <v>5</v>
+      </c>
+      <c r="H222" s="6">
+        <v>2</v>
+      </c>
+      <c r="I222" s="6">
+        <v>3</v>
+      </c>
+      <c r="J222" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="223" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="22">
+        <v>250008</v>
+      </c>
+      <c r="D223" s="22">
+        <v>250009</v>
+      </c>
+      <c r="E223" s="6">
+        <v>14030008</v>
+      </c>
+      <c r="F223" s="22">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6">
+        <v>5</v>
+      </c>
+      <c r="H223" s="6">
+        <v>2</v>
+      </c>
+      <c r="I223" s="6">
+        <v>3</v>
+      </c>
+      <c r="J223" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="22">
+        <v>250009</v>
+      </c>
+      <c r="D224" s="22">
+        <v>250010</v>
+      </c>
+      <c r="E224" s="6">
+        <v>14030012</v>
+      </c>
+      <c r="F224" s="22">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6">
+        <v>5</v>
+      </c>
+      <c r="H224" s="6">
+        <v>2</v>
+      </c>
+      <c r="I224" s="6">
+        <v>3</v>
+      </c>
+      <c r="J224" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="22">
+        <v>250010</v>
+      </c>
+      <c r="D225" s="22">
+        <v>0</v>
+      </c>
+      <c r="E225" s="6">
+        <v>14040004</v>
+      </c>
+      <c r="F225" s="22">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6">
+        <v>5</v>
+      </c>
+      <c r="H225" s="6">
+        <v>2</v>
+      </c>
+      <c r="I225" s="6">
+        <v>3</v>
+      </c>
+      <c r="J225" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB8B2D-ECA0-4171-BD80-5A53B317A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423B0EE-B735-4C65-B785-FD164B4EE8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
@@ -6867,7 +6867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6928,9 +6928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9148,9 +9145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G221" sqref="G221"/>
+      <selection pane="topRight" activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13903,16 +13900,16 @@
       </c>
     </row>
     <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="22">
+      <c r="C176" s="6">
         <v>210001</v>
       </c>
-      <c r="D176" s="22">
+      <c r="D176" s="6">
         <v>210002</v>
       </c>
       <c r="E176" s="6">
         <v>14010004</v>
       </c>
-      <c r="F176" s="22">
+      <c r="F176" s="6">
         <v>0</v>
       </c>
       <c r="G176" s="6">
@@ -13929,16 +13926,16 @@
       </c>
     </row>
     <row r="177" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="22">
+      <c r="C177" s="6">
         <v>210002</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="6">
         <v>210003</v>
       </c>
       <c r="E177" s="6">
         <v>14010008</v>
       </c>
-      <c r="F177" s="22">
+      <c r="F177" s="6">
         <v>0</v>
       </c>
       <c r="G177" s="6">
@@ -13955,16 +13952,16 @@
       </c>
     </row>
     <row r="178" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="22">
+      <c r="C178" s="6">
         <v>210003</v>
       </c>
-      <c r="D178" s="22">
+      <c r="D178" s="6">
         <v>210004</v>
       </c>
       <c r="E178" s="6">
         <v>14010012</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="6">
         <v>0</v>
       </c>
       <c r="G178" s="6">
@@ -13981,16 +13978,16 @@
       </c>
     </row>
     <row r="179" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="22">
+      <c r="C179" s="6">
         <v>210004</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="6">
         <v>210005</v>
       </c>
       <c r="E179" s="6">
         <v>14020004</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="6">
         <v>0</v>
       </c>
       <c r="G179" s="6">
@@ -14007,16 +14004,16 @@
       </c>
     </row>
     <row r="180" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="22">
+      <c r="C180" s="6">
         <v>210005</v>
       </c>
-      <c r="D180" s="22">
+      <c r="D180" s="6">
         <v>210006</v>
       </c>
       <c r="E180" s="6">
         <v>14020008</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="6">
         <v>0</v>
       </c>
       <c r="G180" s="6">
@@ -14033,16 +14030,16 @@
       </c>
     </row>
     <row r="181" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="22">
+      <c r="C181" s="6">
         <v>210006</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="6">
         <v>210007</v>
       </c>
       <c r="E181" s="6">
         <v>14020012</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="6">
         <v>0</v>
       </c>
       <c r="G181" s="6">
@@ -14059,16 +14056,16 @@
       </c>
     </row>
     <row r="182" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="22">
+      <c r="C182" s="6">
         <v>210007</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="6">
         <v>210008</v>
       </c>
       <c r="E182" s="6">
         <v>14030004</v>
       </c>
-      <c r="F182" s="22">
+      <c r="F182" s="6">
         <v>0</v>
       </c>
       <c r="G182" s="6">
@@ -14085,16 +14082,16 @@
       </c>
     </row>
     <row r="183" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="22">
+      <c r="C183" s="6">
         <v>210008</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="6">
         <v>210009</v>
       </c>
       <c r="E183" s="6">
         <v>14030008</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="6">
         <v>0</v>
       </c>
       <c r="G183" s="6">
@@ -14111,16 +14108,16 @@
       </c>
     </row>
     <row r="184" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="22">
+      <c r="C184" s="6">
         <v>210009</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184" s="6">
         <v>210010</v>
       </c>
       <c r="E184" s="6">
         <v>14030012</v>
       </c>
-      <c r="F184" s="22">
+      <c r="F184" s="6">
         <v>0</v>
       </c>
       <c r="G184" s="6">
@@ -14137,16 +14134,16 @@
       </c>
     </row>
     <row r="185" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="22">
+      <c r="C185" s="6">
         <v>210010</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="6">
         <v>0</v>
       </c>
       <c r="E185" s="6">
         <v>14040004</v>
       </c>
-      <c r="F185" s="22">
+      <c r="F185" s="6">
         <v>0</v>
       </c>
       <c r="G185" s="6">
@@ -14163,16 +14160,16 @@
       </c>
     </row>
     <row r="186" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="22">
+      <c r="C186" s="6">
         <v>220001</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="6">
         <v>220002</v>
       </c>
       <c r="E186" s="6">
         <v>14010004</v>
       </c>
-      <c r="F186" s="22">
+      <c r="F186" s="6">
         <v>0</v>
       </c>
       <c r="G186" s="6">
@@ -14189,16 +14186,16 @@
       </c>
     </row>
     <row r="187" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="22">
+      <c r="C187" s="6">
         <v>220002</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="6">
         <v>220003</v>
       </c>
       <c r="E187" s="6">
         <v>14010008</v>
       </c>
-      <c r="F187" s="22">
+      <c r="F187" s="6">
         <v>0</v>
       </c>
       <c r="G187" s="6">
@@ -14215,16 +14212,16 @@
       </c>
     </row>
     <row r="188" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="22">
+      <c r="C188" s="6">
         <v>220003</v>
       </c>
-      <c r="D188" s="22">
+      <c r="D188" s="6">
         <v>220004</v>
       </c>
       <c r="E188" s="6">
         <v>14010012</v>
       </c>
-      <c r="F188" s="22">
+      <c r="F188" s="6">
         <v>0</v>
       </c>
       <c r="G188" s="6">
@@ -14241,16 +14238,16 @@
       </c>
     </row>
     <row r="189" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="22">
+      <c r="C189" s="6">
         <v>220004</v>
       </c>
-      <c r="D189" s="22">
+      <c r="D189" s="6">
         <v>220005</v>
       </c>
       <c r="E189" s="6">
         <v>14020004</v>
       </c>
-      <c r="F189" s="22">
+      <c r="F189" s="6">
         <v>0</v>
       </c>
       <c r="G189" s="6">
@@ -14267,16 +14264,16 @@
       </c>
     </row>
     <row r="190" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="22">
+      <c r="C190" s="6">
         <v>220005</v>
       </c>
-      <c r="D190" s="22">
+      <c r="D190" s="6">
         <v>220006</v>
       </c>
       <c r="E190" s="6">
         <v>14020008</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="6">
         <v>0</v>
       </c>
       <c r="G190" s="6">
@@ -14293,16 +14290,16 @@
       </c>
     </row>
     <row r="191" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="22">
+      <c r="C191" s="6">
         <v>220006</v>
       </c>
-      <c r="D191" s="22">
+      <c r="D191" s="6">
         <v>220007</v>
       </c>
       <c r="E191" s="6">
         <v>14020012</v>
       </c>
-      <c r="F191" s="22">
+      <c r="F191" s="6">
         <v>0</v>
       </c>
       <c r="G191" s="6">
@@ -14319,16 +14316,16 @@
       </c>
     </row>
     <row r="192" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="22">
+      <c r="C192" s="6">
         <v>220007</v>
       </c>
-      <c r="D192" s="22">
+      <c r="D192" s="6">
         <v>220008</v>
       </c>
       <c r="E192" s="6">
         <v>14030004</v>
       </c>
-      <c r="F192" s="22">
+      <c r="F192" s="6">
         <v>0</v>
       </c>
       <c r="G192" s="6">
@@ -14345,16 +14342,16 @@
       </c>
     </row>
     <row r="193" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="22">
+      <c r="C193" s="6">
         <v>220008</v>
       </c>
-      <c r="D193" s="22">
+      <c r="D193" s="6">
         <v>220009</v>
       </c>
       <c r="E193" s="6">
         <v>14030008</v>
       </c>
-      <c r="F193" s="22">
+      <c r="F193" s="6">
         <v>0</v>
       </c>
       <c r="G193" s="6">
@@ -14371,16 +14368,16 @@
       </c>
     </row>
     <row r="194" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="22">
+      <c r="C194" s="6">
         <v>220009</v>
       </c>
-      <c r="D194" s="22">
+      <c r="D194" s="6">
         <v>220010</v>
       </c>
       <c r="E194" s="6">
         <v>14030012</v>
       </c>
-      <c r="F194" s="22">
+      <c r="F194" s="6">
         <v>0</v>
       </c>
       <c r="G194" s="6">
@@ -14397,16 +14394,16 @@
       </c>
     </row>
     <row r="195" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="22">
+      <c r="C195" s="6">
         <v>220010</v>
       </c>
-      <c r="D195" s="22">
+      <c r="D195" s="6">
         <v>0</v>
       </c>
       <c r="E195" s="6">
         <v>14040004</v>
       </c>
-      <c r="F195" s="22">
+      <c r="F195" s="6">
         <v>0</v>
       </c>
       <c r="G195" s="6">
@@ -14423,16 +14420,16 @@
       </c>
     </row>
     <row r="196" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="22">
+      <c r="C196" s="6">
         <v>230001</v>
       </c>
-      <c r="D196" s="22">
+      <c r="D196" s="6">
         <v>230002</v>
       </c>
       <c r="E196" s="6">
         <v>14010004</v>
       </c>
-      <c r="F196" s="22">
+      <c r="F196" s="6">
         <v>0</v>
       </c>
       <c r="G196" s="6">
@@ -14449,16 +14446,16 @@
       </c>
     </row>
     <row r="197" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="22">
+      <c r="C197" s="6">
         <v>230002</v>
       </c>
-      <c r="D197" s="22">
+      <c r="D197" s="6">
         <v>230003</v>
       </c>
       <c r="E197" s="6">
         <v>14010008</v>
       </c>
-      <c r="F197" s="22">
+      <c r="F197" s="6">
         <v>0</v>
       </c>
       <c r="G197" s="6">
@@ -14475,16 +14472,16 @@
       </c>
     </row>
     <row r="198" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="22">
+      <c r="C198" s="6">
         <v>230003</v>
       </c>
-      <c r="D198" s="22">
+      <c r="D198" s="6">
         <v>230004</v>
       </c>
       <c r="E198" s="6">
         <v>14010012</v>
       </c>
-      <c r="F198" s="22">
+      <c r="F198" s="6">
         <v>0</v>
       </c>
       <c r="G198" s="6">
@@ -14501,16 +14498,16 @@
       </c>
     </row>
     <row r="199" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="22">
+      <c r="C199" s="6">
         <v>230004</v>
       </c>
-      <c r="D199" s="22">
+      <c r="D199" s="6">
         <v>230005</v>
       </c>
       <c r="E199" s="6">
         <v>14020004</v>
       </c>
-      <c r="F199" s="22">
+      <c r="F199" s="6">
         <v>0</v>
       </c>
       <c r="G199" s="6">
@@ -14527,16 +14524,16 @@
       </c>
     </row>
     <row r="200" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="22">
+      <c r="C200" s="6">
         <v>230005</v>
       </c>
-      <c r="D200" s="22">
+      <c r="D200" s="6">
         <v>230006</v>
       </c>
       <c r="E200" s="6">
         <v>14020008</v>
       </c>
-      <c r="F200" s="22">
+      <c r="F200" s="6">
         <v>0</v>
       </c>
       <c r="G200" s="6">
@@ -14553,16 +14550,16 @@
       </c>
     </row>
     <row r="201" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="22">
+      <c r="C201" s="6">
         <v>230006</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="6">
         <v>230007</v>
       </c>
       <c r="E201" s="6">
         <v>14020012</v>
       </c>
-      <c r="F201" s="22">
+      <c r="F201" s="6">
         <v>0</v>
       </c>
       <c r="G201" s="6">
@@ -14579,16 +14576,16 @@
       </c>
     </row>
     <row r="202" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="22">
+      <c r="C202" s="6">
         <v>230007</v>
       </c>
-      <c r="D202" s="22">
+      <c r="D202" s="6">
         <v>230008</v>
       </c>
       <c r="E202" s="6">
         <v>14030004</v>
       </c>
-      <c r="F202" s="22">
+      <c r="F202" s="6">
         <v>0</v>
       </c>
       <c r="G202" s="6">
@@ -14605,16 +14602,16 @@
       </c>
     </row>
     <row r="203" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="22">
+      <c r="C203" s="6">
         <v>230008</v>
       </c>
-      <c r="D203" s="22">
+      <c r="D203" s="6">
         <v>230009</v>
       </c>
       <c r="E203" s="6">
         <v>14030008</v>
       </c>
-      <c r="F203" s="22">
+      <c r="F203" s="6">
         <v>0</v>
       </c>
       <c r="G203" s="6">
@@ -14631,16 +14628,16 @@
       </c>
     </row>
     <row r="204" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="22">
+      <c r="C204" s="6">
         <v>230009</v>
       </c>
-      <c r="D204" s="22">
+      <c r="D204" s="6">
         <v>230010</v>
       </c>
       <c r="E204" s="6">
         <v>14030012</v>
       </c>
-      <c r="F204" s="22">
+      <c r="F204" s="6">
         <v>0</v>
       </c>
       <c r="G204" s="6">
@@ -14657,16 +14654,16 @@
       </c>
     </row>
     <row r="205" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="22">
+      <c r="C205" s="6">
         <v>230010</v>
       </c>
-      <c r="D205" s="22">
+      <c r="D205" s="6">
         <v>0</v>
       </c>
       <c r="E205" s="6">
         <v>14040004</v>
       </c>
-      <c r="F205" s="22">
+      <c r="F205" s="6">
         <v>0</v>
       </c>
       <c r="G205" s="6">
@@ -14683,16 +14680,16 @@
       </c>
     </row>
     <row r="206" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="22">
+      <c r="C206" s="6">
         <v>240001</v>
       </c>
-      <c r="D206" s="22">
+      <c r="D206" s="6">
         <v>240002</v>
       </c>
       <c r="E206" s="6">
         <v>14010004</v>
       </c>
-      <c r="F206" s="22">
+      <c r="F206" s="6">
         <v>0</v>
       </c>
       <c r="G206" s="6">
@@ -14709,16 +14706,16 @@
       </c>
     </row>
     <row r="207" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="22">
+      <c r="C207" s="6">
         <v>240002</v>
       </c>
-      <c r="D207" s="22">
+      <c r="D207" s="6">
         <v>240003</v>
       </c>
       <c r="E207" s="6">
         <v>14010008</v>
       </c>
-      <c r="F207" s="22">
+      <c r="F207" s="6">
         <v>0</v>
       </c>
       <c r="G207" s="6">
@@ -14735,16 +14732,16 @@
       </c>
     </row>
     <row r="208" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="22">
+      <c r="C208" s="6">
         <v>240003</v>
       </c>
-      <c r="D208" s="22">
+      <c r="D208" s="6">
         <v>240004</v>
       </c>
       <c r="E208" s="6">
         <v>14010012</v>
       </c>
-      <c r="F208" s="22">
+      <c r="F208" s="6">
         <v>0</v>
       </c>
       <c r="G208" s="6">
@@ -14761,16 +14758,16 @@
       </c>
     </row>
     <row r="209" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="22">
+      <c r="C209" s="6">
         <v>240004</v>
       </c>
-      <c r="D209" s="22">
+      <c r="D209" s="6">
         <v>240005</v>
       </c>
       <c r="E209" s="6">
         <v>14020004</v>
       </c>
-      <c r="F209" s="22">
+      <c r="F209" s="6">
         <v>0</v>
       </c>
       <c r="G209" s="6">
@@ -14787,16 +14784,16 @@
       </c>
     </row>
     <row r="210" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="22">
+      <c r="C210" s="6">
         <v>240005</v>
       </c>
-      <c r="D210" s="22">
+      <c r="D210" s="6">
         <v>240006</v>
       </c>
       <c r="E210" s="6">
         <v>14020008</v>
       </c>
-      <c r="F210" s="22">
+      <c r="F210" s="6">
         <v>0</v>
       </c>
       <c r="G210" s="6">
@@ -14813,16 +14810,16 @@
       </c>
     </row>
     <row r="211" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="22">
+      <c r="C211" s="6">
         <v>240006</v>
       </c>
-      <c r="D211" s="22">
+      <c r="D211" s="6">
         <v>240007</v>
       </c>
       <c r="E211" s="6">
         <v>14020012</v>
       </c>
-      <c r="F211" s="22">
+      <c r="F211" s="6">
         <v>0</v>
       </c>
       <c r="G211" s="6">
@@ -14839,16 +14836,16 @@
       </c>
     </row>
     <row r="212" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="22">
+      <c r="C212" s="6">
         <v>240007</v>
       </c>
-      <c r="D212" s="22">
+      <c r="D212" s="6">
         <v>240008</v>
       </c>
       <c r="E212" s="6">
         <v>14030004</v>
       </c>
-      <c r="F212" s="22">
+      <c r="F212" s="6">
         <v>0</v>
       </c>
       <c r="G212" s="6">
@@ -14865,16 +14862,16 @@
       </c>
     </row>
     <row r="213" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="22">
+      <c r="C213" s="6">
         <v>240008</v>
       </c>
-      <c r="D213" s="22">
+      <c r="D213" s="6">
         <v>240009</v>
       </c>
       <c r="E213" s="6">
         <v>14030008</v>
       </c>
-      <c r="F213" s="22">
+      <c r="F213" s="6">
         <v>0</v>
       </c>
       <c r="G213" s="6">
@@ -14891,16 +14888,16 @@
       </c>
     </row>
     <row r="214" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="22">
+      <c r="C214" s="6">
         <v>240009</v>
       </c>
-      <c r="D214" s="22">
+      <c r="D214" s="6">
         <v>240010</v>
       </c>
       <c r="E214" s="6">
         <v>14030012</v>
       </c>
-      <c r="F214" s="22">
+      <c r="F214" s="6">
         <v>0</v>
       </c>
       <c r="G214" s="6">
@@ -14917,16 +14914,16 @@
       </c>
     </row>
     <row r="215" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="22">
+      <c r="C215" s="6">
         <v>240010</v>
       </c>
-      <c r="D215" s="22">
+      <c r="D215" s="6">
         <v>0</v>
       </c>
       <c r="E215" s="6">
         <v>14040004</v>
       </c>
-      <c r="F215" s="22">
+      <c r="F215" s="6">
         <v>0</v>
       </c>
       <c r="G215" s="6">
@@ -14943,16 +14940,16 @@
       </c>
     </row>
     <row r="216" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="22">
+      <c r="C216" s="6">
         <v>250001</v>
       </c>
-      <c r="D216" s="22">
+      <c r="D216" s="6">
         <v>250002</v>
       </c>
       <c r="E216" s="6">
         <v>14010004</v>
       </c>
-      <c r="F216" s="22">
+      <c r="F216" s="6">
         <v>0</v>
       </c>
       <c r="G216" s="6">
@@ -14969,16 +14966,16 @@
       </c>
     </row>
     <row r="217" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="22">
+      <c r="C217" s="6">
         <v>250002</v>
       </c>
-      <c r="D217" s="22">
+      <c r="D217" s="6">
         <v>250003</v>
       </c>
       <c r="E217" s="6">
         <v>14010008</v>
       </c>
-      <c r="F217" s="22">
+      <c r="F217" s="6">
         <v>0</v>
       </c>
       <c r="G217" s="6">
@@ -14995,16 +14992,16 @@
       </c>
     </row>
     <row r="218" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="22">
+      <c r="C218" s="6">
         <v>250003</v>
       </c>
-      <c r="D218" s="22">
+      <c r="D218" s="6">
         <v>250004</v>
       </c>
       <c r="E218" s="6">
         <v>14010012</v>
       </c>
-      <c r="F218" s="22">
+      <c r="F218" s="6">
         <v>0</v>
       </c>
       <c r="G218" s="6">
@@ -15021,16 +15018,16 @@
       </c>
     </row>
     <row r="219" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="22">
+      <c r="C219" s="6">
         <v>250004</v>
       </c>
-      <c r="D219" s="22">
+      <c r="D219" s="6">
         <v>250005</v>
       </c>
       <c r="E219" s="6">
         <v>14020004</v>
       </c>
-      <c r="F219" s="22">
+      <c r="F219" s="6">
         <v>0</v>
       </c>
       <c r="G219" s="6">
@@ -15047,16 +15044,16 @@
       </c>
     </row>
     <row r="220" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="22">
+      <c r="C220" s="6">
         <v>250005</v>
       </c>
-      <c r="D220" s="22">
+      <c r="D220" s="6">
         <v>250006</v>
       </c>
       <c r="E220" s="6">
         <v>14020008</v>
       </c>
-      <c r="F220" s="22">
+      <c r="F220" s="6">
         <v>0</v>
       </c>
       <c r="G220" s="6">
@@ -15073,16 +15070,16 @@
       </c>
     </row>
     <row r="221" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="22">
+      <c r="C221" s="6">
         <v>250006</v>
       </c>
-      <c r="D221" s="22">
+      <c r="D221" s="6">
         <v>250007</v>
       </c>
       <c r="E221" s="6">
         <v>14020012</v>
       </c>
-      <c r="F221" s="22">
+      <c r="F221" s="6">
         <v>0</v>
       </c>
       <c r="G221" s="6">
@@ -15099,16 +15096,16 @@
       </c>
     </row>
     <row r="222" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="22">
+      <c r="C222" s="6">
         <v>250007</v>
       </c>
-      <c r="D222" s="22">
+      <c r="D222" s="6">
         <v>250008</v>
       </c>
       <c r="E222" s="6">
         <v>14030004</v>
       </c>
-      <c r="F222" s="22">
+      <c r="F222" s="6">
         <v>0</v>
       </c>
       <c r="G222" s="6">
@@ -15125,16 +15122,16 @@
       </c>
     </row>
     <row r="223" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="22">
+      <c r="C223" s="6">
         <v>250008</v>
       </c>
-      <c r="D223" s="22">
+      <c r="D223" s="6">
         <v>250009</v>
       </c>
       <c r="E223" s="6">
         <v>14030008</v>
       </c>
-      <c r="F223" s="22">
+      <c r="F223" s="6">
         <v>0</v>
       </c>
       <c r="G223" s="6">
@@ -15151,16 +15148,16 @@
       </c>
     </row>
     <row r="224" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="22">
+      <c r="C224" s="6">
         <v>250009</v>
       </c>
-      <c r="D224" s="22">
+      <c r="D224" s="6">
         <v>250010</v>
       </c>
       <c r="E224" s="6">
         <v>14030012</v>
       </c>
-      <c r="F224" s="22">
+      <c r="F224" s="6">
         <v>0</v>
       </c>
       <c r="G224" s="6">
@@ -15177,16 +15174,16 @@
       </c>
     </row>
     <row r="225" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="22">
+      <c r="C225" s="6">
         <v>250010</v>
       </c>
-      <c r="D225" s="22">
+      <c r="D225" s="6">
         <v>0</v>
       </c>
       <c r="E225" s="6">
         <v>14040004</v>
       </c>
-      <c r="F225" s="22">
+      <c r="F225" s="6">
         <v>0</v>
       </c>
       <c r="G225" s="6">

--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423B0EE-B735-4C65-B785-FD164B4EE8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18941E5-9159-4CFE-AED8-970345480C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="355">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -649,23 +649,597 @@
     <t>AddPropreListStr</t>
   </si>
   <si>
-    <t>110301,200</t>
-  </si>
-  <si>
-    <t>100802,0.01</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>101002,0.01</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
     <t>AcitveNum</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>激活数量</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸣之盔</t>
+  </si>
+  <si>
+    <t>贤者之盔</t>
+  </si>
+  <si>
+    <t>无畏之盔</t>
+  </si>
+  <si>
+    <t>龙鸣之手</t>
+  </si>
+  <si>
+    <t>贤者之手</t>
+  </si>
+  <si>
+    <t>无畏之手</t>
+  </si>
+  <si>
+    <t>龙鸣之带</t>
+  </si>
+  <si>
+    <t>贤者之带</t>
+  </si>
+  <si>
+    <t>无畏之带</t>
+  </si>
+  <si>
+    <t>龙鸣之靴</t>
+  </si>
+  <si>
+    <t>贤者之靴</t>
+  </si>
+  <si>
+    <t>无畏之靴</t>
+  </si>
+  <si>
+    <t>龙鸣之腿</t>
+  </si>
+  <si>
+    <t>贤者之腿</t>
+  </si>
+  <si>
+    <t>无畏之腿</t>
+  </si>
+  <si>
+    <t>森灵之链</t>
+  </si>
+  <si>
+    <t>森灵之戒</t>
+  </si>
+  <si>
+    <t>森灵之坠</t>
+  </si>
+  <si>
+    <t>森灵之符</t>
+  </si>
+  <si>
+    <t>森灵之剑</t>
+  </si>
+  <si>
+    <t>森灵之刃</t>
+  </si>
+  <si>
+    <t>森灵权杖</t>
+  </si>
+  <si>
+    <t>森灵之书</t>
+  </si>
+  <si>
+    <t>龙鸣之甲</t>
+  </si>
+  <si>
+    <t>贤者之衣</t>
+  </si>
+  <si>
+    <t>无畏之甲</t>
+  </si>
+  <si>
+    <t>森林晶体</t>
+  </si>
+  <si>
+    <t>森林印记</t>
+  </si>
+  <si>
+    <t>森林奖章</t>
+  </si>
+  <si>
+    <t>龙脊之盔</t>
+  </si>
+  <si>
+    <t>魔灵之盔</t>
+  </si>
+  <si>
+    <t>秩序之盔</t>
+  </si>
+  <si>
+    <t>龙脊之手</t>
+  </si>
+  <si>
+    <t>魔灵之手</t>
+  </si>
+  <si>
+    <t>秩序之手</t>
+  </si>
+  <si>
+    <t>龙脊之带</t>
+  </si>
+  <si>
+    <t>魔灵之带</t>
+  </si>
+  <si>
+    <t>秩序之带</t>
+  </si>
+  <si>
+    <t>龙脊之靴</t>
+  </si>
+  <si>
+    <t>魔灵之靴</t>
+  </si>
+  <si>
+    <t>秩序之靴</t>
+  </si>
+  <si>
+    <t>龙脊之腿</t>
+  </si>
+  <si>
+    <t>魔灵之腿</t>
+  </si>
+  <si>
+    <t>秩序之腿</t>
+  </si>
+  <si>
+    <t>流光之链</t>
+  </si>
+  <si>
+    <t>流光之戒</t>
+  </si>
+  <si>
+    <t>流光之灵</t>
+  </si>
+  <si>
+    <t>流光之符</t>
+  </si>
+  <si>
+    <t>流光之剑</t>
+  </si>
+  <si>
+    <t>流光战刃</t>
+  </si>
+  <si>
+    <t>流光之杖</t>
+  </si>
+  <si>
+    <t>流光之书</t>
+  </si>
+  <si>
+    <t>龙脊之甲</t>
+  </si>
+  <si>
+    <t>魔灵之甲</t>
+  </si>
+  <si>
+    <t>秩序之甲</t>
+  </si>
+  <si>
+    <t>荒漠晶体</t>
+  </si>
+  <si>
+    <t>荒漠印记</t>
+  </si>
+  <si>
+    <t>荒漠奖章</t>
+  </si>
+  <si>
+    <t>100603,22</t>
+  </si>
+  <si>
+    <t>119303,16</t>
+  </si>
+  <si>
+    <t>100203,300</t>
+  </si>
+  <si>
+    <t>119403,16</t>
+  </si>
+  <si>
+    <t>119103,16</t>
+  </si>
+  <si>
+    <t>101003,22</t>
+  </si>
+  <si>
+    <t>100803,22</t>
+  </si>
+  <si>
+    <t>119203,16</t>
+  </si>
+  <si>
+    <t>100403,22</t>
+  </si>
+  <si>
+    <t>110101,30</t>
+  </si>
+  <si>
+    <t>100603,30</t>
+  </si>
+  <si>
+    <t>119303,20</t>
+  </si>
+  <si>
+    <t>100203,400</t>
+  </si>
+  <si>
+    <t>119403,20</t>
+  </si>
+  <si>
+    <t>119103,20</t>
+  </si>
+  <si>
+    <t>101003,30</t>
+  </si>
+  <si>
+    <t>100803,30</t>
+  </si>
+  <si>
+    <t>119203,20</t>
+  </si>
+  <si>
+    <t>100403,30</t>
+  </si>
+  <si>
+    <t>110101,40</t>
+  </si>
+  <si>
+    <t>银月之盔</t>
+  </si>
+  <si>
+    <t>风暴之盔</t>
+  </si>
+  <si>
+    <t>无尽之盔</t>
+  </si>
+  <si>
+    <t>银月之手</t>
+  </si>
+  <si>
+    <t>风暴之手</t>
+  </si>
+  <si>
+    <t>无尽之手</t>
+  </si>
+  <si>
+    <t>银月之带</t>
+  </si>
+  <si>
+    <t>风暴之带</t>
+  </si>
+  <si>
+    <t>无尽之带</t>
+  </si>
+  <si>
+    <t>银月之靴</t>
+  </si>
+  <si>
+    <t>风暴之靴</t>
+  </si>
+  <si>
+    <t>无尽之靴</t>
+  </si>
+  <si>
+    <t>银月之腿</t>
+  </si>
+  <si>
+    <t>风暴之腿</t>
+  </si>
+  <si>
+    <t>无尽之腿</t>
+  </si>
+  <si>
+    <t>冰封之链</t>
+  </si>
+  <si>
+    <t>冰封之戒</t>
+  </si>
+  <si>
+    <t>冰封之灵</t>
+  </si>
+  <si>
+    <t>冰封之符</t>
+  </si>
+  <si>
+    <t>冰封之剑</t>
+  </si>
+  <si>
+    <t>冰封战刃</t>
+  </si>
+  <si>
+    <t>冰封之仗</t>
+  </si>
+  <si>
+    <t>冰封之书</t>
+  </si>
+  <si>
+    <t>银月之甲</t>
+  </si>
+  <si>
+    <t>风暴之甲</t>
+  </si>
+  <si>
+    <t>无尽之甲</t>
+  </si>
+  <si>
+    <t>冰封晶体</t>
+  </si>
+  <si>
+    <t>冰封印记</t>
+  </si>
+  <si>
+    <t>冰封奖章</t>
+  </si>
+  <si>
+    <t>命运之盔</t>
+  </si>
+  <si>
+    <t>圣灵之盔</t>
+  </si>
+  <si>
+    <t>破灵之盔</t>
+  </si>
+  <si>
+    <t>命运之手</t>
+  </si>
+  <si>
+    <t>圣灵之手</t>
+  </si>
+  <si>
+    <t>破灵之手</t>
+  </si>
+  <si>
+    <t>命运之带</t>
+  </si>
+  <si>
+    <t>圣灵之带</t>
+  </si>
+  <si>
+    <t>破灵之带</t>
+  </si>
+  <si>
+    <t>命运之靴</t>
+  </si>
+  <si>
+    <t>圣灵之靴</t>
+  </si>
+  <si>
+    <t>破灵之靴</t>
+  </si>
+  <si>
+    <t>命运之腿</t>
+  </si>
+  <si>
+    <t>圣灵之腿</t>
+  </si>
+  <si>
+    <t>破灵之腿</t>
+  </si>
+  <si>
+    <t>唤灵之链</t>
+  </si>
+  <si>
+    <t>唤灵之戒</t>
+  </si>
+  <si>
+    <t>唤灵之灵</t>
+  </si>
+  <si>
+    <t>唤灵之符</t>
+  </si>
+  <si>
+    <t>唤灵之剑</t>
+  </si>
+  <si>
+    <t>唤灵之刀</t>
+  </si>
+  <si>
+    <t>唤灵之杖</t>
+  </si>
+  <si>
+    <t>唤灵之书</t>
+  </si>
+  <si>
+    <t>命运之甲</t>
+  </si>
+  <si>
+    <t>圣灵之甲</t>
+  </si>
+  <si>
+    <t>破灵之甲</t>
+  </si>
+  <si>
+    <t>暮色晶体</t>
+  </si>
+  <si>
+    <t>暮色印记</t>
+  </si>
+  <si>
+    <t>暮色奖章</t>
+  </si>
+  <si>
+    <t>100603,37</t>
+  </si>
+  <si>
+    <t>119303,25</t>
+  </si>
+  <si>
+    <t>100203,500</t>
+  </si>
+  <si>
+    <t>119403,25</t>
+  </si>
+  <si>
+    <t>119103,25</t>
+  </si>
+  <si>
+    <t>101003,37</t>
+  </si>
+  <si>
+    <t>100803,37</t>
+  </si>
+  <si>
+    <t>119203,25</t>
+  </si>
+  <si>
+    <t>100403,37</t>
+  </si>
+  <si>
+    <t>110101,50</t>
+  </si>
+  <si>
+    <t>100603,45</t>
+  </si>
+  <si>
+    <t>119303,30</t>
+  </si>
+  <si>
+    <t>100203,600</t>
+  </si>
+  <si>
+    <t>119403,30</t>
+  </si>
+  <si>
+    <t>119103,30</t>
+  </si>
+  <si>
+    <t>101003,45</t>
+  </si>
+  <si>
+    <t>100803,45</t>
+  </si>
+  <si>
+    <t>119203,30</t>
+  </si>
+  <si>
+    <t>100403,45</t>
+  </si>
+  <si>
+    <t>110101,60</t>
+  </si>
+  <si>
+    <t>风灵之盔</t>
+  </si>
+  <si>
+    <t>神谕之盔</t>
+  </si>
+  <si>
+    <t>永恒之盔</t>
+  </si>
+  <si>
+    <t>风灵之手</t>
+  </si>
+  <si>
+    <t>神谕之手</t>
+  </si>
+  <si>
+    <t>永恒之手</t>
+  </si>
+  <si>
+    <t>风灵之带</t>
+  </si>
+  <si>
+    <t>神谕之带</t>
+  </si>
+  <si>
+    <t>永恒之带</t>
+  </si>
+  <si>
+    <t>风灵之靴</t>
+  </si>
+  <si>
+    <t>神谕之靴</t>
+  </si>
+  <si>
+    <t>永恒之靴</t>
+  </si>
+  <si>
+    <t>风灵之腿</t>
+  </si>
+  <si>
+    <t>神谕之腿</t>
+  </si>
+  <si>
+    <t>永恒之腿</t>
+  </si>
+  <si>
+    <t>炙热之链</t>
+  </si>
+  <si>
+    <t>炙热之戒</t>
+  </si>
+  <si>
+    <t>炙热之灵</t>
+  </si>
+  <si>
+    <t>炙热之符</t>
+  </si>
+  <si>
+    <t>炙热之剑</t>
+  </si>
+  <si>
+    <t>炙热战刃</t>
+  </si>
+  <si>
+    <t>炙热之杖</t>
+  </si>
+  <si>
+    <t>炙热之书</t>
+  </si>
+  <si>
+    <t>风灵之甲</t>
+  </si>
+  <si>
+    <t>神谕之甲</t>
+  </si>
+  <si>
+    <t>永恒之甲</t>
+  </si>
+  <si>
+    <t>炙热晶体</t>
+  </si>
+  <si>
+    <t>炙热印记</t>
+  </si>
+  <si>
+    <t>炙热奖章</t>
+  </si>
+  <si>
+    <t>100603,15</t>
+  </si>
+  <si>
+    <t>119303,12</t>
+  </si>
+  <si>
+    <t>100203,200</t>
+  </si>
+  <si>
+    <t>119403,12</t>
+  </si>
+  <si>
+    <t>119103,12</t>
+  </si>
+  <si>
+    <t>101003,15</t>
+  </si>
+  <si>
+    <t>100803,15</t>
+  </si>
+  <si>
+    <t>119203,12</t>
+  </si>
+  <si>
+    <t>100403,15</t>
+  </si>
+  <si>
+    <t>110101,20</t>
   </si>
 </sst>
 </file>
@@ -957,14 +1531,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1252,8 +1826,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14957121494186223"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14960173345133823"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1464,6 +2050,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1848">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6867,7 +7468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6928,6 +7529,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="52" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="52" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9143,11 +9756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H203" sqref="H203"/>
+      <selection pane="topRight" activeCell="J176" sqref="J176:J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9184,7 +9797,7 @@
         <v>152</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>155</v>
@@ -9210,7 +9823,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>157</v>
@@ -13906,7 +14519,7 @@
       <c r="D176" s="6">
         <v>210002</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="22">
         <v>14010004</v>
       </c>
       <c r="F176" s="6">
@@ -13918,21 +14531,24 @@
       <c r="H176" s="6">
         <v>2</v>
       </c>
-      <c r="I176" s="6">
+      <c r="I176" s="24">
         <v>3</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="177" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="6">
         <v>210002</v>
       </c>
       <c r="D177" s="6">
         <v>210003</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="22">
         <v>14010008</v>
       </c>
       <c r="F177" s="6">
@@ -13944,21 +14560,24 @@
       <c r="H177" s="6">
         <v>2</v>
       </c>
-      <c r="I177" s="6">
+      <c r="I177" s="24">
         <v>3</v>
       </c>
       <c r="J177" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="178" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="6">
         <v>210003</v>
       </c>
       <c r="D178" s="6">
         <v>210004</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="22">
         <v>14010012</v>
       </c>
       <c r="F178" s="6">
@@ -13970,21 +14589,24 @@
       <c r="H178" s="6">
         <v>2</v>
       </c>
-      <c r="I178" s="6">
+      <c r="I178" s="24">
         <v>3</v>
       </c>
       <c r="J178" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="179" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="6">
         <v>210004</v>
       </c>
       <c r="D179" s="6">
         <v>210005</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="22">
         <v>14020004</v>
       </c>
       <c r="F179" s="6">
@@ -13996,21 +14618,24 @@
       <c r="H179" s="6">
         <v>2</v>
       </c>
-      <c r="I179" s="6">
+      <c r="I179" s="24">
         <v>3</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="180" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="6">
         <v>210005</v>
       </c>
       <c r="D180" s="6">
         <v>210006</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="22">
         <v>14020008</v>
       </c>
       <c r="F180" s="6">
@@ -14022,21 +14647,24 @@
       <c r="H180" s="6">
         <v>2</v>
       </c>
-      <c r="I180" s="6">
+      <c r="I180" s="24">
         <v>3</v>
       </c>
       <c r="J180" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="181" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="6">
         <v>210006</v>
       </c>
       <c r="D181" s="6">
         <v>210007</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="22">
         <v>14020012</v>
       </c>
       <c r="F181" s="6">
@@ -14048,21 +14676,24 @@
       <c r="H181" s="6">
         <v>2</v>
       </c>
-      <c r="I181" s="6">
+      <c r="I181" s="24">
         <v>3</v>
       </c>
       <c r="J181" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="182" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="L181" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="6">
         <v>210007</v>
       </c>
       <c r="D182" s="6">
         <v>210008</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="22">
         <v>14030004</v>
       </c>
       <c r="F182" s="6">
@@ -14074,21 +14705,24 @@
       <c r="H182" s="6">
         <v>2</v>
       </c>
-      <c r="I182" s="6">
+      <c r="I182" s="24">
         <v>3</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="183" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="L182" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="6">
         <v>210008</v>
       </c>
       <c r="D183" s="6">
         <v>210009</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="22">
         <v>14030008</v>
       </c>
       <c r="F183" s="6">
@@ -14100,21 +14734,24 @@
       <c r="H183" s="6">
         <v>2</v>
       </c>
-      <c r="I183" s="6">
+      <c r="I183" s="24">
         <v>3</v>
       </c>
       <c r="J183" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="184" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="L183" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="6">
         <v>210009</v>
       </c>
       <c r="D184" s="6">
         <v>210010</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="22">
         <v>14030012</v>
       </c>
       <c r="F184" s="6">
@@ -14126,21 +14763,24 @@
       <c r="H184" s="6">
         <v>2</v>
       </c>
-      <c r="I184" s="6">
+      <c r="I184" s="24">
         <v>3</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="185" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="L184" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="6">
         <v>210010</v>
       </c>
       <c r="D185" s="6">
-        <v>0</v>
-      </c>
-      <c r="E185" s="6">
+        <v>210011</v>
+      </c>
+      <c r="E185" s="22">
         <v>14040004</v>
       </c>
       <c r="F185" s="6">
@@ -14152,1051 +14792,4799 @@
       <c r="H185" s="6">
         <v>2</v>
       </c>
-      <c r="I185" s="6">
+      <c r="I185" s="24">
         <v>3</v>
       </c>
       <c r="J185" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="186" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="L185" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="6">
+        <v>210011</v>
+      </c>
+      <c r="D186" s="6">
+        <v>210012</v>
+      </c>
+      <c r="E186" s="22">
+        <v>14040008</v>
+      </c>
+      <c r="F186" s="6">
+        <v>0</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H186" s="6">
+        <v>2</v>
+      </c>
+      <c r="I186" s="24">
+        <v>3</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="L186" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="6">
+        <v>210012</v>
+      </c>
+      <c r="D187" s="6">
+        <v>210013</v>
+      </c>
+      <c r="E187" s="22">
+        <v>14040012</v>
+      </c>
+      <c r="F187" s="6">
+        <v>0</v>
+      </c>
+      <c r="G187" s="6">
+        <v>1</v>
+      </c>
+      <c r="H187" s="6">
+        <v>2</v>
+      </c>
+      <c r="I187" s="24">
+        <v>3</v>
+      </c>
+      <c r="J187" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="L187" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="6">
+        <v>210013</v>
+      </c>
+      <c r="D188" s="6">
+        <v>210014</v>
+      </c>
+      <c r="E188" s="22">
+        <v>14050004</v>
+      </c>
+      <c r="F188" s="6">
+        <v>0</v>
+      </c>
+      <c r="G188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H188" s="6">
+        <v>2</v>
+      </c>
+      <c r="I188" s="24">
+        <v>3</v>
+      </c>
+      <c r="J188" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L188" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="6">
+        <v>210014</v>
+      </c>
+      <c r="D189" s="6">
+        <v>210015</v>
+      </c>
+      <c r="E189" s="22">
+        <v>14050008</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H189" s="6">
+        <v>2</v>
+      </c>
+      <c r="I189" s="24">
+        <v>3</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="L189" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C190" s="6">
+        <v>210015</v>
+      </c>
+      <c r="D190" s="6">
+        <v>210016</v>
+      </c>
+      <c r="E190" s="22">
+        <v>14050012</v>
+      </c>
+      <c r="F190" s="6">
+        <v>0</v>
+      </c>
+      <c r="G190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H190" s="6">
+        <v>2</v>
+      </c>
+      <c r="I190" s="24">
+        <v>3</v>
+      </c>
+      <c r="J190" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L190" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="6">
+        <v>210016</v>
+      </c>
+      <c r="D191" s="6">
+        <v>210017</v>
+      </c>
+      <c r="E191" s="22">
+        <v>14060004</v>
+      </c>
+      <c r="F191" s="6">
+        <v>0</v>
+      </c>
+      <c r="G191" s="6">
+        <v>1</v>
+      </c>
+      <c r="H191" s="6">
+        <v>2</v>
+      </c>
+      <c r="I191" s="24">
+        <v>3</v>
+      </c>
+      <c r="J191" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="L191" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C192" s="6">
+        <v>210017</v>
+      </c>
+      <c r="D192" s="6">
+        <v>210018</v>
+      </c>
+      <c r="E192" s="22">
+        <v>14070004</v>
+      </c>
+      <c r="F192" s="6">
+        <v>0</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6">
+        <v>2</v>
+      </c>
+      <c r="I192" s="24">
+        <v>3</v>
+      </c>
+      <c r="J192" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="L192" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="6">
+        <v>210018</v>
+      </c>
+      <c r="D193" s="6">
+        <v>210019</v>
+      </c>
+      <c r="E193" s="22">
+        <v>14080003</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6">
+        <v>2</v>
+      </c>
+      <c r="I193" s="24">
+        <v>3</v>
+      </c>
+      <c r="J193" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="L193" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C194" s="6">
+        <v>210019</v>
+      </c>
+      <c r="D194" s="6">
+        <v>210020</v>
+      </c>
+      <c r="E194" s="22">
+        <v>14090003</v>
+      </c>
+      <c r="F194" s="6">
+        <v>0</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H194" s="6">
+        <v>2</v>
+      </c>
+      <c r="I194" s="24">
+        <v>3</v>
+      </c>
+      <c r="J194" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L194" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C195" s="6">
+        <v>210020</v>
+      </c>
+      <c r="D195" s="6">
+        <v>210021</v>
+      </c>
+      <c r="E195" s="22">
+        <v>14100004</v>
+      </c>
+      <c r="F195" s="6">
+        <v>0</v>
+      </c>
+      <c r="G195" s="6">
+        <v>1</v>
+      </c>
+      <c r="H195" s="6">
+        <v>2</v>
+      </c>
+      <c r="I195" s="24">
+        <v>3</v>
+      </c>
+      <c r="J195" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="L195" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C196" s="6">
+        <v>210021</v>
+      </c>
+      <c r="D196" s="6">
+        <v>210022</v>
+      </c>
+      <c r="E196" s="22">
+        <v>14100008</v>
+      </c>
+      <c r="F196" s="6">
+        <v>0</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1</v>
+      </c>
+      <c r="H196" s="6">
+        <v>2</v>
+      </c>
+      <c r="I196" s="24">
+        <v>3</v>
+      </c>
+      <c r="J196" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="L196" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C197" s="6">
+        <v>210022</v>
+      </c>
+      <c r="D197" s="6">
+        <v>210023</v>
+      </c>
+      <c r="E197" s="22">
+        <v>14100104</v>
+      </c>
+      <c r="F197" s="6">
+        <v>0</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1</v>
+      </c>
+      <c r="H197" s="6">
+        <v>2</v>
+      </c>
+      <c r="I197" s="24">
+        <v>3</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="L197" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="198" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C198" s="6">
+        <v>210023</v>
+      </c>
+      <c r="D198" s="6">
+        <v>210024</v>
+      </c>
+      <c r="E198" s="22">
+        <v>14100108</v>
+      </c>
+      <c r="F198" s="6">
+        <v>0</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H198" s="6">
+        <v>2</v>
+      </c>
+      <c r="I198" s="24">
+        <v>3</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="L198" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="199" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C199" s="6">
+        <v>210024</v>
+      </c>
+      <c r="D199" s="6">
+        <v>210025</v>
+      </c>
+      <c r="E199" s="22">
+        <v>14110004</v>
+      </c>
+      <c r="F199" s="6">
+        <v>0</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
+      <c r="H199" s="6">
+        <v>2</v>
+      </c>
+      <c r="I199" s="24">
+        <v>3</v>
+      </c>
+      <c r="J199" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="L199" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="6">
+        <v>210025</v>
+      </c>
+      <c r="D200" s="6">
+        <v>210026</v>
+      </c>
+      <c r="E200" s="22">
+        <v>14110008</v>
+      </c>
+      <c r="F200" s="6">
+        <v>0</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1</v>
+      </c>
+      <c r="H200" s="6">
+        <v>2</v>
+      </c>
+      <c r="I200" s="24">
+        <v>3</v>
+      </c>
+      <c r="J200" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="L200" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="6">
+        <v>210026</v>
+      </c>
+      <c r="D201" s="6">
+        <v>210027</v>
+      </c>
+      <c r="E201" s="22">
+        <v>14110012</v>
+      </c>
+      <c r="F201" s="6">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6">
+        <v>1</v>
+      </c>
+      <c r="H201" s="6">
+        <v>2</v>
+      </c>
+      <c r="I201" s="24">
+        <v>3</v>
+      </c>
+      <c r="J201" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L201" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="6">
+        <v>210027</v>
+      </c>
+      <c r="D202" s="6">
+        <v>210028</v>
+      </c>
+      <c r="E202" s="23">
+        <v>10021010</v>
+      </c>
+      <c r="F202" s="6">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H202" s="6">
+        <v>2</v>
+      </c>
+      <c r="I202" s="22">
+        <v>300</v>
+      </c>
+      <c r="J202" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="L202" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="6">
+        <v>210028</v>
+      </c>
+      <c r="D203" s="6">
+        <v>210029</v>
+      </c>
+      <c r="E203" s="23">
+        <v>10021010</v>
+      </c>
+      <c r="F203" s="6">
+        <v>0</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H203" s="6">
+        <v>2</v>
+      </c>
+      <c r="I203" s="22">
+        <v>500</v>
+      </c>
+      <c r="J203" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L203" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C204" s="6">
+        <v>210029</v>
+      </c>
+      <c r="D204" s="6">
+        <v>210030</v>
+      </c>
+      <c r="E204" s="23">
+        <v>10021010</v>
+      </c>
+      <c r="F204" s="6">
+        <v>0</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1</v>
+      </c>
+      <c r="H204" s="6">
+        <v>2</v>
+      </c>
+      <c r="I204" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="L204" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="6">
+        <v>210030</v>
+      </c>
+      <c r="D205" s="6">
+        <v>210031</v>
+      </c>
+      <c r="E205" s="23">
+        <v>10021008</v>
+      </c>
+      <c r="F205" s="6">
+        <v>0</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1</v>
+      </c>
+      <c r="H205" s="6">
+        <v>2</v>
+      </c>
+      <c r="I205" s="22">
+        <v>5</v>
+      </c>
+      <c r="J205" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L205" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="206" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" s="6">
+        <v>210031</v>
+      </c>
+      <c r="D206" s="6">
+        <v>210032</v>
+      </c>
+      <c r="E206" s="23">
+        <v>10021008</v>
+      </c>
+      <c r="F206" s="6">
+        <v>0</v>
+      </c>
+      <c r="G206" s="6">
+        <v>1</v>
+      </c>
+      <c r="H206" s="6">
+        <v>2</v>
+      </c>
+      <c r="I206" s="22">
+        <v>10</v>
+      </c>
+      <c r="J206" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="L206" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="6">
+        <v>210032</v>
+      </c>
+      <c r="D207" s="6">
+        <v>210033</v>
+      </c>
+      <c r="E207" s="23">
+        <v>10021008</v>
+      </c>
+      <c r="F207" s="6">
+        <v>0</v>
+      </c>
+      <c r="G207" s="6">
+        <v>1</v>
+      </c>
+      <c r="H207" s="6">
+        <v>2</v>
+      </c>
+      <c r="I207" s="22">
+        <v>20</v>
+      </c>
+      <c r="J207" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="L207" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="208" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="6">
+        <v>210033</v>
+      </c>
+      <c r="D208" s="6">
+        <v>210034</v>
+      </c>
+      <c r="E208" s="23">
+        <v>10021009</v>
+      </c>
+      <c r="F208" s="6">
+        <v>0</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1</v>
+      </c>
+      <c r="H208" s="6">
+        <v>2</v>
+      </c>
+      <c r="I208" s="22">
+        <v>3</v>
+      </c>
+      <c r="J208" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L208" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="6">
+        <v>210034</v>
+      </c>
+      <c r="D209" s="6">
+        <v>210035</v>
+      </c>
+      <c r="E209" s="23">
+        <v>10021009</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6">
+        <v>1</v>
+      </c>
+      <c r="H209" s="6">
+        <v>2</v>
+      </c>
+      <c r="I209" s="22">
+        <v>5</v>
+      </c>
+      <c r="J209" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="L209" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="6">
+        <v>210035</v>
+      </c>
+      <c r="D210" s="6">
+        <v>0</v>
+      </c>
+      <c r="E210" s="23">
+        <v>10021009</v>
+      </c>
+      <c r="F210" s="6">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6">
+        <v>1</v>
+      </c>
+      <c r="H210" s="6">
+        <v>2</v>
+      </c>
+      <c r="I210" s="22">
+        <v>10</v>
+      </c>
+      <c r="J210" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="L210" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C211" s="6">
         <v>220001</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D211" s="6">
         <v>220002</v>
       </c>
-      <c r="E186" s="6">
-        <v>14010004</v>
-      </c>
-      <c r="F186" s="6">
-        <v>0</v>
-      </c>
-      <c r="G186" s="6">
-        <v>2</v>
-      </c>
-      <c r="H186" s="6">
-        <v>2</v>
-      </c>
-      <c r="I186" s="6">
-        <v>3</v>
-      </c>
-      <c r="J186" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="187" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="6">
+      <c r="E211" s="22">
+        <v>15201002</v>
+      </c>
+      <c r="F211" s="6">
+        <v>0</v>
+      </c>
+      <c r="G211" s="6">
+        <v>2</v>
+      </c>
+      <c r="H211" s="6">
+        <v>2</v>
+      </c>
+      <c r="I211" s="24">
+        <v>3</v>
+      </c>
+      <c r="J211" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L211" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C212" s="6">
         <v>220002</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D212" s="6">
         <v>220003</v>
       </c>
-      <c r="E187" s="6">
-        <v>14010008</v>
-      </c>
-      <c r="F187" s="6">
-        <v>0</v>
-      </c>
-      <c r="G187" s="6">
-        <v>2</v>
-      </c>
-      <c r="H187" s="6">
-        <v>2</v>
-      </c>
-      <c r="I187" s="6">
-        <v>3</v>
-      </c>
-      <c r="J187" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="188" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="6">
+      <c r="E212" s="22">
+        <v>15201004</v>
+      </c>
+      <c r="F212" s="6">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6">
+        <v>2</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2</v>
+      </c>
+      <c r="I212" s="24">
+        <v>3</v>
+      </c>
+      <c r="J212" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L212" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="6">
         <v>220003</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D213" s="6">
         <v>220004</v>
       </c>
-      <c r="E188" s="6">
-        <v>14010012</v>
-      </c>
-      <c r="F188" s="6">
-        <v>0</v>
-      </c>
-      <c r="G188" s="6">
-        <v>2</v>
-      </c>
-      <c r="H188" s="6">
-        <v>2</v>
-      </c>
-      <c r="I188" s="6">
-        <v>3</v>
-      </c>
-      <c r="J188" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="189" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="6">
+      <c r="E213" s="22">
+        <v>15201006</v>
+      </c>
+      <c r="F213" s="6">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6">
+        <v>2</v>
+      </c>
+      <c r="H213" s="6">
+        <v>2</v>
+      </c>
+      <c r="I213" s="24">
+        <v>3</v>
+      </c>
+      <c r="J213" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L213" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C214" s="6">
         <v>220004</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D214" s="6">
         <v>220005</v>
       </c>
-      <c r="E189" s="6">
-        <v>14020004</v>
-      </c>
-      <c r="F189" s="6">
-        <v>0</v>
-      </c>
-      <c r="G189" s="6">
-        <v>2</v>
-      </c>
-      <c r="H189" s="6">
-        <v>2</v>
-      </c>
-      <c r="I189" s="6">
-        <v>3</v>
-      </c>
-      <c r="J189" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="190" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="6">
+      <c r="E214" s="22">
+        <v>15202002</v>
+      </c>
+      <c r="F214" s="6">
+        <v>0</v>
+      </c>
+      <c r="G214" s="6">
+        <v>2</v>
+      </c>
+      <c r="H214" s="6">
+        <v>2</v>
+      </c>
+      <c r="I214" s="24">
+        <v>3</v>
+      </c>
+      <c r="J214" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="L214" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C215" s="6">
         <v>220005</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D215" s="6">
         <v>220006</v>
       </c>
-      <c r="E190" s="6">
-        <v>14020008</v>
-      </c>
-      <c r="F190" s="6">
-        <v>0</v>
-      </c>
-      <c r="G190" s="6">
-        <v>2</v>
-      </c>
-      <c r="H190" s="6">
-        <v>2</v>
-      </c>
-      <c r="I190" s="6">
-        <v>3</v>
-      </c>
-      <c r="J190" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="191" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="6">
+      <c r="E215" s="22">
+        <v>15202004</v>
+      </c>
+      <c r="F215" s="6">
+        <v>0</v>
+      </c>
+      <c r="G215" s="6">
+        <v>2</v>
+      </c>
+      <c r="H215" s="6">
+        <v>2</v>
+      </c>
+      <c r="I215" s="24">
+        <v>3</v>
+      </c>
+      <c r="J215" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L215" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C216" s="6">
         <v>220006</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D216" s="6">
         <v>220007</v>
       </c>
-      <c r="E191" s="6">
-        <v>14020012</v>
-      </c>
-      <c r="F191" s="6">
-        <v>0</v>
-      </c>
-      <c r="G191" s="6">
-        <v>2</v>
-      </c>
-      <c r="H191" s="6">
-        <v>2</v>
-      </c>
-      <c r="I191" s="6">
-        <v>3</v>
-      </c>
-      <c r="J191" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="192" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="6">
+      <c r="E216" s="22">
+        <v>15202006</v>
+      </c>
+      <c r="F216" s="6">
+        <v>0</v>
+      </c>
+      <c r="G216" s="6">
+        <v>2</v>
+      </c>
+      <c r="H216" s="6">
+        <v>2</v>
+      </c>
+      <c r="I216" s="24">
+        <v>3</v>
+      </c>
+      <c r="J216" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L216" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C217" s="6">
         <v>220007</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D217" s="6">
         <v>220008</v>
       </c>
-      <c r="E192" s="6">
-        <v>14030004</v>
-      </c>
-      <c r="F192" s="6">
-        <v>0</v>
-      </c>
-      <c r="G192" s="6">
-        <v>2</v>
-      </c>
-      <c r="H192" s="6">
-        <v>2</v>
-      </c>
-      <c r="I192" s="6">
-        <v>3</v>
-      </c>
-      <c r="J192" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="193" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="6">
+      <c r="E217" s="22">
+        <v>15203002</v>
+      </c>
+      <c r="F217" s="6">
+        <v>0</v>
+      </c>
+      <c r="G217" s="6">
+        <v>2</v>
+      </c>
+      <c r="H217" s="6">
+        <v>2</v>
+      </c>
+      <c r="I217" s="24">
+        <v>3</v>
+      </c>
+      <c r="J217" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L217" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="6">
         <v>220008</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D218" s="6">
         <v>220009</v>
       </c>
-      <c r="E193" s="6">
-        <v>14030008</v>
-      </c>
-      <c r="F193" s="6">
-        <v>0</v>
-      </c>
-      <c r="G193" s="6">
-        <v>2</v>
-      </c>
-      <c r="H193" s="6">
-        <v>2</v>
-      </c>
-      <c r="I193" s="6">
-        <v>3</v>
-      </c>
-      <c r="J193" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="194" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="6">
+      <c r="E218" s="22">
+        <v>15203004</v>
+      </c>
+      <c r="F218" s="6">
+        <v>0</v>
+      </c>
+      <c r="G218" s="6">
+        <v>2</v>
+      </c>
+      <c r="H218" s="6">
+        <v>2</v>
+      </c>
+      <c r="I218" s="24">
+        <v>3</v>
+      </c>
+      <c r="J218" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L218" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C219" s="6">
         <v>220009</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D219" s="6">
         <v>220010</v>
       </c>
-      <c r="E194" s="6">
-        <v>14030012</v>
-      </c>
-      <c r="F194" s="6">
-        <v>0</v>
-      </c>
-      <c r="G194" s="6">
-        <v>2</v>
-      </c>
-      <c r="H194" s="6">
-        <v>2</v>
-      </c>
-      <c r="I194" s="6">
-        <v>3</v>
-      </c>
-      <c r="J194" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="195" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="6">
+      <c r="E219" s="22">
+        <v>15203006</v>
+      </c>
+      <c r="F219" s="6">
+        <v>0</v>
+      </c>
+      <c r="G219" s="6">
+        <v>2</v>
+      </c>
+      <c r="H219" s="6">
+        <v>2</v>
+      </c>
+      <c r="I219" s="24">
+        <v>3</v>
+      </c>
+      <c r="J219" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L219" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C220" s="6">
         <v>220010</v>
       </c>
-      <c r="D195" s="6">
-        <v>0</v>
-      </c>
-      <c r="E195" s="6">
-        <v>14040004</v>
-      </c>
-      <c r="F195" s="6">
-        <v>0</v>
-      </c>
-      <c r="G195" s="6">
-        <v>2</v>
-      </c>
-      <c r="H195" s="6">
-        <v>2</v>
-      </c>
-      <c r="I195" s="6">
-        <v>3</v>
-      </c>
-      <c r="J195" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="196" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="6">
+      <c r="D220" s="6">
+        <v>220011</v>
+      </c>
+      <c r="E220" s="22">
+        <v>15204002</v>
+      </c>
+      <c r="F220" s="6">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6">
+        <v>2</v>
+      </c>
+      <c r="H220" s="6">
+        <v>2</v>
+      </c>
+      <c r="I220" s="24">
+        <v>3</v>
+      </c>
+      <c r="J220" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L220" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="221" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="6">
+        <v>220011</v>
+      </c>
+      <c r="D221" s="6">
+        <v>220012</v>
+      </c>
+      <c r="E221" s="22">
+        <v>15204004</v>
+      </c>
+      <c r="F221" s="6">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6">
+        <v>2</v>
+      </c>
+      <c r="H221" s="6">
+        <v>2</v>
+      </c>
+      <c r="I221" s="24">
+        <v>3</v>
+      </c>
+      <c r="J221" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L221" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C222" s="6">
+        <v>220012</v>
+      </c>
+      <c r="D222" s="6">
+        <v>220013</v>
+      </c>
+      <c r="E222" s="22">
+        <v>15204006</v>
+      </c>
+      <c r="F222" s="6">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6">
+        <v>2</v>
+      </c>
+      <c r="H222" s="6">
+        <v>2</v>
+      </c>
+      <c r="I222" s="24">
+        <v>3</v>
+      </c>
+      <c r="J222" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L222" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C223" s="6">
+        <v>220013</v>
+      </c>
+      <c r="D223" s="6">
+        <v>220014</v>
+      </c>
+      <c r="E223" s="22">
+        <v>15205002</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6">
+        <v>2</v>
+      </c>
+      <c r="H223" s="6">
+        <v>2</v>
+      </c>
+      <c r="I223" s="24">
+        <v>3</v>
+      </c>
+      <c r="J223" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L223" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C224" s="6">
+        <v>220014</v>
+      </c>
+      <c r="D224" s="6">
+        <v>220015</v>
+      </c>
+      <c r="E224" s="22">
+        <v>15205004</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6">
+        <v>2</v>
+      </c>
+      <c r="H224" s="6">
+        <v>2</v>
+      </c>
+      <c r="I224" s="24">
+        <v>3</v>
+      </c>
+      <c r="J224" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="L224" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C225" s="6">
+        <v>220015</v>
+      </c>
+      <c r="D225" s="6">
+        <v>220016</v>
+      </c>
+      <c r="E225" s="22">
+        <v>15205006</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6">
+        <v>2</v>
+      </c>
+      <c r="H225" s="6">
+        <v>2</v>
+      </c>
+      <c r="I225" s="24">
+        <v>3</v>
+      </c>
+      <c r="J225" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L225" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="6">
+        <v>220016</v>
+      </c>
+      <c r="D226" s="6">
+        <v>220017</v>
+      </c>
+      <c r="E226" s="22">
+        <v>15206002</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6">
+        <v>2</v>
+      </c>
+      <c r="H226" s="6">
+        <v>2</v>
+      </c>
+      <c r="I226" s="24">
+        <v>3</v>
+      </c>
+      <c r="J226" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L226" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="6">
+        <v>220017</v>
+      </c>
+      <c r="D227" s="6">
+        <v>220018</v>
+      </c>
+      <c r="E227" s="22">
+        <v>15207002</v>
+      </c>
+      <c r="F227" s="6">
+        <v>0</v>
+      </c>
+      <c r="G227" s="6">
+        <v>2</v>
+      </c>
+      <c r="H227" s="6">
+        <v>2</v>
+      </c>
+      <c r="I227" s="24">
+        <v>3</v>
+      </c>
+      <c r="J227" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L227" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="6">
+        <v>220018</v>
+      </c>
+      <c r="D228" s="6">
+        <v>220019</v>
+      </c>
+      <c r="E228" s="22">
+        <v>15208002</v>
+      </c>
+      <c r="F228" s="6">
+        <v>0</v>
+      </c>
+      <c r="G228" s="6">
+        <v>2</v>
+      </c>
+      <c r="H228" s="6">
+        <v>2</v>
+      </c>
+      <c r="I228" s="24">
+        <v>3</v>
+      </c>
+      <c r="J228" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L228" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="6">
+        <v>220019</v>
+      </c>
+      <c r="D229" s="6">
+        <v>220020</v>
+      </c>
+      <c r="E229" s="22">
+        <v>15209002</v>
+      </c>
+      <c r="F229" s="6">
+        <v>0</v>
+      </c>
+      <c r="G229" s="6">
+        <v>2</v>
+      </c>
+      <c r="H229" s="6">
+        <v>2</v>
+      </c>
+      <c r="I229" s="24">
+        <v>3</v>
+      </c>
+      <c r="J229" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L229" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="6">
+        <v>220020</v>
+      </c>
+      <c r="D230" s="6">
+        <v>220021</v>
+      </c>
+      <c r="E230" s="22">
+        <v>15210002</v>
+      </c>
+      <c r="F230" s="6">
+        <v>0</v>
+      </c>
+      <c r="G230" s="6">
+        <v>2</v>
+      </c>
+      <c r="H230" s="6">
+        <v>2</v>
+      </c>
+      <c r="I230" s="24">
+        <v>3</v>
+      </c>
+      <c r="J230" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L230" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="6">
+        <v>220021</v>
+      </c>
+      <c r="D231" s="6">
+        <v>220022</v>
+      </c>
+      <c r="E231" s="22">
+        <v>15210004</v>
+      </c>
+      <c r="F231" s="6">
+        <v>0</v>
+      </c>
+      <c r="G231" s="6">
+        <v>2</v>
+      </c>
+      <c r="H231" s="6">
+        <v>2</v>
+      </c>
+      <c r="I231" s="24">
+        <v>3</v>
+      </c>
+      <c r="J231" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L231" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="6">
+        <v>220022</v>
+      </c>
+      <c r="D232" s="6">
+        <v>220023</v>
+      </c>
+      <c r="E232" s="22">
+        <v>15210102</v>
+      </c>
+      <c r="F232" s="6">
+        <v>0</v>
+      </c>
+      <c r="G232" s="6">
+        <v>2</v>
+      </c>
+      <c r="H232" s="6">
+        <v>2</v>
+      </c>
+      <c r="I232" s="24">
+        <v>3</v>
+      </c>
+      <c r="J232" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L232" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="233" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="6">
+        <v>220023</v>
+      </c>
+      <c r="D233" s="6">
+        <v>220024</v>
+      </c>
+      <c r="E233" s="22">
+        <v>15210104</v>
+      </c>
+      <c r="F233" s="6">
+        <v>0</v>
+      </c>
+      <c r="G233" s="6">
+        <v>2</v>
+      </c>
+      <c r="H233" s="6">
+        <v>2</v>
+      </c>
+      <c r="I233" s="24">
+        <v>3</v>
+      </c>
+      <c r="J233" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L233" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C234" s="6">
+        <v>220024</v>
+      </c>
+      <c r="D234" s="6">
+        <v>220025</v>
+      </c>
+      <c r="E234" s="22">
+        <v>15211002</v>
+      </c>
+      <c r="F234" s="6">
+        <v>0</v>
+      </c>
+      <c r="G234" s="6">
+        <v>2</v>
+      </c>
+      <c r="H234" s="6">
+        <v>2</v>
+      </c>
+      <c r="I234" s="24">
+        <v>3</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L234" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C235" s="6">
+        <v>220025</v>
+      </c>
+      <c r="D235" s="6">
+        <v>220026</v>
+      </c>
+      <c r="E235" s="22">
+        <v>15211004</v>
+      </c>
+      <c r="F235" s="6">
+        <v>0</v>
+      </c>
+      <c r="G235" s="6">
+        <v>2</v>
+      </c>
+      <c r="H235" s="6">
+        <v>2</v>
+      </c>
+      <c r="I235" s="24">
+        <v>3</v>
+      </c>
+      <c r="J235" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L235" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="236" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C236" s="6">
+        <v>220026</v>
+      </c>
+      <c r="D236" s="6">
+        <v>220027</v>
+      </c>
+      <c r="E236" s="22">
+        <v>15211006</v>
+      </c>
+      <c r="F236" s="6">
+        <v>0</v>
+      </c>
+      <c r="G236" s="6">
+        <v>2</v>
+      </c>
+      <c r="H236" s="6">
+        <v>2</v>
+      </c>
+      <c r="I236" s="24">
+        <v>3</v>
+      </c>
+      <c r="J236" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L236" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C237" s="6">
+        <v>220027</v>
+      </c>
+      <c r="D237" s="6">
+        <v>220028</v>
+      </c>
+      <c r="E237" s="23">
+        <v>10022010</v>
+      </c>
+      <c r="F237" s="6">
+        <v>0</v>
+      </c>
+      <c r="G237" s="6">
+        <v>2</v>
+      </c>
+      <c r="H237" s="6">
+        <v>2</v>
+      </c>
+      <c r="I237" s="22">
+        <v>300</v>
+      </c>
+      <c r="J237" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L237" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C238" s="6">
+        <v>220028</v>
+      </c>
+      <c r="D238" s="6">
+        <v>220029</v>
+      </c>
+      <c r="E238" s="23">
+        <v>10021010</v>
+      </c>
+      <c r="F238" s="6">
+        <v>0</v>
+      </c>
+      <c r="G238" s="6">
+        <v>2</v>
+      </c>
+      <c r="H238" s="6">
+        <v>2</v>
+      </c>
+      <c r="I238" s="22">
+        <v>500</v>
+      </c>
+      <c r="J238" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L238" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C239" s="6">
+        <v>220029</v>
+      </c>
+      <c r="D239" s="6">
+        <v>220030</v>
+      </c>
+      <c r="E239" s="23">
+        <v>10021010</v>
+      </c>
+      <c r="F239" s="6">
+        <v>0</v>
+      </c>
+      <c r="G239" s="6">
+        <v>2</v>
+      </c>
+      <c r="H239" s="6">
+        <v>2</v>
+      </c>
+      <c r="I239" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J239" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L239" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="240" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C240" s="6">
+        <v>220030</v>
+      </c>
+      <c r="D240" s="6">
+        <v>220031</v>
+      </c>
+      <c r="E240" s="23">
+        <v>10022008</v>
+      </c>
+      <c r="F240" s="6">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6">
+        <v>2</v>
+      </c>
+      <c r="H240" s="6">
+        <v>2</v>
+      </c>
+      <c r="I240" s="22">
+        <v>5</v>
+      </c>
+      <c r="J240" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L240" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="241" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C241" s="6">
+        <v>220031</v>
+      </c>
+      <c r="D241" s="6">
+        <v>220032</v>
+      </c>
+      <c r="E241" s="23">
+        <v>10022008</v>
+      </c>
+      <c r="F241" s="6">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6">
+        <v>2</v>
+      </c>
+      <c r="H241" s="6">
+        <v>2</v>
+      </c>
+      <c r="I241" s="22">
+        <v>10</v>
+      </c>
+      <c r="J241" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L241" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C242" s="6">
+        <v>220032</v>
+      </c>
+      <c r="D242" s="6">
+        <v>220033</v>
+      </c>
+      <c r="E242" s="23">
+        <v>10022008</v>
+      </c>
+      <c r="F242" s="6">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6">
+        <v>2</v>
+      </c>
+      <c r="H242" s="6">
+        <v>2</v>
+      </c>
+      <c r="I242" s="22">
+        <v>20</v>
+      </c>
+      <c r="J242" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L242" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="243" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C243" s="6">
+        <v>220033</v>
+      </c>
+      <c r="D243" s="6">
+        <v>220034</v>
+      </c>
+      <c r="E243" s="23">
+        <v>10022009</v>
+      </c>
+      <c r="F243" s="6">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6">
+        <v>2</v>
+      </c>
+      <c r="H243" s="6">
+        <v>2</v>
+      </c>
+      <c r="I243" s="22">
+        <v>3</v>
+      </c>
+      <c r="J243" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L243" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="244" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C244" s="6">
+        <v>220034</v>
+      </c>
+      <c r="D244" s="6">
+        <v>220035</v>
+      </c>
+      <c r="E244" s="23">
+        <v>10022009</v>
+      </c>
+      <c r="F244" s="6">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6">
+        <v>2</v>
+      </c>
+      <c r="H244" s="6">
+        <v>2</v>
+      </c>
+      <c r="I244" s="22">
+        <v>5</v>
+      </c>
+      <c r="J244" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L244" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="245" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C245" s="6">
+        <v>220035</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0</v>
+      </c>
+      <c r="E245" s="23">
+        <v>10022009</v>
+      </c>
+      <c r="F245" s="6">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6">
+        <v>2</v>
+      </c>
+      <c r="H245" s="6">
+        <v>2</v>
+      </c>
+      <c r="I245" s="22">
+        <v>10</v>
+      </c>
+      <c r="J245" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L245" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C246" s="6">
         <v>230001</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D246" s="6">
         <v>230002</v>
       </c>
-      <c r="E196" s="6">
-        <v>14010004</v>
-      </c>
-      <c r="F196" s="6">
-        <v>0</v>
-      </c>
-      <c r="G196" s="6">
-        <v>3</v>
-      </c>
-      <c r="H196" s="6">
-        <v>2</v>
-      </c>
-      <c r="I196" s="6">
-        <v>3</v>
-      </c>
-      <c r="J196" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="197" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="6">
+      <c r="E246" s="22">
+        <v>15301002</v>
+      </c>
+      <c r="F246" s="6">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6">
+        <v>3</v>
+      </c>
+      <c r="H246" s="6">
+        <v>2</v>
+      </c>
+      <c r="I246" s="24">
+        <v>3</v>
+      </c>
+      <c r="J246" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="L246" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="247" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C247" s="6">
         <v>230002</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D247" s="6">
         <v>230003</v>
       </c>
-      <c r="E197" s="6">
-        <v>14010008</v>
-      </c>
-      <c r="F197" s="6">
-        <v>0</v>
-      </c>
-      <c r="G197" s="6">
-        <v>3</v>
-      </c>
-      <c r="H197" s="6">
-        <v>2</v>
-      </c>
-      <c r="I197" s="6">
-        <v>3</v>
-      </c>
-      <c r="J197" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="198" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="6">
+      <c r="E247" s="22">
+        <v>15301004</v>
+      </c>
+      <c r="F247" s="6">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6">
+        <v>3</v>
+      </c>
+      <c r="H247" s="6">
+        <v>2</v>
+      </c>
+      <c r="I247" s="24">
+        <v>3</v>
+      </c>
+      <c r="J247" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L247" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C248" s="6">
         <v>230003</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D248" s="6">
         <v>230004</v>
       </c>
-      <c r="E198" s="6">
-        <v>14010012</v>
-      </c>
-      <c r="F198" s="6">
-        <v>0</v>
-      </c>
-      <c r="G198" s="6">
-        <v>3</v>
-      </c>
-      <c r="H198" s="6">
-        <v>2</v>
-      </c>
-      <c r="I198" s="6">
-        <v>3</v>
-      </c>
-      <c r="J198" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="199" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="6">
+      <c r="E248" s="22">
+        <v>15301006</v>
+      </c>
+      <c r="F248" s="6">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6">
+        <v>3</v>
+      </c>
+      <c r="H248" s="6">
+        <v>2</v>
+      </c>
+      <c r="I248" s="24">
+        <v>3</v>
+      </c>
+      <c r="J248" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L248" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C249" s="6">
         <v>230004</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D249" s="6">
         <v>230005</v>
       </c>
-      <c r="E199" s="6">
-        <v>14020004</v>
-      </c>
-      <c r="F199" s="6">
-        <v>0</v>
-      </c>
-      <c r="G199" s="6">
-        <v>3</v>
-      </c>
-      <c r="H199" s="6">
-        <v>2</v>
-      </c>
-      <c r="I199" s="6">
-        <v>3</v>
-      </c>
-      <c r="J199" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="200" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="6">
+      <c r="E249" s="22">
+        <v>15302002</v>
+      </c>
+      <c r="F249" s="6">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6">
+        <v>3</v>
+      </c>
+      <c r="H249" s="6">
+        <v>2</v>
+      </c>
+      <c r="I249" s="24">
+        <v>3</v>
+      </c>
+      <c r="J249" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="L249" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C250" s="6">
         <v>230005</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D250" s="6">
         <v>230006</v>
       </c>
-      <c r="E200" s="6">
-        <v>14020008</v>
-      </c>
-      <c r="F200" s="6">
-        <v>0</v>
-      </c>
-      <c r="G200" s="6">
-        <v>3</v>
-      </c>
-      <c r="H200" s="6">
-        <v>2</v>
-      </c>
-      <c r="I200" s="6">
-        <v>3</v>
-      </c>
-      <c r="J200" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="201" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="6">
+      <c r="E250" s="22">
+        <v>15302004</v>
+      </c>
+      <c r="F250" s="6">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6">
+        <v>3</v>
+      </c>
+      <c r="H250" s="6">
+        <v>2</v>
+      </c>
+      <c r="I250" s="24">
+        <v>3</v>
+      </c>
+      <c r="J250" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L250" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C251" s="6">
         <v>230006</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D251" s="6">
         <v>230007</v>
       </c>
-      <c r="E201" s="6">
-        <v>14020012</v>
-      </c>
-      <c r="F201" s="6">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6">
-        <v>3</v>
-      </c>
-      <c r="H201" s="6">
-        <v>2</v>
-      </c>
-      <c r="I201" s="6">
-        <v>3</v>
-      </c>
-      <c r="J201" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="202" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="6">
+      <c r="E251" s="22">
+        <v>15302006</v>
+      </c>
+      <c r="F251" s="6">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6">
+        <v>3</v>
+      </c>
+      <c r="H251" s="6">
+        <v>2</v>
+      </c>
+      <c r="I251" s="24">
+        <v>3</v>
+      </c>
+      <c r="J251" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L251" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C252" s="6">
         <v>230007</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D252" s="6">
         <v>230008</v>
       </c>
-      <c r="E202" s="6">
-        <v>14030004</v>
-      </c>
-      <c r="F202" s="6">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6">
-        <v>3</v>
-      </c>
-      <c r="H202" s="6">
-        <v>2</v>
-      </c>
-      <c r="I202" s="6">
-        <v>3</v>
-      </c>
-      <c r="J202" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="203" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="6">
+      <c r="E252" s="22">
+        <v>15303002</v>
+      </c>
+      <c r="F252" s="6">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6">
+        <v>3</v>
+      </c>
+      <c r="H252" s="6">
+        <v>2</v>
+      </c>
+      <c r="I252" s="24">
+        <v>3</v>
+      </c>
+      <c r="J252" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="L252" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C253" s="6">
         <v>230008</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D253" s="6">
         <v>230009</v>
       </c>
-      <c r="E203" s="6">
-        <v>14030008</v>
-      </c>
-      <c r="F203" s="6">
-        <v>0</v>
-      </c>
-      <c r="G203" s="6">
-        <v>3</v>
-      </c>
-      <c r="H203" s="6">
-        <v>2</v>
-      </c>
-      <c r="I203" s="6">
-        <v>3</v>
-      </c>
-      <c r="J203" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="204" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="6">
+      <c r="E253" s="22">
+        <v>15303004</v>
+      </c>
+      <c r="F253" s="6">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6">
+        <v>3</v>
+      </c>
+      <c r="H253" s="6">
+        <v>2</v>
+      </c>
+      <c r="I253" s="24">
+        <v>3</v>
+      </c>
+      <c r="J253" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L253" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C254" s="6">
         <v>230009</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D254" s="6">
         <v>230010</v>
       </c>
-      <c r="E204" s="6">
-        <v>14030012</v>
-      </c>
-      <c r="F204" s="6">
-        <v>0</v>
-      </c>
-      <c r="G204" s="6">
-        <v>3</v>
-      </c>
-      <c r="H204" s="6">
-        <v>2</v>
-      </c>
-      <c r="I204" s="6">
-        <v>3</v>
-      </c>
-      <c r="J204" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="205" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="6">
+      <c r="E254" s="22">
+        <v>15303006</v>
+      </c>
+      <c r="F254" s="6">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6">
+        <v>3</v>
+      </c>
+      <c r="H254" s="6">
+        <v>2</v>
+      </c>
+      <c r="I254" s="24">
+        <v>3</v>
+      </c>
+      <c r="J254" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L254" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="255" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C255" s="6">
         <v>230010</v>
       </c>
-      <c r="D205" s="6">
-        <v>0</v>
-      </c>
-      <c r="E205" s="6">
-        <v>14040004</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0</v>
-      </c>
-      <c r="G205" s="6">
-        <v>3</v>
-      </c>
-      <c r="H205" s="6">
-        <v>2</v>
-      </c>
-      <c r="I205" s="6">
-        <v>3</v>
-      </c>
-      <c r="J205" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="206" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="6">
+      <c r="D255" s="6">
+        <v>230011</v>
+      </c>
+      <c r="E255" s="22">
+        <v>15304002</v>
+      </c>
+      <c r="F255" s="6">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6">
+        <v>3</v>
+      </c>
+      <c r="H255" s="6">
+        <v>2</v>
+      </c>
+      <c r="I255" s="24">
+        <v>3</v>
+      </c>
+      <c r="J255" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L255" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C256" s="6">
+        <v>230011</v>
+      </c>
+      <c r="D256" s="6">
+        <v>230012</v>
+      </c>
+      <c r="E256" s="22">
+        <v>15304004</v>
+      </c>
+      <c r="F256" s="6">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6">
+        <v>3</v>
+      </c>
+      <c r="H256" s="6">
+        <v>2</v>
+      </c>
+      <c r="I256" s="24">
+        <v>3</v>
+      </c>
+      <c r="J256" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L256" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="6">
+        <v>230012</v>
+      </c>
+      <c r="D257" s="6">
+        <v>230013</v>
+      </c>
+      <c r="E257" s="22">
+        <v>15304006</v>
+      </c>
+      <c r="F257" s="6">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6">
+        <v>3</v>
+      </c>
+      <c r="H257" s="6">
+        <v>2</v>
+      </c>
+      <c r="I257" s="24">
+        <v>3</v>
+      </c>
+      <c r="J257" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L257" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C258" s="6">
+        <v>230013</v>
+      </c>
+      <c r="D258" s="6">
+        <v>230014</v>
+      </c>
+      <c r="E258" s="22">
+        <v>15305002</v>
+      </c>
+      <c r="F258" s="6">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6">
+        <v>3</v>
+      </c>
+      <c r="H258" s="6">
+        <v>2</v>
+      </c>
+      <c r="I258" s="24">
+        <v>3</v>
+      </c>
+      <c r="J258" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L258" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="6">
+        <v>230014</v>
+      </c>
+      <c r="D259" s="6">
+        <v>230015</v>
+      </c>
+      <c r="E259" s="22">
+        <v>15305004</v>
+      </c>
+      <c r="F259" s="6">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6">
+        <v>3</v>
+      </c>
+      <c r="H259" s="6">
+        <v>2</v>
+      </c>
+      <c r="I259" s="24">
+        <v>3</v>
+      </c>
+      <c r="J259" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="L259" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="260" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C260" s="6">
+        <v>230015</v>
+      </c>
+      <c r="D260" s="6">
+        <v>230016</v>
+      </c>
+      <c r="E260" s="22">
+        <v>15305006</v>
+      </c>
+      <c r="F260" s="6">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6">
+        <v>3</v>
+      </c>
+      <c r="H260" s="6">
+        <v>2</v>
+      </c>
+      <c r="I260" s="24">
+        <v>3</v>
+      </c>
+      <c r="J260" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L260" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C261" s="6">
+        <v>230016</v>
+      </c>
+      <c r="D261" s="6">
+        <v>230017</v>
+      </c>
+      <c r="E261" s="22">
+        <v>15306002</v>
+      </c>
+      <c r="F261" s="6">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6">
+        <v>3</v>
+      </c>
+      <c r="H261" s="6">
+        <v>2</v>
+      </c>
+      <c r="I261" s="24">
+        <v>3</v>
+      </c>
+      <c r="J261" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L261" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="262" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C262" s="6">
+        <v>230017</v>
+      </c>
+      <c r="D262" s="6">
+        <v>230018</v>
+      </c>
+      <c r="E262" s="22">
+        <v>15307002</v>
+      </c>
+      <c r="F262" s="6">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6">
+        <v>3</v>
+      </c>
+      <c r="H262" s="6">
+        <v>2</v>
+      </c>
+      <c r="I262" s="24">
+        <v>3</v>
+      </c>
+      <c r="J262" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="L262" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C263" s="6">
+        <v>230018</v>
+      </c>
+      <c r="D263" s="6">
+        <v>230019</v>
+      </c>
+      <c r="E263" s="22">
+        <v>15308002</v>
+      </c>
+      <c r="F263" s="6">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6">
+        <v>3</v>
+      </c>
+      <c r="H263" s="6">
+        <v>2</v>
+      </c>
+      <c r="I263" s="24">
+        <v>3</v>
+      </c>
+      <c r="J263" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L263" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C264" s="6">
+        <v>230019</v>
+      </c>
+      <c r="D264" s="6">
+        <v>230020</v>
+      </c>
+      <c r="E264" s="22">
+        <v>15309002</v>
+      </c>
+      <c r="F264" s="6">
+        <v>0</v>
+      </c>
+      <c r="G264" s="6">
+        <v>3</v>
+      </c>
+      <c r="H264" s="6">
+        <v>2</v>
+      </c>
+      <c r="I264" s="24">
+        <v>3</v>
+      </c>
+      <c r="J264" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L264" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C265" s="6">
+        <v>230020</v>
+      </c>
+      <c r="D265" s="6">
+        <v>230021</v>
+      </c>
+      <c r="E265" s="22">
+        <v>15310002</v>
+      </c>
+      <c r="F265" s="6">
+        <v>0</v>
+      </c>
+      <c r="G265" s="6">
+        <v>3</v>
+      </c>
+      <c r="H265" s="6">
+        <v>2</v>
+      </c>
+      <c r="I265" s="24">
+        <v>3</v>
+      </c>
+      <c r="J265" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L265" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C266" s="6">
+        <v>230021</v>
+      </c>
+      <c r="D266" s="6">
+        <v>230022</v>
+      </c>
+      <c r="E266" s="22">
+        <v>15310004</v>
+      </c>
+      <c r="F266" s="6">
+        <v>0</v>
+      </c>
+      <c r="G266" s="6">
+        <v>3</v>
+      </c>
+      <c r="H266" s="6">
+        <v>2</v>
+      </c>
+      <c r="I266" s="24">
+        <v>3</v>
+      </c>
+      <c r="J266" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L266" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="267" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C267" s="6">
+        <v>230022</v>
+      </c>
+      <c r="D267" s="6">
+        <v>230023</v>
+      </c>
+      <c r="E267" s="22">
+        <v>15310102</v>
+      </c>
+      <c r="F267" s="6">
+        <v>0</v>
+      </c>
+      <c r="G267" s="6">
+        <v>3</v>
+      </c>
+      <c r="H267" s="6">
+        <v>2</v>
+      </c>
+      <c r="I267" s="24">
+        <v>3</v>
+      </c>
+      <c r="J267" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L267" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C268" s="6">
+        <v>230023</v>
+      </c>
+      <c r="D268" s="6">
+        <v>230024</v>
+      </c>
+      <c r="E268" s="22">
+        <v>15310104</v>
+      </c>
+      <c r="F268" s="6">
+        <v>0</v>
+      </c>
+      <c r="G268" s="6">
+        <v>3</v>
+      </c>
+      <c r="H268" s="6">
+        <v>2</v>
+      </c>
+      <c r="I268" s="24">
+        <v>3</v>
+      </c>
+      <c r="J268" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L268" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C269" s="6">
+        <v>230024</v>
+      </c>
+      <c r="D269" s="6">
+        <v>230025</v>
+      </c>
+      <c r="E269" s="22">
+        <v>15311002</v>
+      </c>
+      <c r="F269" s="6">
+        <v>0</v>
+      </c>
+      <c r="G269" s="6">
+        <v>3</v>
+      </c>
+      <c r="H269" s="6">
+        <v>2</v>
+      </c>
+      <c r="I269" s="24">
+        <v>3</v>
+      </c>
+      <c r="J269" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L269" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="6">
+        <v>230025</v>
+      </c>
+      <c r="D270" s="6">
+        <v>230026</v>
+      </c>
+      <c r="E270" s="22">
+        <v>15311004</v>
+      </c>
+      <c r="F270" s="6">
+        <v>0</v>
+      </c>
+      <c r="G270" s="6">
+        <v>3</v>
+      </c>
+      <c r="H270" s="6">
+        <v>2</v>
+      </c>
+      <c r="I270" s="24">
+        <v>3</v>
+      </c>
+      <c r="J270" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L270" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C271" s="6">
+        <v>230026</v>
+      </c>
+      <c r="D271" s="6">
+        <v>230027</v>
+      </c>
+      <c r="E271" s="22">
+        <v>15311006</v>
+      </c>
+      <c r="F271" s="6">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6">
+        <v>3</v>
+      </c>
+      <c r="H271" s="6">
+        <v>2</v>
+      </c>
+      <c r="I271" s="24">
+        <v>3</v>
+      </c>
+      <c r="J271" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L271" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C272" s="6">
+        <v>230027</v>
+      </c>
+      <c r="D272" s="6">
+        <v>230028</v>
+      </c>
+      <c r="E272" s="23">
+        <v>10023010</v>
+      </c>
+      <c r="F272" s="6">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6">
+        <v>3</v>
+      </c>
+      <c r="H272" s="6">
+        <v>2</v>
+      </c>
+      <c r="I272" s="22">
+        <v>300</v>
+      </c>
+      <c r="J272" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L272" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C273" s="6">
+        <v>230028</v>
+      </c>
+      <c r="D273" s="6">
+        <v>230029</v>
+      </c>
+      <c r="E273" s="23">
+        <v>10023010</v>
+      </c>
+      <c r="F273" s="6">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6">
+        <v>3</v>
+      </c>
+      <c r="H273" s="6">
+        <v>2</v>
+      </c>
+      <c r="I273" s="22">
+        <v>500</v>
+      </c>
+      <c r="J273" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L273" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="274" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C274" s="6">
+        <v>230029</v>
+      </c>
+      <c r="D274" s="6">
+        <v>230030</v>
+      </c>
+      <c r="E274" s="23">
+        <v>10023010</v>
+      </c>
+      <c r="F274" s="6">
+        <v>0</v>
+      </c>
+      <c r="G274" s="6">
+        <v>3</v>
+      </c>
+      <c r="H274" s="6">
+        <v>2</v>
+      </c>
+      <c r="I274" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J274" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L274" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C275" s="6">
+        <v>230030</v>
+      </c>
+      <c r="D275" s="6">
+        <v>230031</v>
+      </c>
+      <c r="E275" s="23">
+        <v>10023008</v>
+      </c>
+      <c r="F275" s="6">
+        <v>0</v>
+      </c>
+      <c r="G275" s="6">
+        <v>3</v>
+      </c>
+      <c r="H275" s="6">
+        <v>2</v>
+      </c>
+      <c r="I275" s="22">
+        <v>5</v>
+      </c>
+      <c r="J275" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L275" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C276" s="6">
+        <v>230031</v>
+      </c>
+      <c r="D276" s="6">
+        <v>230032</v>
+      </c>
+      <c r="E276" s="23">
+        <v>10023008</v>
+      </c>
+      <c r="F276" s="6">
+        <v>0</v>
+      </c>
+      <c r="G276" s="6">
+        <v>3</v>
+      </c>
+      <c r="H276" s="6">
+        <v>2</v>
+      </c>
+      <c r="I276" s="22">
+        <v>10</v>
+      </c>
+      <c r="J276" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="L276" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C277" s="6">
+        <v>230032</v>
+      </c>
+      <c r="D277" s="6">
+        <v>230033</v>
+      </c>
+      <c r="E277" s="23">
+        <v>10023008</v>
+      </c>
+      <c r="F277" s="6">
+        <v>0</v>
+      </c>
+      <c r="G277" s="6">
+        <v>3</v>
+      </c>
+      <c r="H277" s="6">
+        <v>2</v>
+      </c>
+      <c r="I277" s="22">
+        <v>20</v>
+      </c>
+      <c r="J277" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L277" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C278" s="6">
+        <v>230033</v>
+      </c>
+      <c r="D278" s="6">
+        <v>230034</v>
+      </c>
+      <c r="E278" s="23">
+        <v>10023009</v>
+      </c>
+      <c r="F278" s="6">
+        <v>0</v>
+      </c>
+      <c r="G278" s="6">
+        <v>3</v>
+      </c>
+      <c r="H278" s="6">
+        <v>2</v>
+      </c>
+      <c r="I278" s="22">
+        <v>3</v>
+      </c>
+      <c r="J278" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L278" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="279" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C279" s="6">
+        <v>230034</v>
+      </c>
+      <c r="D279" s="6">
+        <v>230035</v>
+      </c>
+      <c r="E279" s="23">
+        <v>10023009</v>
+      </c>
+      <c r="F279" s="6">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6">
+        <v>3</v>
+      </c>
+      <c r="H279" s="6">
+        <v>2</v>
+      </c>
+      <c r="I279" s="22">
+        <v>5</v>
+      </c>
+      <c r="J279" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L279" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="280" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C280" s="6">
+        <v>230035</v>
+      </c>
+      <c r="D280" s="6">
+        <v>0</v>
+      </c>
+      <c r="E280" s="23">
+        <v>10023009</v>
+      </c>
+      <c r="F280" s="6">
+        <v>0</v>
+      </c>
+      <c r="G280" s="6">
+        <v>3</v>
+      </c>
+      <c r="H280" s="6">
+        <v>2</v>
+      </c>
+      <c r="I280" s="22">
+        <v>10</v>
+      </c>
+      <c r="J280" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L280" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="281" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C281" s="6">
         <v>240001</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D281" s="6">
         <v>240002</v>
       </c>
-      <c r="E206" s="6">
-        <v>14010004</v>
-      </c>
-      <c r="F206" s="6">
-        <v>0</v>
-      </c>
-      <c r="G206" s="6">
+      <c r="E281" s="22">
+        <v>15401002</v>
+      </c>
+      <c r="F281" s="6">
+        <v>0</v>
+      </c>
+      <c r="G281" s="6">
         <v>4</v>
       </c>
-      <c r="H206" s="6">
-        <v>2</v>
-      </c>
-      <c r="I206" s="6">
-        <v>3</v>
-      </c>
-      <c r="J206" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="207" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="6">
+      <c r="H281" s="6">
+        <v>2</v>
+      </c>
+      <c r="I281" s="24">
+        <v>3</v>
+      </c>
+      <c r="J281" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="L281" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C282" s="6">
         <v>240002</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D282" s="6">
         <v>240003</v>
       </c>
-      <c r="E207" s="6">
-        <v>14010008</v>
-      </c>
-      <c r="F207" s="6">
-        <v>0</v>
-      </c>
-      <c r="G207" s="6">
+      <c r="E282" s="22">
+        <v>15401004</v>
+      </c>
+      <c r="F282" s="6">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6">
         <v>4</v>
       </c>
-      <c r="H207" s="6">
-        <v>2</v>
-      </c>
-      <c r="I207" s="6">
-        <v>3</v>
-      </c>
-      <c r="J207" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="208" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="6">
+      <c r="H282" s="6">
+        <v>2</v>
+      </c>
+      <c r="I282" s="24">
+        <v>3</v>
+      </c>
+      <c r="J282" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L282" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C283" s="6">
         <v>240003</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D283" s="6">
         <v>240004</v>
       </c>
-      <c r="E208" s="6">
-        <v>14010012</v>
-      </c>
-      <c r="F208" s="6">
-        <v>0</v>
-      </c>
-      <c r="G208" s="6">
+      <c r="E283" s="22">
+        <v>15401006</v>
+      </c>
+      <c r="F283" s="6">
+        <v>0</v>
+      </c>
+      <c r="G283" s="6">
         <v>4</v>
       </c>
-      <c r="H208" s="6">
-        <v>2</v>
-      </c>
-      <c r="I208" s="6">
-        <v>3</v>
-      </c>
-      <c r="J208" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="209" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="6">
+      <c r="H283" s="6">
+        <v>2</v>
+      </c>
+      <c r="I283" s="24">
+        <v>3</v>
+      </c>
+      <c r="J283" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L283" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="284" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C284" s="6">
         <v>240004</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D284" s="6">
         <v>240005</v>
       </c>
-      <c r="E209" s="6">
-        <v>14020004</v>
-      </c>
-      <c r="F209" s="6">
-        <v>0</v>
-      </c>
-      <c r="G209" s="6">
+      <c r="E284" s="22">
+        <v>15402002</v>
+      </c>
+      <c r="F284" s="6">
+        <v>0</v>
+      </c>
+      <c r="G284" s="6">
         <v>4</v>
       </c>
-      <c r="H209" s="6">
-        <v>2</v>
-      </c>
-      <c r="I209" s="6">
-        <v>3</v>
-      </c>
-      <c r="J209" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="210" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="6">
+      <c r="H284" s="6">
+        <v>2</v>
+      </c>
+      <c r="I284" s="24">
+        <v>3</v>
+      </c>
+      <c r="J284" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="L284" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="285" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C285" s="6">
         <v>240005</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D285" s="6">
         <v>240006</v>
       </c>
-      <c r="E210" s="6">
-        <v>14020008</v>
-      </c>
-      <c r="F210" s="6">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6">
+      <c r="E285" s="22">
+        <v>15402004</v>
+      </c>
+      <c r="F285" s="6">
+        <v>0</v>
+      </c>
+      <c r="G285" s="6">
         <v>4</v>
       </c>
-      <c r="H210" s="6">
-        <v>2</v>
-      </c>
-      <c r="I210" s="6">
-        <v>3</v>
-      </c>
-      <c r="J210" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="211" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="6">
+      <c r="H285" s="6">
+        <v>2</v>
+      </c>
+      <c r="I285" s="24">
+        <v>3</v>
+      </c>
+      <c r="J285" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="L285" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C286" s="6">
         <v>240006</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D286" s="6">
         <v>240007</v>
       </c>
-      <c r="E211" s="6">
-        <v>14020012</v>
-      </c>
-      <c r="F211" s="6">
-        <v>0</v>
-      </c>
-      <c r="G211" s="6">
+      <c r="E286" s="22">
+        <v>15402006</v>
+      </c>
+      <c r="F286" s="6">
+        <v>0</v>
+      </c>
+      <c r="G286" s="6">
         <v>4</v>
       </c>
-      <c r="H211" s="6">
-        <v>2</v>
-      </c>
-      <c r="I211" s="6">
-        <v>3</v>
-      </c>
-      <c r="J211" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="212" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="6">
+      <c r="H286" s="6">
+        <v>2</v>
+      </c>
+      <c r="I286" s="24">
+        <v>3</v>
+      </c>
+      <c r="J286" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L286" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="287" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C287" s="6">
         <v>240007</v>
       </c>
-      <c r="D212" s="6">
+      <c r="D287" s="6">
         <v>240008</v>
       </c>
-      <c r="E212" s="6">
-        <v>14030004</v>
-      </c>
-      <c r="F212" s="6">
-        <v>0</v>
-      </c>
-      <c r="G212" s="6">
+      <c r="E287" s="22">
+        <v>15403002</v>
+      </c>
+      <c r="F287" s="6">
+        <v>0</v>
+      </c>
+      <c r="G287" s="6">
         <v>4</v>
       </c>
-      <c r="H212" s="6">
-        <v>2</v>
-      </c>
-      <c r="I212" s="6">
-        <v>3</v>
-      </c>
-      <c r="J212" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="213" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="6">
+      <c r="H287" s="6">
+        <v>2</v>
+      </c>
+      <c r="I287" s="24">
+        <v>3</v>
+      </c>
+      <c r="J287" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="L287" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="288" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C288" s="6">
         <v>240008</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D288" s="6">
         <v>240009</v>
       </c>
-      <c r="E213" s="6">
-        <v>14030008</v>
-      </c>
-      <c r="F213" s="6">
-        <v>0</v>
-      </c>
-      <c r="G213" s="6">
+      <c r="E288" s="22">
+        <v>15403004</v>
+      </c>
+      <c r="F288" s="6">
+        <v>0</v>
+      </c>
+      <c r="G288" s="6">
         <v>4</v>
       </c>
-      <c r="H213" s="6">
-        <v>2</v>
-      </c>
-      <c r="I213" s="6">
-        <v>3</v>
-      </c>
-      <c r="J213" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="214" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="6">
+      <c r="H288" s="6">
+        <v>2</v>
+      </c>
+      <c r="I288" s="24">
+        <v>3</v>
+      </c>
+      <c r="J288" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L288" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="289" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="6">
         <v>240009</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D289" s="6">
         <v>240010</v>
       </c>
-      <c r="E214" s="6">
-        <v>14030012</v>
-      </c>
-      <c r="F214" s="6">
-        <v>0</v>
-      </c>
-      <c r="G214" s="6">
+      <c r="E289" s="22">
+        <v>15403006</v>
+      </c>
+      <c r="F289" s="6">
+        <v>0</v>
+      </c>
+      <c r="G289" s="6">
         <v>4</v>
       </c>
-      <c r="H214" s="6">
-        <v>2</v>
-      </c>
-      <c r="I214" s="6">
-        <v>3</v>
-      </c>
-      <c r="J214" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="215" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="6">
+      <c r="H289" s="6">
+        <v>2</v>
+      </c>
+      <c r="I289" s="24">
+        <v>3</v>
+      </c>
+      <c r="J289" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L289" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="290" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C290" s="6">
         <v>240010</v>
       </c>
-      <c r="D215" s="6">
-        <v>0</v>
-      </c>
-      <c r="E215" s="6">
-        <v>14040004</v>
-      </c>
-      <c r="F215" s="6">
-        <v>0</v>
-      </c>
-      <c r="G215" s="6">
+      <c r="D290" s="6">
+        <v>240011</v>
+      </c>
+      <c r="E290" s="22">
+        <v>15404002</v>
+      </c>
+      <c r="F290" s="6">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6">
         <v>4</v>
       </c>
-      <c r="H215" s="6">
-        <v>2</v>
-      </c>
-      <c r="I215" s="6">
-        <v>3</v>
-      </c>
-      <c r="J215" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="216" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="6">
+      <c r="H290" s="6">
+        <v>2</v>
+      </c>
+      <c r="I290" s="24">
+        <v>3</v>
+      </c>
+      <c r="J290" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="L290" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="291" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C291" s="6">
+        <v>240011</v>
+      </c>
+      <c r="D291" s="6">
+        <v>240012</v>
+      </c>
+      <c r="E291" s="22">
+        <v>15404004</v>
+      </c>
+      <c r="F291" s="6">
+        <v>0</v>
+      </c>
+      <c r="G291" s="6">
+        <v>4</v>
+      </c>
+      <c r="H291" s="6">
+        <v>2</v>
+      </c>
+      <c r="I291" s="24">
+        <v>3</v>
+      </c>
+      <c r="J291" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L291" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="292" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="6">
+        <v>240012</v>
+      </c>
+      <c r="D292" s="6">
+        <v>240013</v>
+      </c>
+      <c r="E292" s="22">
+        <v>15404006</v>
+      </c>
+      <c r="F292" s="6">
+        <v>0</v>
+      </c>
+      <c r="G292" s="6">
+        <v>4</v>
+      </c>
+      <c r="H292" s="6">
+        <v>2</v>
+      </c>
+      <c r="I292" s="24">
+        <v>3</v>
+      </c>
+      <c r="J292" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L292" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C293" s="6">
+        <v>240013</v>
+      </c>
+      <c r="D293" s="6">
+        <v>240014</v>
+      </c>
+      <c r="E293" s="22">
+        <v>15405002</v>
+      </c>
+      <c r="F293" s="6">
+        <v>0</v>
+      </c>
+      <c r="G293" s="6">
+        <v>4</v>
+      </c>
+      <c r="H293" s="6">
+        <v>2</v>
+      </c>
+      <c r="I293" s="24">
+        <v>3</v>
+      </c>
+      <c r="J293" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="L293" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C294" s="6">
+        <v>240014</v>
+      </c>
+      <c r="D294" s="6">
+        <v>240015</v>
+      </c>
+      <c r="E294" s="22">
+        <v>15405004</v>
+      </c>
+      <c r="F294" s="6">
+        <v>0</v>
+      </c>
+      <c r="G294" s="6">
+        <v>4</v>
+      </c>
+      <c r="H294" s="6">
+        <v>2</v>
+      </c>
+      <c r="I294" s="24">
+        <v>3</v>
+      </c>
+      <c r="J294" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="L294" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C295" s="6">
+        <v>240015</v>
+      </c>
+      <c r="D295" s="6">
+        <v>240016</v>
+      </c>
+      <c r="E295" s="22">
+        <v>15405006</v>
+      </c>
+      <c r="F295" s="6">
+        <v>0</v>
+      </c>
+      <c r="G295" s="6">
+        <v>4</v>
+      </c>
+      <c r="H295" s="6">
+        <v>2</v>
+      </c>
+      <c r="I295" s="24">
+        <v>3</v>
+      </c>
+      <c r="J295" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L295" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="296" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C296" s="6">
+        <v>240016</v>
+      </c>
+      <c r="D296" s="6">
+        <v>240017</v>
+      </c>
+      <c r="E296" s="22">
+        <v>15406002</v>
+      </c>
+      <c r="F296" s="6">
+        <v>0</v>
+      </c>
+      <c r="G296" s="6">
+        <v>4</v>
+      </c>
+      <c r="H296" s="6">
+        <v>2</v>
+      </c>
+      <c r="I296" s="24">
+        <v>3</v>
+      </c>
+      <c r="J296" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L296" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C297" s="6">
+        <v>240017</v>
+      </c>
+      <c r="D297" s="6">
+        <v>240018</v>
+      </c>
+      <c r="E297" s="22">
+        <v>15407002</v>
+      </c>
+      <c r="F297" s="6">
+        <v>0</v>
+      </c>
+      <c r="G297" s="6">
+        <v>4</v>
+      </c>
+      <c r="H297" s="6">
+        <v>2</v>
+      </c>
+      <c r="I297" s="24">
+        <v>3</v>
+      </c>
+      <c r="J297" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="L297" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="298" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C298" s="6">
+        <v>240018</v>
+      </c>
+      <c r="D298" s="6">
+        <v>240019</v>
+      </c>
+      <c r="E298" s="22">
+        <v>15408002</v>
+      </c>
+      <c r="F298" s="6">
+        <v>0</v>
+      </c>
+      <c r="G298" s="6">
+        <v>4</v>
+      </c>
+      <c r="H298" s="6">
+        <v>2</v>
+      </c>
+      <c r="I298" s="24">
+        <v>3</v>
+      </c>
+      <c r="J298" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="L298" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C299" s="6">
+        <v>240019</v>
+      </c>
+      <c r="D299" s="6">
+        <v>240020</v>
+      </c>
+      <c r="E299" s="22">
+        <v>15409002</v>
+      </c>
+      <c r="F299" s="6">
+        <v>0</v>
+      </c>
+      <c r="G299" s="6">
+        <v>4</v>
+      </c>
+      <c r="H299" s="6">
+        <v>2</v>
+      </c>
+      <c r="I299" s="24">
+        <v>3</v>
+      </c>
+      <c r="J299" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L299" s="24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C300" s="6">
+        <v>240020</v>
+      </c>
+      <c r="D300" s="6">
+        <v>240021</v>
+      </c>
+      <c r="E300" s="22">
+        <v>15410002</v>
+      </c>
+      <c r="F300" s="6">
+        <v>0</v>
+      </c>
+      <c r="G300" s="6">
+        <v>4</v>
+      </c>
+      <c r="H300" s="6">
+        <v>2</v>
+      </c>
+      <c r="I300" s="24">
+        <v>3</v>
+      </c>
+      <c r="J300" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L300" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C301" s="6">
+        <v>240021</v>
+      </c>
+      <c r="D301" s="6">
+        <v>240022</v>
+      </c>
+      <c r="E301" s="22">
+        <v>15410004</v>
+      </c>
+      <c r="F301" s="6">
+        <v>0</v>
+      </c>
+      <c r="G301" s="6">
+        <v>4</v>
+      </c>
+      <c r="H301" s="6">
+        <v>2</v>
+      </c>
+      <c r="I301" s="24">
+        <v>3</v>
+      </c>
+      <c r="J301" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="L301" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C302" s="6">
+        <v>240022</v>
+      </c>
+      <c r="D302" s="6">
+        <v>240023</v>
+      </c>
+      <c r="E302" s="22">
+        <v>15410102</v>
+      </c>
+      <c r="F302" s="6">
+        <v>0</v>
+      </c>
+      <c r="G302" s="6">
+        <v>4</v>
+      </c>
+      <c r="H302" s="6">
+        <v>2</v>
+      </c>
+      <c r="I302" s="24">
+        <v>3</v>
+      </c>
+      <c r="J302" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L302" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C303" s="6">
+        <v>240023</v>
+      </c>
+      <c r="D303" s="6">
+        <v>240024</v>
+      </c>
+      <c r="E303" s="22">
+        <v>15410104</v>
+      </c>
+      <c r="F303" s="6">
+        <v>0</v>
+      </c>
+      <c r="G303" s="6">
+        <v>4</v>
+      </c>
+      <c r="H303" s="6">
+        <v>2</v>
+      </c>
+      <c r="I303" s="24">
+        <v>3</v>
+      </c>
+      <c r="J303" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="L303" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="304" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C304" s="6">
+        <v>240024</v>
+      </c>
+      <c r="D304" s="6">
+        <v>240025</v>
+      </c>
+      <c r="E304" s="22">
+        <v>15411002</v>
+      </c>
+      <c r="F304" s="6">
+        <v>0</v>
+      </c>
+      <c r="G304" s="6">
+        <v>4</v>
+      </c>
+      <c r="H304" s="6">
+        <v>2</v>
+      </c>
+      <c r="I304" s="24">
+        <v>3</v>
+      </c>
+      <c r="J304" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L304" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="305" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C305" s="6">
+        <v>240025</v>
+      </c>
+      <c r="D305" s="6">
+        <v>240026</v>
+      </c>
+      <c r="E305" s="22">
+        <v>15411004</v>
+      </c>
+      <c r="F305" s="6">
+        <v>0</v>
+      </c>
+      <c r="G305" s="6">
+        <v>4</v>
+      </c>
+      <c r="H305" s="6">
+        <v>2</v>
+      </c>
+      <c r="I305" s="24">
+        <v>3</v>
+      </c>
+      <c r="J305" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="L305" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C306" s="6">
+        <v>240026</v>
+      </c>
+      <c r="D306" s="6">
+        <v>240027</v>
+      </c>
+      <c r="E306" s="22">
+        <v>15411006</v>
+      </c>
+      <c r="F306" s="6">
+        <v>0</v>
+      </c>
+      <c r="G306" s="6">
+        <v>4</v>
+      </c>
+      <c r="H306" s="6">
+        <v>2</v>
+      </c>
+      <c r="I306" s="24">
+        <v>3</v>
+      </c>
+      <c r="J306" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L306" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="307" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C307" s="6">
+        <v>240027</v>
+      </c>
+      <c r="D307" s="6">
+        <v>240028</v>
+      </c>
+      <c r="E307" s="23">
+        <v>10024010</v>
+      </c>
+      <c r="F307" s="6">
+        <v>0</v>
+      </c>
+      <c r="G307" s="6">
+        <v>4</v>
+      </c>
+      <c r="H307" s="6">
+        <v>2</v>
+      </c>
+      <c r="I307" s="22">
+        <v>300</v>
+      </c>
+      <c r="J307" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L307" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C308" s="6">
+        <v>240028</v>
+      </c>
+      <c r="D308" s="6">
+        <v>240029</v>
+      </c>
+      <c r="E308" s="23">
+        <v>10024010</v>
+      </c>
+      <c r="F308" s="6">
+        <v>0</v>
+      </c>
+      <c r="G308" s="6">
+        <v>4</v>
+      </c>
+      <c r="H308" s="6">
+        <v>2</v>
+      </c>
+      <c r="I308" s="22">
+        <v>500</v>
+      </c>
+      <c r="J308" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L308" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="309" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C309" s="6">
+        <v>240029</v>
+      </c>
+      <c r="D309" s="6">
+        <v>240030</v>
+      </c>
+      <c r="E309" s="23">
+        <v>10024010</v>
+      </c>
+      <c r="F309" s="6">
+        <v>0</v>
+      </c>
+      <c r="G309" s="6">
+        <v>4</v>
+      </c>
+      <c r="H309" s="6">
+        <v>2</v>
+      </c>
+      <c r="I309" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J309" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L309" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="310" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="6">
+        <v>240030</v>
+      </c>
+      <c r="D310" s="6">
+        <v>240031</v>
+      </c>
+      <c r="E310" s="23">
+        <v>10024008</v>
+      </c>
+      <c r="F310" s="6">
+        <v>0</v>
+      </c>
+      <c r="G310" s="6">
+        <v>4</v>
+      </c>
+      <c r="H310" s="6">
+        <v>2</v>
+      </c>
+      <c r="I310" s="22">
+        <v>5</v>
+      </c>
+      <c r="J310" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L310" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="311" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C311" s="6">
+        <v>240031</v>
+      </c>
+      <c r="D311" s="6">
+        <v>240032</v>
+      </c>
+      <c r="E311" s="23">
+        <v>10024008</v>
+      </c>
+      <c r="F311" s="6">
+        <v>0</v>
+      </c>
+      <c r="G311" s="6">
+        <v>4</v>
+      </c>
+      <c r="H311" s="6">
+        <v>2</v>
+      </c>
+      <c r="I311" s="22">
+        <v>10</v>
+      </c>
+      <c r="J311" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="L311" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="312" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C312" s="6">
+        <v>240032</v>
+      </c>
+      <c r="D312" s="6">
+        <v>240033</v>
+      </c>
+      <c r="E312" s="23">
+        <v>10024008</v>
+      </c>
+      <c r="F312" s="6">
+        <v>0</v>
+      </c>
+      <c r="G312" s="6">
+        <v>4</v>
+      </c>
+      <c r="H312" s="6">
+        <v>2</v>
+      </c>
+      <c r="I312" s="22">
+        <v>20</v>
+      </c>
+      <c r="J312" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L312" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="313" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C313" s="6">
+        <v>240033</v>
+      </c>
+      <c r="D313" s="6">
+        <v>240034</v>
+      </c>
+      <c r="E313" s="23">
+        <v>10024009</v>
+      </c>
+      <c r="F313" s="6">
+        <v>0</v>
+      </c>
+      <c r="G313" s="6">
+        <v>4</v>
+      </c>
+      <c r="H313" s="6">
+        <v>2</v>
+      </c>
+      <c r="I313" s="22">
+        <v>3</v>
+      </c>
+      <c r="J313" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L313" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="314" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C314" s="6">
+        <v>240034</v>
+      </c>
+      <c r="D314" s="6">
+        <v>240035</v>
+      </c>
+      <c r="E314" s="23">
+        <v>10024009</v>
+      </c>
+      <c r="F314" s="6">
+        <v>0</v>
+      </c>
+      <c r="G314" s="6">
+        <v>4</v>
+      </c>
+      <c r="H314" s="6">
+        <v>2</v>
+      </c>
+      <c r="I314" s="22">
+        <v>5</v>
+      </c>
+      <c r="J314" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L314" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="315" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C315" s="6">
+        <v>240035</v>
+      </c>
+      <c r="D315" s="6">
+        <v>0</v>
+      </c>
+      <c r="E315" s="23">
+        <v>10024009</v>
+      </c>
+      <c r="F315" s="6">
+        <v>0</v>
+      </c>
+      <c r="G315" s="6">
+        <v>4</v>
+      </c>
+      <c r="H315" s="6">
+        <v>2</v>
+      </c>
+      <c r="I315" s="22">
+        <v>10</v>
+      </c>
+      <c r="J315" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L315" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="316" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C316" s="6">
         <v>250001</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D316" s="6">
         <v>250002</v>
       </c>
-      <c r="E216" s="6">
-        <v>14010004</v>
-      </c>
-      <c r="F216" s="6">
-        <v>0</v>
-      </c>
-      <c r="G216" s="6">
+      <c r="E316" s="22">
+        <v>15501002</v>
+      </c>
+      <c r="F316" s="6">
+        <v>0</v>
+      </c>
+      <c r="G316" s="6">
         <v>5</v>
       </c>
-      <c r="H216" s="6">
-        <v>2</v>
-      </c>
-      <c r="I216" s="6">
-        <v>3</v>
-      </c>
-      <c r="J216" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="217" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="6">
+      <c r="H316" s="6">
+        <v>2</v>
+      </c>
+      <c r="I316" s="24">
+        <v>3</v>
+      </c>
+      <c r="J316" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="L316" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C317" s="6">
         <v>250002</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D317" s="6">
         <v>250003</v>
       </c>
-      <c r="E217" s="6">
-        <v>14010008</v>
-      </c>
-      <c r="F217" s="6">
-        <v>0</v>
-      </c>
-      <c r="G217" s="6">
+      <c r="E317" s="22">
+        <v>15501004</v>
+      </c>
+      <c r="F317" s="6">
+        <v>0</v>
+      </c>
+      <c r="G317" s="6">
         <v>5</v>
       </c>
-      <c r="H217" s="6">
-        <v>2</v>
-      </c>
-      <c r="I217" s="6">
-        <v>3</v>
-      </c>
-      <c r="J217" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="218" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="6">
+      <c r="H317" s="6">
+        <v>2</v>
+      </c>
+      <c r="I317" s="24">
+        <v>3</v>
+      </c>
+      <c r="J317" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="L317" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C318" s="6">
         <v>250003</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D318" s="6">
         <v>250004</v>
       </c>
-      <c r="E218" s="6">
-        <v>14010012</v>
-      </c>
-      <c r="F218" s="6">
-        <v>0</v>
-      </c>
-      <c r="G218" s="6">
+      <c r="E318" s="22">
+        <v>15501006</v>
+      </c>
+      <c r="F318" s="6">
+        <v>0</v>
+      </c>
+      <c r="G318" s="6">
         <v>5</v>
       </c>
-      <c r="H218" s="6">
-        <v>2</v>
-      </c>
-      <c r="I218" s="6">
-        <v>3</v>
-      </c>
-      <c r="J218" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="219" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="6">
+      <c r="H318" s="6">
+        <v>2</v>
+      </c>
+      <c r="I318" s="24">
+        <v>3</v>
+      </c>
+      <c r="J318" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L318" s="24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C319" s="6">
         <v>250004</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D319" s="6">
         <v>250005</v>
       </c>
-      <c r="E219" s="6">
-        <v>14020004</v>
-      </c>
-      <c r="F219" s="6">
-        <v>0</v>
-      </c>
-      <c r="G219" s="6">
+      <c r="E319" s="22">
+        <v>15502002</v>
+      </c>
+      <c r="F319" s="6">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6">
         <v>5</v>
       </c>
-      <c r="H219" s="6">
-        <v>2</v>
-      </c>
-      <c r="I219" s="6">
-        <v>3</v>
-      </c>
-      <c r="J219" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="220" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="6">
+      <c r="H319" s="6">
+        <v>2</v>
+      </c>
+      <c r="I319" s="24">
+        <v>3</v>
+      </c>
+      <c r="J319" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L319" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C320" s="6">
         <v>250005</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D320" s="6">
         <v>250006</v>
       </c>
-      <c r="E220" s="6">
-        <v>14020008</v>
-      </c>
-      <c r="F220" s="6">
-        <v>0</v>
-      </c>
-      <c r="G220" s="6">
+      <c r="E320" s="22">
+        <v>15502004</v>
+      </c>
+      <c r="F320" s="6">
+        <v>0</v>
+      </c>
+      <c r="G320" s="6">
         <v>5</v>
       </c>
-      <c r="H220" s="6">
-        <v>2</v>
-      </c>
-      <c r="I220" s="6">
-        <v>3</v>
-      </c>
-      <c r="J220" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="221" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="6">
+      <c r="H320" s="6">
+        <v>2</v>
+      </c>
+      <c r="I320" s="24">
+        <v>3</v>
+      </c>
+      <c r="J320" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="L320" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C321" s="6">
         <v>250006</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D321" s="6">
         <v>250007</v>
       </c>
-      <c r="E221" s="6">
-        <v>14020012</v>
-      </c>
-      <c r="F221" s="6">
-        <v>0</v>
-      </c>
-      <c r="G221" s="6">
+      <c r="E321" s="22">
+        <v>15502006</v>
+      </c>
+      <c r="F321" s="6">
+        <v>0</v>
+      </c>
+      <c r="G321" s="6">
         <v>5</v>
       </c>
-      <c r="H221" s="6">
-        <v>2</v>
-      </c>
-      <c r="I221" s="6">
-        <v>3</v>
-      </c>
-      <c r="J221" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="222" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="6">
+      <c r="H321" s="6">
+        <v>2</v>
+      </c>
+      <c r="I321" s="24">
+        <v>3</v>
+      </c>
+      <c r="J321" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="L321" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C322" s="6">
         <v>250007</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D322" s="6">
         <v>250008</v>
       </c>
-      <c r="E222" s="6">
-        <v>14030004</v>
-      </c>
-      <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6">
+      <c r="E322" s="22">
+        <v>15503002</v>
+      </c>
+      <c r="F322" s="6">
+        <v>0</v>
+      </c>
+      <c r="G322" s="6">
         <v>5</v>
       </c>
-      <c r="H222" s="6">
-        <v>2</v>
-      </c>
-      <c r="I222" s="6">
-        <v>3</v>
-      </c>
-      <c r="J222" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="223" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="6">
+      <c r="H322" s="6">
+        <v>2</v>
+      </c>
+      <c r="I322" s="24">
+        <v>3</v>
+      </c>
+      <c r="J322" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L322" s="24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C323" s="6">
         <v>250008</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D323" s="6">
         <v>250009</v>
       </c>
-      <c r="E223" s="6">
-        <v>14030008</v>
-      </c>
-      <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6">
+      <c r="E323" s="22">
+        <v>15503004</v>
+      </c>
+      <c r="F323" s="6">
+        <v>0</v>
+      </c>
+      <c r="G323" s="6">
         <v>5</v>
       </c>
-      <c r="H223" s="6">
-        <v>2</v>
-      </c>
-      <c r="I223" s="6">
-        <v>3</v>
-      </c>
-      <c r="J223" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="224" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="6">
+      <c r="H323" s="6">
+        <v>2</v>
+      </c>
+      <c r="I323" s="24">
+        <v>3</v>
+      </c>
+      <c r="J323" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="L323" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C324" s="6">
         <v>250009</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D324" s="6">
         <v>250010</v>
       </c>
-      <c r="E224" s="6">
-        <v>14030012</v>
-      </c>
-      <c r="F224" s="6">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6">
+      <c r="E324" s="22">
+        <v>15503006</v>
+      </c>
+      <c r="F324" s="6">
+        <v>0</v>
+      </c>
+      <c r="G324" s="6">
         <v>5</v>
       </c>
-      <c r="H224" s="6">
-        <v>2</v>
-      </c>
-      <c r="I224" s="6">
-        <v>3</v>
-      </c>
-      <c r="J224" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="225" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="6">
+      <c r="H324" s="6">
+        <v>2</v>
+      </c>
+      <c r="I324" s="24">
+        <v>3</v>
+      </c>
+      <c r="J324" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L324" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C325" s="6">
         <v>250010</v>
       </c>
-      <c r="D225" s="6">
-        <v>0</v>
-      </c>
-      <c r="E225" s="6">
-        <v>14040004</v>
-      </c>
-      <c r="F225" s="6">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6">
+      <c r="D325" s="6">
+        <v>250011</v>
+      </c>
+      <c r="E325" s="22">
+        <v>15504002</v>
+      </c>
+      <c r="F325" s="6">
+        <v>0</v>
+      </c>
+      <c r="G325" s="6">
         <v>5</v>
       </c>
-      <c r="H225" s="6">
-        <v>2</v>
-      </c>
-      <c r="I225" s="6">
-        <v>3</v>
-      </c>
-      <c r="J225" s="18" t="s">
-        <v>159</v>
+      <c r="H325" s="6">
+        <v>2</v>
+      </c>
+      <c r="I325" s="24">
+        <v>3</v>
+      </c>
+      <c r="J325" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L325" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C326" s="6">
+        <v>250011</v>
+      </c>
+      <c r="D326" s="6">
+        <v>250012</v>
+      </c>
+      <c r="E326" s="22">
+        <v>15504004</v>
+      </c>
+      <c r="F326" s="6">
+        <v>0</v>
+      </c>
+      <c r="G326" s="6">
+        <v>5</v>
+      </c>
+      <c r="H326" s="6">
+        <v>2</v>
+      </c>
+      <c r="I326" s="24">
+        <v>3</v>
+      </c>
+      <c r="J326" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L326" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C327" s="6">
+        <v>250012</v>
+      </c>
+      <c r="D327" s="6">
+        <v>250013</v>
+      </c>
+      <c r="E327" s="22">
+        <v>15504006</v>
+      </c>
+      <c r="F327" s="6">
+        <v>0</v>
+      </c>
+      <c r="G327" s="6">
+        <v>5</v>
+      </c>
+      <c r="H327" s="6">
+        <v>2</v>
+      </c>
+      <c r="I327" s="24">
+        <v>3</v>
+      </c>
+      <c r="J327" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="L327" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C328" s="6">
+        <v>250013</v>
+      </c>
+      <c r="D328" s="6">
+        <v>250014</v>
+      </c>
+      <c r="E328" s="22">
+        <v>15505002</v>
+      </c>
+      <c r="F328" s="6">
+        <v>0</v>
+      </c>
+      <c r="G328" s="6">
+        <v>5</v>
+      </c>
+      <c r="H328" s="6">
+        <v>2</v>
+      </c>
+      <c r="I328" s="24">
+        <v>3</v>
+      </c>
+      <c r="J328" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L328" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C329" s="6">
+        <v>250014</v>
+      </c>
+      <c r="D329" s="6">
+        <v>250015</v>
+      </c>
+      <c r="E329" s="22">
+        <v>15505004</v>
+      </c>
+      <c r="F329" s="6">
+        <v>0</v>
+      </c>
+      <c r="G329" s="6">
+        <v>5</v>
+      </c>
+      <c r="H329" s="6">
+        <v>2</v>
+      </c>
+      <c r="I329" s="24">
+        <v>3</v>
+      </c>
+      <c r="J329" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L329" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C330" s="6">
+        <v>250015</v>
+      </c>
+      <c r="D330" s="6">
+        <v>250016</v>
+      </c>
+      <c r="E330" s="22">
+        <v>15505006</v>
+      </c>
+      <c r="F330" s="6">
+        <v>0</v>
+      </c>
+      <c r="G330" s="6">
+        <v>5</v>
+      </c>
+      <c r="H330" s="6">
+        <v>2</v>
+      </c>
+      <c r="I330" s="24">
+        <v>3</v>
+      </c>
+      <c r="J330" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L330" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C331" s="6">
+        <v>250016</v>
+      </c>
+      <c r="D331" s="6">
+        <v>250017</v>
+      </c>
+      <c r="E331" s="22">
+        <v>15506002</v>
+      </c>
+      <c r="F331" s="6">
+        <v>0</v>
+      </c>
+      <c r="G331" s="6">
+        <v>5</v>
+      </c>
+      <c r="H331" s="6">
+        <v>2</v>
+      </c>
+      <c r="I331" s="24">
+        <v>3</v>
+      </c>
+      <c r="J331" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="L331" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C332" s="6">
+        <v>250017</v>
+      </c>
+      <c r="D332" s="6">
+        <v>250018</v>
+      </c>
+      <c r="E332" s="22">
+        <v>15507002</v>
+      </c>
+      <c r="F332" s="6">
+        <v>0</v>
+      </c>
+      <c r="G332" s="6">
+        <v>5</v>
+      </c>
+      <c r="H332" s="6">
+        <v>2</v>
+      </c>
+      <c r="I332" s="24">
+        <v>3</v>
+      </c>
+      <c r="J332" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L332" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C333" s="6">
+        <v>250018</v>
+      </c>
+      <c r="D333" s="6">
+        <v>250019</v>
+      </c>
+      <c r="E333" s="22">
+        <v>15508002</v>
+      </c>
+      <c r="F333" s="6">
+        <v>0</v>
+      </c>
+      <c r="G333" s="6">
+        <v>5</v>
+      </c>
+      <c r="H333" s="6">
+        <v>2</v>
+      </c>
+      <c r="I333" s="24">
+        <v>3</v>
+      </c>
+      <c r="J333" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="L333" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C334" s="6">
+        <v>250019</v>
+      </c>
+      <c r="D334" s="6">
+        <v>250020</v>
+      </c>
+      <c r="E334" s="22">
+        <v>15509002</v>
+      </c>
+      <c r="F334" s="6">
+        <v>0</v>
+      </c>
+      <c r="G334" s="6">
+        <v>5</v>
+      </c>
+      <c r="H334" s="6">
+        <v>2</v>
+      </c>
+      <c r="I334" s="24">
+        <v>3</v>
+      </c>
+      <c r="J334" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L334" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C335" s="6">
+        <v>250020</v>
+      </c>
+      <c r="D335" s="6">
+        <v>250021</v>
+      </c>
+      <c r="E335" s="22">
+        <v>15510002</v>
+      </c>
+      <c r="F335" s="6">
+        <v>0</v>
+      </c>
+      <c r="G335" s="6">
+        <v>5</v>
+      </c>
+      <c r="H335" s="6">
+        <v>2</v>
+      </c>
+      <c r="I335" s="24">
+        <v>3</v>
+      </c>
+      <c r="J335" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="L335" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C336" s="6">
+        <v>250021</v>
+      </c>
+      <c r="D336" s="6">
+        <v>250022</v>
+      </c>
+      <c r="E336" s="22">
+        <v>15510004</v>
+      </c>
+      <c r="F336" s="6">
+        <v>0</v>
+      </c>
+      <c r="G336" s="6">
+        <v>5</v>
+      </c>
+      <c r="H336" s="6">
+        <v>2</v>
+      </c>
+      <c r="I336" s="24">
+        <v>3</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L336" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C337" s="6">
+        <v>250022</v>
+      </c>
+      <c r="D337" s="6">
+        <v>250023</v>
+      </c>
+      <c r="E337" s="22">
+        <v>15510102</v>
+      </c>
+      <c r="F337" s="6">
+        <v>0</v>
+      </c>
+      <c r="G337" s="6">
+        <v>5</v>
+      </c>
+      <c r="H337" s="6">
+        <v>2</v>
+      </c>
+      <c r="I337" s="24">
+        <v>3</v>
+      </c>
+      <c r="J337" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="L337" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C338" s="6">
+        <v>250023</v>
+      </c>
+      <c r="D338" s="6">
+        <v>250024</v>
+      </c>
+      <c r="E338" s="22">
+        <v>15510104</v>
+      </c>
+      <c r="F338" s="6">
+        <v>0</v>
+      </c>
+      <c r="G338" s="6">
+        <v>5</v>
+      </c>
+      <c r="H338" s="6">
+        <v>2</v>
+      </c>
+      <c r="I338" s="24">
+        <v>3</v>
+      </c>
+      <c r="J338" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="L338" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C339" s="6">
+        <v>250024</v>
+      </c>
+      <c r="D339" s="6">
+        <v>250025</v>
+      </c>
+      <c r="E339" s="22">
+        <v>15511002</v>
+      </c>
+      <c r="F339" s="6">
+        <v>0</v>
+      </c>
+      <c r="G339" s="6">
+        <v>5</v>
+      </c>
+      <c r="H339" s="6">
+        <v>2</v>
+      </c>
+      <c r="I339" s="24">
+        <v>3</v>
+      </c>
+      <c r="J339" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="L339" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C340" s="6">
+        <v>250025</v>
+      </c>
+      <c r="D340" s="6">
+        <v>250026</v>
+      </c>
+      <c r="E340" s="22">
+        <v>15511004</v>
+      </c>
+      <c r="F340" s="6">
+        <v>0</v>
+      </c>
+      <c r="G340" s="6">
+        <v>5</v>
+      </c>
+      <c r="H340" s="6">
+        <v>2</v>
+      </c>
+      <c r="I340" s="24">
+        <v>3</v>
+      </c>
+      <c r="J340" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="L340" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C341" s="6">
+        <v>250026</v>
+      </c>
+      <c r="D341" s="6">
+        <v>250027</v>
+      </c>
+      <c r="E341" s="22">
+        <v>15511006</v>
+      </c>
+      <c r="F341" s="6">
+        <v>0</v>
+      </c>
+      <c r="G341" s="6">
+        <v>5</v>
+      </c>
+      <c r="H341" s="6">
+        <v>2</v>
+      </c>
+      <c r="I341" s="24">
+        <v>3</v>
+      </c>
+      <c r="J341" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L341" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C342" s="6">
+        <v>250027</v>
+      </c>
+      <c r="D342" s="6">
+        <v>250028</v>
+      </c>
+      <c r="E342" s="23">
+        <v>10025010</v>
+      </c>
+      <c r="F342" s="6">
+        <v>0</v>
+      </c>
+      <c r="G342" s="6">
+        <v>5</v>
+      </c>
+      <c r="H342" s="6">
+        <v>2</v>
+      </c>
+      <c r="I342" s="22">
+        <v>300</v>
+      </c>
+      <c r="J342" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L342" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C343" s="6">
+        <v>250028</v>
+      </c>
+      <c r="D343" s="6">
+        <v>250029</v>
+      </c>
+      <c r="E343" s="23">
+        <v>10025010</v>
+      </c>
+      <c r="F343" s="6">
+        <v>0</v>
+      </c>
+      <c r="G343" s="6">
+        <v>5</v>
+      </c>
+      <c r="H343" s="6">
+        <v>2</v>
+      </c>
+      <c r="I343" s="22">
+        <v>500</v>
+      </c>
+      <c r="J343" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L343" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C344" s="6">
+        <v>250029</v>
+      </c>
+      <c r="D344" s="6">
+        <v>250030</v>
+      </c>
+      <c r="E344" s="23">
+        <v>10025010</v>
+      </c>
+      <c r="F344" s="6">
+        <v>0</v>
+      </c>
+      <c r="G344" s="6">
+        <v>5</v>
+      </c>
+      <c r="H344" s="6">
+        <v>2</v>
+      </c>
+      <c r="I344" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J344" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="L344" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C345" s="6">
+        <v>250030</v>
+      </c>
+      <c r="D345" s="6">
+        <v>250031</v>
+      </c>
+      <c r="E345" s="23">
+        <v>10025008</v>
+      </c>
+      <c r="F345" s="6">
+        <v>0</v>
+      </c>
+      <c r="G345" s="6">
+        <v>5</v>
+      </c>
+      <c r="H345" s="6">
+        <v>2</v>
+      </c>
+      <c r="I345" s="22">
+        <v>5</v>
+      </c>
+      <c r="J345" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L345" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C346" s="6">
+        <v>250031</v>
+      </c>
+      <c r="D346" s="6">
+        <v>250032</v>
+      </c>
+      <c r="E346" s="23">
+        <v>10025008</v>
+      </c>
+      <c r="F346" s="6">
+        <v>0</v>
+      </c>
+      <c r="G346" s="6">
+        <v>5</v>
+      </c>
+      <c r="H346" s="6">
+        <v>2</v>
+      </c>
+      <c r="I346" s="22">
+        <v>10</v>
+      </c>
+      <c r="J346" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L346" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C347" s="6">
+        <v>250032</v>
+      </c>
+      <c r="D347" s="6">
+        <v>250033</v>
+      </c>
+      <c r="E347" s="23">
+        <v>10025008</v>
+      </c>
+      <c r="F347" s="6">
+        <v>0</v>
+      </c>
+      <c r="G347" s="6">
+        <v>5</v>
+      </c>
+      <c r="H347" s="6">
+        <v>2</v>
+      </c>
+      <c r="I347" s="22">
+        <v>20</v>
+      </c>
+      <c r="J347" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="L347" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="348" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C348" s="6">
+        <v>250033</v>
+      </c>
+      <c r="D348" s="6">
+        <v>250034</v>
+      </c>
+      <c r="E348" s="23">
+        <v>10025009</v>
+      </c>
+      <c r="F348" s="6">
+        <v>0</v>
+      </c>
+      <c r="G348" s="6">
+        <v>5</v>
+      </c>
+      <c r="H348" s="6">
+        <v>2</v>
+      </c>
+      <c r="I348" s="22">
+        <v>3</v>
+      </c>
+      <c r="J348" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L348" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="349" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C349" s="6">
+        <v>250034</v>
+      </c>
+      <c r="D349" s="6">
+        <v>250035</v>
+      </c>
+      <c r="E349" s="23">
+        <v>10025009</v>
+      </c>
+      <c r="F349" s="6">
+        <v>0</v>
+      </c>
+      <c r="G349" s="6">
+        <v>5</v>
+      </c>
+      <c r="H349" s="6">
+        <v>2</v>
+      </c>
+      <c r="I349" s="22">
+        <v>5</v>
+      </c>
+      <c r="J349" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="L349" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="350" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C350" s="6">
+        <v>250035</v>
+      </c>
+      <c r="D350" s="6">
+        <v>0</v>
+      </c>
+      <c r="E350" s="23">
+        <v>10025009</v>
+      </c>
+      <c r="F350" s="6">
+        <v>0</v>
+      </c>
+      <c r="G350" s="6">
+        <v>5</v>
+      </c>
+      <c r="H350" s="6">
+        <v>2</v>
+      </c>
+      <c r="I350" s="22">
+        <v>10</v>
+      </c>
+      <c r="J350" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="L350" s="22" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18941E5-9159-4CFE-AED8-970345480C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9620D3A-3CF1-45AC-A29C-45DC0208D884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="225" windowWidth="24705" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="356">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -1240,6 +1240,10 @@
   </si>
   <si>
     <t>110101,20</t>
+  </si>
+  <si>
+    <t>StartType</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9758,9 +9762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J176" sqref="J176:J210"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9820,7 +9824,7 @@
         <v>154</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>158</v>

--- a/Excel/ShouJiItemConfig.xlsx
+++ b/Excel/ShouJiItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5646C27F-5C34-4D93-9033-B4DAB33F2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4ED9C4-2D3E-4A5E-8120-A6BD13B2FA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="525" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiItemProto" sheetId="1" r:id="rId1"/>
@@ -9042,9 +9042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D228" sqref="D228"/>
+      <selection pane="topRight" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11706,10 +11706,10 @@
     </row>
     <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="12">
-        <v>130023</v>
+        <v>130024</v>
       </c>
       <c r="D101" s="12">
-        <v>130024</v>
+        <v>130025</v>
       </c>
       <c r="E101" s="13">
         <v>15310202</v>
@@ -11733,10 +11733,10 @@
     </row>
     <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="12">
-        <v>130024</v>
+        <v>130025</v>
       </c>
       <c r="D102" s="12">
-        <v>130025</v>
+        <v>130026</v>
       </c>
       <c r="E102" s="12">
         <v>15311002</v>
@@ -11760,10 +11760,10 @@
     </row>
     <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="12">
-        <v>130025</v>
+        <v>130026</v>
       </c>
       <c r="D103" s="12">
-        <v>130026</v>
+        <v>130027</v>
       </c>
       <c r="E103" s="12">
         <v>15311004</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="12">
-        <v>130026</v>
+        <v>130027</v>
       </c>
       <c r="D104" s="12">
-        <v>130027</v>
+        <v>130028</v>
       </c>
       <c r="E104" s="12">
         <v>15311006</v>
@@ -11814,10 +11814,10 @@
     </row>
     <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="12">
-        <v>130027</v>
+        <v>130028</v>
       </c>
       <c r="D105" s="12">
-        <v>130028</v>
+        <v>130029</v>
       </c>
       <c r="E105" s="18">
         <v>15306003</v>
@@ -11841,10 +11841,10 @@
     </row>
     <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="12">
-        <v>130028</v>
+        <v>130029</v>
       </c>
       <c r="D106" s="12">
-        <v>130029</v>
+        <v>130030</v>
       </c>
       <c r="E106" s="18">
         <v>15310011</v>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="12">
-        <v>130029</v>
+        <v>130030</v>
       </c>
       <c r="D107" s="12">
-        <v>130030</v>
+        <v>130031</v>
       </c>
       <c r="E107" s="18">
         <v>15310012</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="12">
-        <v>130030</v>
+        <v>130031</v>
       </c>
       <c r="D108" s="12">
-        <v>130031</v>
+        <v>130032</v>
       </c>
       <c r="E108" s="18">
         <v>15310111</v>
@@ -11922,10 +11922,10 @@
     </row>
     <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="12">
-        <v>130031</v>
+        <v>130032</v>
       </c>
       <c r="D109" s="12">
-        <v>130032</v>
+        <v>130033</v>
       </c>
       <c r="E109" s="18">
         <v>15310112</v>
@@ -11949,10 +11949,10 @@
     </row>
     <row r="110" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="12">
-        <v>130031</v>
+        <v>130033</v>
       </c>
       <c r="D110" s="12">
-        <v>130032</v>
+        <v>130034</v>
       </c>
       <c r="E110" s="18">
         <v>15310211</v>
@@ -11976,10 +11976,10 @@
     </row>
     <row r="111" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="12">
-        <v>130032</v>
+        <v>130034</v>
       </c>
       <c r="D111" s="12">
-        <v>130033</v>
+        <v>130035</v>
       </c>
       <c r="E111" s="18">
         <v>15311011</v>
@@ -12003,10 +12003,10 @@
     </row>
     <row r="112" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="12">
-        <v>130033</v>
+        <v>130035</v>
       </c>
       <c r="D112" s="12">
-        <v>130034</v>
+        <v>130036</v>
       </c>
       <c r="E112" s="18">
         <v>15311012</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="113" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="12">
-        <v>130034</v>
+        <v>130036</v>
       </c>
       <c r="D113" s="12">
         <v>0</v>
